--- a/canada-tag-data-main.xlsx
+++ b/canada-tag-data-main.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://plp150-my.sharepoint.com/personal/m_leslie_publiclawproject_org_uk/Documents/Research and writing/TAG Project/TAG Register/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{266AAAB4-8FBF-4F9E-88AF-44BD1F83701B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6009E783-B4F2-451B-A2B3-3BDD28185330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30015" yWindow="795" windowWidth="24915" windowHeight="14130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4213" uniqueCount="1489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4214" uniqueCount="1482">
   <si>
     <t>Tool</t>
   </si>
@@ -598,9 +598,6 @@
     <t>Helps legal practitioners find precedents re: worker classification, reasonable notice for dismissal, and disability accommodation cases</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>IBM Tools</t>
   </si>
   <si>
@@ -628,6 +625,9 @@
   </si>
   <si>
     <t>Date of purchase: April 2021 - 2022</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
   <si>
     <t>visual analysis; advance analytics</t>
@@ -1264,7 +1264,7 @@
     <t>Not clear</t>
   </si>
   <si>
-    <t>https://archive.org/details/IRCC_A-2019-083837</t>
+    <t>IRCC_A-2019-083837</t>
   </si>
   <si>
     <t>No Tool Name Provided [Deep-learning-powered assessment of risk data.]</t>
@@ -1291,7 +1291,7 @@
     <t>Risk information; deep learning; machine learning</t>
   </si>
   <si>
-    <t>https://archive.org/details/ESDC_A-2019-001027</t>
+    <t>ESDC_A-2019-001027</t>
   </si>
   <si>
     <t>No Tool Name Provided [AIDungeon.io is based on Chat GPT-3.]</t>
@@ -1318,7 +1318,7 @@
     <t>Deep learning; Chat GPT-3; AIDungeon.io</t>
   </si>
   <si>
-    <t>https://archive.org/details/ESDC_A-2020-002665</t>
+    <t>ESDC_A-2020-002665</t>
   </si>
   <si>
     <t>National Contact Tracing App</t>
@@ -1342,7 +1342,7 @@
     <t>Machine learning; Covid; Bluetooth</t>
   </si>
   <si>
-    <t>https://archive.org/details/HC_A-2020-001173</t>
+    <t>HC_A-2020-001173</t>
   </si>
   <si>
     <t>FinDec</t>
@@ -1357,7 +1357,7 @@
     <t>Predictive modelling; immigration</t>
   </si>
   <si>
-    <t>https://archive.org/details/IRCC_A-2018-009320</t>
+    <t>IRCC_A-2018-009320</t>
   </si>
   <si>
     <t>DXP (Digital Exchange Platform, formerly the Interoperability platform)</t>
@@ -1372,7 +1372,7 @@
     <t>Interoperability; platform</t>
   </si>
   <si>
-    <t>https://archive.org/details/DOJ_A-2018-001225</t>
+    <t>DOJ_A-2018-001225</t>
   </si>
   <si>
     <t>Call Center Virtual Assistant</t>
@@ -1390,7 +1390,7 @@
     <t>Artificial intelligence; call center; virtual assistant</t>
   </si>
   <si>
-    <t>https://archive.org/details/ESDC_A-2022-000257</t>
+    <t>ESDC_A-2022-000257</t>
   </si>
   <si>
     <t>Record of Employment Comments (ROEC) Artificial Intelligence (AI)</t>
@@ -1423,7 +1423,7 @@
     <t>Predictive modelling; document extraction</t>
   </si>
   <si>
-    <t>https://archive.org/details/PWGSC_A-2020-000685</t>
+    <t>PWGSC_A-2020-000685</t>
   </si>
   <si>
     <t>No Tool Name Provided [AI data tracking]</t>
@@ -1567,7 +1567,7 @@
     <t>identifies patterns to evaluate data collected from commerical passenger air carriers</t>
   </si>
   <si>
-    <t>https://archive.org/details/CBSA_A-2016-008780</t>
+    <t>CBSA_A-2016-008780</t>
   </si>
   <si>
     <t>https://www.ctvnews.ca/canada/new-airline-passenger-vetting-could-lead-to-racial-profiling-watchdog-warns-1.2727037</t>
@@ -3639,7 +3639,7 @@
     <t>Neural machine translation</t>
   </si>
   <si>
-    <t>File No. 700656035; House of Commons Sessional Paper 8555-441-1031, January 30 2023, Response to Q-1031, Pages 244-248; https://parl-gc.primo.exlibrisgroup.com/discovery/delivery/01CALP_INST:01CALP/12152828120002616?lang=en</t>
+    <t>House of Commons Sessional Paper 8555-441-1031, January 30 2023, Response to Q-1031, Pages 244-248; https://parl-gc.primo.exlibrisgroup.com/discovery/delivery/01CALP_INST:01CALP/12152828120002616?lang=en</t>
   </si>
   <si>
     <t>DeepL GMBH</t>
@@ -3648,7 +3648,7 @@
     <t>2021-2022</t>
   </si>
   <si>
-    <t>File No. 700649503; House of Commons Sessional Paper 8555-441-1031, January 30 2023, Response to Q-1031, Pages 244-248; https://parl-gc.primo.exlibrisgroup.com/discovery/delivery/01CALP_INST:01CALP/12152828120002616?</t>
+    <t>House of Commons Sessional Paper 8555-441-1031, January 30 2023, Response to Q-1031, Pages 244-248; https://parl-gc.primo.exlibrisgroup.com/discovery/delivery/01CALP_INST:01CALP/12152828120002616?</t>
   </si>
   <si>
     <t>Translation Management System</t>
@@ -3666,9 +3666,6 @@
     <t>Translation Management</t>
   </si>
   <si>
-    <t>File No. 700663953; House of Commons Sessional Paper 8555-441-1031, January 30 2023, Response to Q-1031, Pages 244-248; https://parl-gc.primo.exlibrisgroup.com/discovery/delivery/01CALP_INST:01CALP/12152828120002616?</t>
-  </si>
-  <si>
     <t>Neural Machine Translation - specialized domain</t>
   </si>
   <si>
@@ -3678,9 +3675,6 @@
     <t>Neural Machine Translation Agregator</t>
   </si>
   <si>
-    <t>File Nos. 700629617; 700664544; 700590192; House of Commons Sessional Paper 8555-441-1031, January 30 2023, Response to Q-1031, Pages 244-248; https://parl-gc.primo.exlibrisgroup.com/discovery/delivery/01CALP_INST:01CALP/12152828120002616?</t>
-  </si>
-  <si>
     <t>Remote Simultaneous Interpretation</t>
   </si>
   <si>
@@ -3696,9 +3690,6 @@
     <t>Remote Interpretation</t>
   </si>
   <si>
-    <t>File No. 700664876; House of Commons Sessional Paper 8555-441-1031, January 30 2023, Response to Q-1031, Pages 244-248; https://parl-gc.primo.exlibrisgroup.com/discovery/delivery/01CALP_INST:01CALP/12152828120002616?</t>
-  </si>
-  <si>
     <t>Iconic Translation Machines Ltd.</t>
   </si>
   <si>
@@ -3708,9 +3699,6 @@
     <t>Neural Machine Translation Proof of Concept</t>
   </si>
   <si>
-    <t>File No. 700456759; House of Commons Sessional Paper 8555-441-1031, January 30 2023, Response to Q-1031, Pages 244-248; https://parl-gc.primo.exlibrisgroup.com/discovery/delivery/01CALP_INST:01CALP/12152828120002616?</t>
-  </si>
-  <si>
     <t>No Tool Name Provided [Virtual Assistant]</t>
   </si>
   <si>
@@ -3754,9 +3742,6 @@
   </si>
   <si>
     <t>Transcription; Speech-to-Text; Speaker Identification; Custom Vocabulary</t>
-  </si>
-  <si>
-    <t>File No. A070ACBC; House of Commons Sessional Paper 8555-441-1031, January 30 2023, Response to Q-1031, Pages 244-248; https://parl-gc.primo.exlibrisgroup.com/discovery/delivery/01CALP_INST:01CALP/12152828120002616?</t>
   </si>
   <si>
     <t>Virtual Agent Solution [customer service chatbot]</t>
@@ -3782,9 +3767,6 @@
     <t>Virtual Agent; Customer Service; Chatbot</t>
   </si>
   <si>
-    <t>File No. EP961-200285; House of Commons Sessional Paper 8555-441-1031, January 30 2023, Response to Q-1031, Pages 244-248; https://parl-gc.primo.exlibrisgroup.com/discovery/delivery/01CALP_INST:01CALP/12152828120002616?</t>
-  </si>
-  <si>
     <t>Any consideration for using AI within PSPC will be within the Government of Canada Directive and guidelines on AI and provided to the Government of Canada Enterprise Architecture Review Board for initial consultations and approvals.</t>
   </si>
   <si>
@@ -3805,9 +3787,6 @@
 - Software licenses
 - Software installation, maintenance and
 support costs</t>
-  </si>
-  <si>
-    <t>Contract EN260-101970; House of Commons Sessional Paper 8555-441-1031, January 30 2023, Response to Q-1031, Pages 244-248; https://parl-gc.primo.exlibrisgroup.com/discovery/delivery/01CALP_INST:01CALP/12152828120002616?</t>
   </si>
   <si>
     <t>Expenditures with IBM Canada were for pilot projects testing AI technology capabilities. The technology did not meet a number of business requirements and a decision was made not to move forward with the initative. Contract EN260-101970 is closed and contract EP961-200285 remains active but the software maintenance and support cost for the Virtual Agent will be removed after 2022/2023 from the larger Pay System Support contract.</t>
@@ -5010,7 +4989,7 @@
     <t>"This is a Deloitte report recommending the use of a chatbot that would support and integrate into the CARM (CBSA Assessment and Revenue Management) solution. It aims to solve CBSA problem of spending significant time liaising with the trade chain partners or TCPs on FAQ-type and account-related questions, resulting in lost productivity and a poor experience."</t>
   </si>
   <si>
-    <t>https://archive.org/details/CBSA_A-2019-021329</t>
+    <t>CBSA_A-2019-021329</t>
   </si>
   <si>
     <t>MPBSD - ServiceOntario: Enabling Chat Solutions</t>
@@ -5040,7 +5019,7 @@
     <t>New sentiment analysis capability available under the Engagement Platform for clients that leverage the Amazon Connect cloud instance. The feature is called Contact Lens and is a new capability that is native to Amazon Connect. Contact Lens provides a set of machine learning (ML) capabilities, which enable sentiment analysis</t>
   </si>
   <si>
-    <t>https://archive.org/details/MPBSD_23-071</t>
+    <t>MPBSD_23-071</t>
   </si>
 </sst>
 </file>
@@ -6375,8 +6354,8 @@
   <dimension ref="A1:AC1719"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A295" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C296" sqref="C296"/>
+      <pane ySplit="1" topLeftCell="I54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M56" sqref="M56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -7388,7 +7367,7 @@
       <c r="N18" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="O18" s="61" t="s">
+      <c r="O18" s="60" t="s">
         <v>158</v>
       </c>
       <c r="P18" s="5"/>
@@ -7438,20 +7417,22 @@
       <c r="M19" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="N19" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="O19" s="5"/>
+      <c r="N19" s="59" t="s">
+        <v>82</v>
+      </c>
+      <c r="O19" s="5" t="s">
+        <v>158</v>
+      </c>
       <c r="P19" s="5"/>
       <c r="R19" s="5"/>
       <c r="Z19" s="7"/>
     </row>
     <row r="20" spans="1:26" ht="183">
       <c r="A20" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>167</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>168</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>27</v>
@@ -7469,19 +7450,19 @@
         <v>31</v>
       </c>
       <c r="H20" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="I20" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="I20" s="7" t="s">
+      <c r="J20" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="M20" s="7" t="s">
         <v>45</v>
@@ -7492,17 +7473,17 @@
       <c r="O20" s="12"/>
       <c r="P20" s="5"/>
       <c r="Q20" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R20" s="5"/>
       <c r="Z20" s="7"/>
     </row>
     <row r="21" spans="1:26" ht="91.5">
       <c r="A21" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>27</v>
@@ -7520,10 +7501,10 @@
         <v>31</v>
       </c>
       <c r="H21" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="I21" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>45</v>
@@ -7910,7 +7891,7 @@
         <v>225</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>27</v>
@@ -8030,7 +8011,7 @@
         <v>31</v>
       </c>
       <c r="H31" s="23" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="I31" s="7" t="s">
         <v>238</v>
@@ -8053,7 +8034,7 @@
       <c r="O31" s="5"/>
       <c r="P31" s="5"/>
       <c r="Q31" s="7" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="R31" s="5"/>
       <c r="Z31" s="7"/>
@@ -8084,7 +8065,7 @@
         <v>243</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="J32" s="7" t="s">
         <v>45</v>
@@ -8104,7 +8085,7 @@
       <c r="O32" s="21"/>
       <c r="P32" s="21"/>
       <c r="Q32" s="7" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="R32" s="5"/>
       <c r="Z32" s="7"/>
@@ -8126,13 +8107,13 @@
         <v>77</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="G33" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H33" s="23" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="I33" s="7" t="s">
         <v>247</v>
@@ -8155,7 +8136,7 @@
       <c r="O33" s="5"/>
       <c r="P33" s="5"/>
       <c r="Q33" s="7" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="R33" s="5"/>
       <c r="Z33" s="7"/>
@@ -8279,7 +8260,7 @@
         <v>31</v>
       </c>
       <c r="H36" s="23" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="I36" s="7" t="s">
         <v>259</v>
@@ -8327,7 +8308,7 @@
         <v>31</v>
       </c>
       <c r="H37" s="23" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="I37" s="7" t="s">
         <v>265</v>
@@ -9270,7 +9251,7 @@
         <v>409</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="K57" s="7" t="s">
         <v>348</v>
@@ -9945,10 +9926,10 @@
         <v>31</v>
       </c>
       <c r="H71" s="23" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="I71" s="7" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="J71" s="7" t="s">
         <v>34</v>
@@ -9991,10 +9972,10 @@
         <v>31</v>
       </c>
       <c r="H72" s="23" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="I72" s="7" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="J72" s="7" t="s">
         <v>34</v>
@@ -10037,10 +10018,10 @@
         <v>31</v>
       </c>
       <c r="H73" s="23" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="I73" s="7" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="J73" s="7" t="s">
         <v>34</v>
@@ -10083,7 +10064,7 @@
         <v>31</v>
       </c>
       <c r="H74" s="23" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="I74" s="7" t="s">
         <v>541</v>
@@ -10129,7 +10110,7 @@
         <v>31</v>
       </c>
       <c r="H75" s="23" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="I75" s="7" t="s">
         <v>545</v>
@@ -10175,7 +10156,7 @@
         <v>31</v>
       </c>
       <c r="H76" s="23" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="I76" s="7" t="s">
         <v>549</v>
@@ -10218,7 +10199,7 @@
         <v>31</v>
       </c>
       <c r="H77" s="23" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="I77" s="7" t="s">
         <v>550</v>
@@ -10261,7 +10242,7 @@
         <v>31</v>
       </c>
       <c r="H78" s="23" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="I78" s="7" t="s">
         <v>553</v>
@@ -10402,7 +10383,7 @@
         <v>31</v>
       </c>
       <c r="H81" s="23" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="I81" s="7" t="s">
         <v>571</v>
@@ -10448,7 +10429,7 @@
         <v>31</v>
       </c>
       <c r="H82" s="23" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="I82" s="7" t="s">
         <v>575</v>
@@ -10494,7 +10475,7 @@
         <v>31</v>
       </c>
       <c r="H83" s="23" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="I83" s="7" t="s">
         <v>580</v>
@@ -11125,7 +11106,7 @@
         <v>31</v>
       </c>
       <c r="H96" s="23" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="I96" s="7" t="s">
         <v>648</v>
@@ -11171,7 +11152,7 @@
         <v>31</v>
       </c>
       <c r="H97" s="23" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="I97" s="7" t="s">
         <v>653</v>
@@ -11217,7 +11198,7 @@
         <v>31</v>
       </c>
       <c r="H98" s="23" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="I98" s="7" t="s">
         <v>655</v>
@@ -11309,7 +11290,7 @@
         <v>31</v>
       </c>
       <c r="H100" s="23" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="I100" s="7" t="s">
         <v>659</v>
@@ -11383,7 +11364,7 @@
         <v>665</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="C102" s="7" t="s">
         <v>27</v>
@@ -11426,7 +11407,7 @@
         <v>667</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="C103" s="7" t="s">
         <v>27</v>
@@ -11469,7 +11450,7 @@
         <v>669</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="C104" s="7" t="s">
         <v>27</v>
@@ -11512,7 +11493,7 @@
         <v>671</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="C105" s="7" t="s">
         <v>27</v>
@@ -11555,7 +11536,7 @@
         <v>673</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="C106" s="7" t="s">
         <v>27</v>
@@ -11598,7 +11579,7 @@
         <v>675</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="C107" s="7" t="s">
         <v>27</v>
@@ -11843,7 +11824,7 @@
         <v>31</v>
       </c>
       <c r="H112" s="23" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="I112" s="7" t="s">
         <v>690</v>
@@ -11889,7 +11870,7 @@
         <v>31</v>
       </c>
       <c r="H113" s="23" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="I113" s="7" t="s">
         <v>692</v>
@@ -11935,7 +11916,7 @@
         <v>31</v>
       </c>
       <c r="H114" s="23" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="I114" s="7" t="s">
         <v>694</v>
@@ -11981,7 +11962,7 @@
         <v>31</v>
       </c>
       <c r="H115" s="23" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="I115" s="7" t="s">
         <v>695</v>
@@ -12027,7 +12008,7 @@
         <v>31</v>
       </c>
       <c r="H116" s="23" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="I116" s="7" t="s">
         <v>698</v>
@@ -12070,7 +12051,7 @@
         <v>31</v>
       </c>
       <c r="H117" s="23" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="I117" s="7" t="s">
         <v>699</v>
@@ -12116,7 +12097,7 @@
         <v>31</v>
       </c>
       <c r="H118" s="23" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="I118" s="7" t="s">
         <v>700</v>
@@ -12156,13 +12137,13 @@
         <v>649</v>
       </c>
       <c r="F119" s="7" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="G119" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H119" s="23" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="I119" s="7" t="s">
         <v>703</v>
@@ -12257,7 +12238,7 @@
         <v>31</v>
       </c>
       <c r="H121" s="23" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="I121" s="7" t="s">
         <v>709</v>
@@ -12303,7 +12284,7 @@
         <v>31</v>
       </c>
       <c r="H122" s="23" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="I122" s="7" t="s">
         <v>712</v>
@@ -12349,7 +12330,7 @@
         <v>31</v>
       </c>
       <c r="H123" s="23" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="I123" s="7" t="s">
         <v>716</v>
@@ -12634,7 +12615,7 @@
         <v>753</v>
       </c>
       <c r="I129" s="7" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="J129" s="38" t="s">
         <v>34</v>
@@ -12680,7 +12661,7 @@
         <v>753</v>
       </c>
       <c r="I130" s="7" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="J130" s="38" t="s">
         <v>45</v>
@@ -12726,7 +12707,7 @@
         <v>753</v>
       </c>
       <c r="I131" s="7" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="J131" s="38" t="s">
         <v>45</v>
@@ -12772,7 +12753,7 @@
         <v>761</v>
       </c>
       <c r="I132" s="7" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="J132" s="38" t="s">
         <v>45</v>
@@ -12818,7 +12799,7 @@
         <v>761</v>
       </c>
       <c r="I133" s="7" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="J133" s="7" t="s">
         <v>45</v>
@@ -12861,7 +12842,7 @@
         <v>31</v>
       </c>
       <c r="H134" s="23" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="I134" s="7" t="s">
         <v>767</v>
@@ -13505,7 +13486,7 @@
         <v>31</v>
       </c>
       <c r="H148" s="23" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="I148" s="7" t="s">
         <v>832</v>
@@ -13551,7 +13532,7 @@
         <v>31</v>
       </c>
       <c r="H149" s="23" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="I149" s="7" t="s">
         <v>836</v>
@@ -13597,7 +13578,7 @@
         <v>31</v>
       </c>
       <c r="H150" s="23" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="I150" s="7" t="s">
         <v>840</v>
@@ -13643,7 +13624,7 @@
         <v>31</v>
       </c>
       <c r="H151" s="23" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="I151" s="7" t="s">
         <v>844</v>
@@ -13689,7 +13670,7 @@
         <v>31</v>
       </c>
       <c r="H152" s="23" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="I152" s="7" t="s">
         <v>847</v>
@@ -13729,13 +13710,13 @@
         <v>806</v>
       </c>
       <c r="F153" s="7" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="G153" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H153" s="23" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="I153" s="7" t="s">
         <v>849</v>
@@ -13775,13 +13756,13 @@
         <v>806</v>
       </c>
       <c r="F154" s="7" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="G154" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H154" s="23" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="I154" s="7" t="s">
         <v>852</v>
@@ -13827,7 +13808,7 @@
         <v>31</v>
       </c>
       <c r="H155" s="23" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="I155" s="7" t="s">
         <v>854</v>
@@ -13873,7 +13854,7 @@
         <v>31</v>
       </c>
       <c r="H156" s="23" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="I156" s="7" t="s">
         <v>856</v>
@@ -13919,7 +13900,7 @@
         <v>31</v>
       </c>
       <c r="H157" s="23" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="I157" s="7" t="s">
         <v>859</v>
@@ -13965,7 +13946,7 @@
         <v>31</v>
       </c>
       <c r="H158" s="23" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="I158" s="7" t="s">
         <v>862</v>
@@ -14008,7 +13989,7 @@
         <v>31</v>
       </c>
       <c r="H159" s="23" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="I159" s="7" t="s">
         <v>865</v>
@@ -16486,18 +16467,18 @@
         <v>45</v>
       </c>
       <c r="N209" s="7" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
       <c r="V209" s="7"/>
       <c r="Y209" s="7"/>
       <c r="Z209" s="7"/>
     </row>
-    <row r="210" spans="1:26" ht="106.5">
+    <row r="210" spans="1:26" ht="91.5">
       <c r="A210" s="17" t="s">
         <v>1083</v>
       </c>
       <c r="B210" s="7" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="C210" s="7" t="s">
         <v>27</v>
@@ -16509,7 +16490,7 @@
         <v>1015</v>
       </c>
       <c r="F210" s="7" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="G210" s="7" t="s">
         <v>31</v>
@@ -16518,7 +16499,7 @@
         <v>1089</v>
       </c>
       <c r="I210" s="50" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="J210" s="7" t="s">
         <v>45</v>
@@ -16533,7 +16514,7 @@
         <v>45</v>
       </c>
       <c r="N210" s="7" t="s">
-        <v>1100</v>
+        <v>1090</v>
       </c>
       <c r="V210" s="7"/>
       <c r="Y210" s="7"/>
@@ -16544,7 +16525,7 @@
         <v>1083</v>
       </c>
       <c r="B211" s="7" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="C211" s="7" t="s">
         <v>27</v>
@@ -16556,31 +16537,31 @@
         <v>1015</v>
       </c>
       <c r="F211" s="7" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="G211" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H211" s="7" t="s">
+        <v>1101</v>
+      </c>
+      <c r="I211" s="7" t="s">
+        <v>1102</v>
+      </c>
+      <c r="J211" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K211" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L211" s="7" t="s">
         <v>1103</v>
       </c>
-      <c r="I211" s="7" t="s">
-        <v>1104</v>
-      </c>
-      <c r="J211" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="K211" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L211" s="7" t="s">
-        <v>1105</v>
-      </c>
       <c r="M211" s="7" t="s">
         <v>45</v>
       </c>
       <c r="N211" s="7" t="s">
-        <v>1106</v>
+        <v>1090</v>
       </c>
       <c r="V211" s="7"/>
       <c r="Y211" s="7"/>
@@ -16603,16 +16584,16 @@
         <v>1015</v>
       </c>
       <c r="F212" s="7" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="G212" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H212" s="7" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="I212" s="7" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="J212" s="7" t="s">
         <v>45</v>
@@ -16627,7 +16608,7 @@
         <v>45</v>
       </c>
       <c r="N212" s="7" t="s">
-        <v>1110</v>
+        <v>1090</v>
       </c>
       <c r="V212" s="7"/>
       <c r="Y212" s="7"/>
@@ -16635,46 +16616,46 @@
     </row>
     <row r="213" spans="1:26" ht="106.5">
       <c r="A213" s="17" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="B213" s="7" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="C213" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D213" s="7" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
       <c r="E213" s="7" t="s">
         <v>1015</v>
       </c>
       <c r="F213" s="7" t="s">
+        <v>1110</v>
+      </c>
+      <c r="G213" s="7" t="s">
+        <v>1111</v>
+      </c>
+      <c r="H213" s="7" t="s">
+        <v>1112</v>
+      </c>
+      <c r="I213" s="7" t="s">
+        <v>1113</v>
+      </c>
+      <c r="J213" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K213" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L213" s="7" t="s">
         <v>1114</v>
       </c>
-      <c r="G213" s="7" t="s">
-        <v>1115</v>
-      </c>
-      <c r="H213" s="7" t="s">
-        <v>1116</v>
-      </c>
-      <c r="I213" s="7" t="s">
-        <v>1117</v>
-      </c>
-      <c r="J213" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="K213" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L213" s="7" t="s">
-        <v>1118</v>
-      </c>
       <c r="M213" s="7" t="s">
         <v>45</v>
       </c>
       <c r="N213" s="7" t="s">
-        <v>1110</v>
+        <v>1090</v>
       </c>
       <c r="V213" s="7"/>
       <c r="Y213" s="7"/>
@@ -16682,31 +16663,31 @@
     </row>
     <row r="214" spans="1:26" ht="91.5">
       <c r="A214" s="17" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
       <c r="B214" s="7" t="s">
-        <v>1120</v>
+        <v>1116</v>
       </c>
       <c r="C214" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D214" s="7" t="s">
-        <v>1121</v>
+        <v>1117</v>
       </c>
       <c r="E214" s="7" t="s">
         <v>1015</v>
       </c>
       <c r="F214" s="7" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
       <c r="G214" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H214" s="7" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
       <c r="I214" s="7" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="J214" s="7" t="s">
         <v>45</v>
@@ -16715,13 +16696,13 @@
         <v>45</v>
       </c>
       <c r="L214" s="7" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="M214" s="7" t="s">
         <v>45</v>
       </c>
       <c r="N214" s="7" t="s">
-        <v>1126</v>
+        <v>1090</v>
       </c>
       <c r="V214" s="7"/>
       <c r="Y214" s="7"/>
@@ -16729,16 +16710,16 @@
     </row>
     <row r="215" spans="1:26" ht="121.5">
       <c r="A215" s="17" t="s">
-        <v>1127</v>
+        <v>1122</v>
       </c>
       <c r="B215" s="7" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="C215" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D215" s="7" t="s">
-        <v>1129</v>
+        <v>1124</v>
       </c>
       <c r="E215" s="7" t="s">
         <v>1015</v>
@@ -16750,10 +16731,10 @@
         <v>31</v>
       </c>
       <c r="H215" s="7" t="s">
-        <v>1130</v>
+        <v>1125</v>
       </c>
       <c r="I215" s="7" t="s">
-        <v>1131</v>
+        <v>1126</v>
       </c>
       <c r="J215" s="7" t="s">
         <v>45</v>
@@ -16762,16 +16743,16 @@
         <v>45</v>
       </c>
       <c r="L215" s="7" t="s">
-        <v>1132</v>
+        <v>1127</v>
       </c>
       <c r="M215" s="7" t="s">
         <v>45</v>
       </c>
       <c r="N215" s="7" t="s">
-        <v>1133</v>
+        <v>1090</v>
       </c>
       <c r="Q215" s="51" t="s">
-        <v>1134</v>
+        <v>1128</v>
       </c>
       <c r="V215" s="7"/>
       <c r="Y215" s="7"/>
@@ -16779,16 +16760,16 @@
     </row>
     <row r="216" spans="1:26" ht="198">
       <c r="A216" s="17" t="s">
-        <v>1135</v>
+        <v>1129</v>
       </c>
       <c r="B216" s="7" t="s">
-        <v>1136</v>
+        <v>1130</v>
       </c>
       <c r="C216" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D216" s="7" t="s">
-        <v>1129</v>
+        <v>1124</v>
       </c>
       <c r="E216" s="7" t="s">
         <v>1015</v>
@@ -16800,10 +16781,10 @@
         <v>31</v>
       </c>
       <c r="H216" s="7" t="s">
-        <v>1137</v>
+        <v>1131</v>
       </c>
       <c r="I216" s="7" t="s">
-        <v>1138</v>
+        <v>1132</v>
       </c>
       <c r="J216" s="7" t="s">
         <v>45</v>
@@ -16812,16 +16793,16 @@
         <v>45</v>
       </c>
       <c r="L216" s="7" t="s">
-        <v>1132</v>
+        <v>1127</v>
       </c>
       <c r="M216" s="7" t="s">
         <v>45</v>
       </c>
       <c r="N216" s="7" t="s">
-        <v>1139</v>
+        <v>1090</v>
       </c>
       <c r="Q216" s="51" t="s">
-        <v>1140</v>
+        <v>1133</v>
       </c>
       <c r="V216" s="7"/>
       <c r="Y216" s="7"/>
@@ -16829,10 +16810,10 @@
     </row>
     <row r="217" spans="1:26" ht="183">
       <c r="A217" s="17" t="s">
-        <v>1141</v>
+        <v>1134</v>
       </c>
       <c r="B217" s="7" t="s">
-        <v>1142</v>
+        <v>1135</v>
       </c>
       <c r="C217" s="7" t="s">
         <v>27</v>
@@ -16841,19 +16822,19 @@
         <v>1002</v>
       </c>
       <c r="E217" s="7" t="s">
-        <v>1143</v>
+        <v>1136</v>
       </c>
       <c r="F217" s="7" t="s">
-        <v>1144</v>
+        <v>1137</v>
       </c>
       <c r="G217" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H217" s="7" t="s">
-        <v>1145</v>
+        <v>1138</v>
       </c>
       <c r="I217" s="7" t="s">
-        <v>1146</v>
+        <v>1139</v>
       </c>
       <c r="J217" s="7" t="s">
         <v>45</v>
@@ -16862,13 +16843,13 @@
         <v>45</v>
       </c>
       <c r="L217" s="7" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="M217" s="7" t="s">
         <v>45</v>
       </c>
       <c r="N217" s="7" t="s">
-        <v>1148</v>
+        <v>1141</v>
       </c>
       <c r="V217" s="7"/>
       <c r="Y217" s="7"/>
@@ -16879,7 +16860,7 @@
         <v>388</v>
       </c>
       <c r="B218" s="7" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="C218" s="7" t="s">
         <v>27</v>
@@ -16888,7 +16869,7 @@
         <v>1002</v>
       </c>
       <c r="E218" s="7" t="s">
-        <v>1143</v>
+        <v>1136</v>
       </c>
       <c r="F218" s="7" t="s">
         <v>89</v>
@@ -16897,10 +16878,10 @@
         <v>31</v>
       </c>
       <c r="H218" s="7" t="s">
-        <v>1137</v>
+        <v>1131</v>
       </c>
       <c r="I218" s="7" t="s">
-        <v>1150</v>
+        <v>1143</v>
       </c>
       <c r="J218" s="7" t="s">
         <v>45</v>
@@ -16909,13 +16890,13 @@
         <v>45</v>
       </c>
       <c r="L218" s="7" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
       <c r="M218" s="7" t="s">
         <v>45</v>
       </c>
       <c r="N218" s="7" t="s">
-        <v>1148</v>
+        <v>1141</v>
       </c>
       <c r="V218" s="7"/>
       <c r="Y218" s="7"/>
@@ -16923,10 +16904,10 @@
     </row>
     <row r="219" spans="1:26" ht="91.5">
       <c r="A219" s="17" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
       <c r="B219" s="7" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
       <c r="C219" s="7" t="s">
         <v>27</v>
@@ -16935,19 +16916,19 @@
         <v>1002</v>
       </c>
       <c r="E219" s="7" t="s">
-        <v>1143</v>
+        <v>1136</v>
       </c>
       <c r="F219" s="7" t="s">
-        <v>1154</v>
+        <v>1147</v>
       </c>
       <c r="G219" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H219" s="7" t="s">
-        <v>1155</v>
+        <v>1148</v>
       </c>
       <c r="I219" s="7" t="s">
-        <v>1156</v>
+        <v>1149</v>
       </c>
       <c r="J219" s="7" t="s">
         <v>45</v>
@@ -16956,13 +16937,13 @@
         <v>45</v>
       </c>
       <c r="L219" s="7" t="s">
-        <v>1157</v>
+        <v>1150</v>
       </c>
       <c r="M219" s="7" t="s">
         <v>45</v>
       </c>
       <c r="N219" s="7" t="s">
-        <v>1148</v>
+        <v>1141</v>
       </c>
       <c r="V219" s="7"/>
       <c r="Y219" s="7"/>
@@ -16970,10 +16951,10 @@
     </row>
     <row r="220" spans="1:26" ht="106.5">
       <c r="A220" s="17" t="s">
-        <v>1158</v>
+        <v>1151</v>
       </c>
       <c r="B220" s="7" t="s">
-        <v>1159</v>
+        <v>1152</v>
       </c>
       <c r="C220" s="7" t="s">
         <v>27</v>
@@ -16982,19 +16963,19 @@
         <v>1002</v>
       </c>
       <c r="E220" s="7" t="s">
-        <v>1143</v>
+        <v>1136</v>
       </c>
       <c r="F220" s="7" t="s">
-        <v>1160</v>
+        <v>1153</v>
       </c>
       <c r="G220" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H220" s="7" t="s">
-        <v>1137</v>
+        <v>1131</v>
       </c>
       <c r="I220" s="7" t="s">
-        <v>1161</v>
+        <v>1154</v>
       </c>
       <c r="J220" s="7" t="s">
         <v>45</v>
@@ -17003,16 +16984,16 @@
         <v>45</v>
       </c>
       <c r="L220" s="7" t="s">
-        <v>1162</v>
+        <v>1155</v>
       </c>
       <c r="M220" s="7" t="s">
         <v>45</v>
       </c>
       <c r="N220" s="7" t="s">
-        <v>1163</v>
+        <v>1156</v>
       </c>
       <c r="O220" s="7" t="s">
-        <v>1164</v>
+        <v>1157</v>
       </c>
       <c r="V220" s="7"/>
       <c r="Y220" s="7"/>
@@ -17023,7 +17004,7 @@
         <v>529</v>
       </c>
       <c r="B221" s="7" t="s">
-        <v>1165</v>
+        <v>1158</v>
       </c>
       <c r="C221" s="7" t="s">
         <v>27</v>
@@ -17032,19 +17013,19 @@
         <v>1002</v>
       </c>
       <c r="E221" s="7" t="s">
-        <v>1143</v>
+        <v>1136</v>
       </c>
       <c r="F221" s="7" t="s">
-        <v>1166</v>
+        <v>1159</v>
       </c>
       <c r="G221" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H221" s="7" t="s">
-        <v>1167</v>
+        <v>1160</v>
       </c>
       <c r="I221" s="7" t="s">
-        <v>1168</v>
+        <v>1161</v>
       </c>
       <c r="J221" s="7" t="s">
         <v>45</v>
@@ -17053,7 +17034,7 @@
         <v>45</v>
       </c>
       <c r="L221" s="7" t="s">
-        <v>1165</v>
+        <v>1158</v>
       </c>
       <c r="M221" s="7" t="s">
         <v>45</v>
@@ -17064,10 +17045,10 @@
     </row>
     <row r="222" spans="1:26" ht="106.5">
       <c r="A222" s="17" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
       <c r="B222" s="7" t="s">
-        <v>1170</v>
+        <v>1163</v>
       </c>
       <c r="C222" s="7" t="s">
         <v>27</v>
@@ -17076,10 +17057,10 @@
         <v>1002</v>
       </c>
       <c r="E222" s="7" t="s">
-        <v>1143</v>
+        <v>1136</v>
       </c>
       <c r="F222" s="7" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
       <c r="G222" s="7" t="s">
         <v>31</v>
@@ -17088,7 +17069,7 @@
         <v>2013</v>
       </c>
       <c r="I222" s="7" t="s">
-        <v>1172</v>
+        <v>1165</v>
       </c>
       <c r="J222" s="7" t="s">
         <v>45</v>
@@ -17097,13 +17078,13 @@
         <v>45</v>
       </c>
       <c r="L222" s="7" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
       <c r="M222" s="7" t="s">
         <v>45</v>
       </c>
       <c r="N222" s="7" t="s">
-        <v>1148</v>
+        <v>1141</v>
       </c>
       <c r="V222" s="7"/>
       <c r="Y222" s="7"/>
@@ -17111,10 +17092,10 @@
     </row>
     <row r="223" spans="1:26" s="63" customFormat="1" ht="106.5">
       <c r="A223" s="64" t="s">
-        <v>1174</v>
+        <v>1167</v>
       </c>
       <c r="B223" s="63" t="s">
-        <v>1175</v>
+        <v>1168</v>
       </c>
       <c r="C223" s="63" t="s">
         <v>27</v>
@@ -17123,7 +17104,7 @@
         <v>1002</v>
       </c>
       <c r="E223" s="63" t="s">
-        <v>1143</v>
+        <v>1136</v>
       </c>
       <c r="F223" s="63" t="s">
         <v>104</v>
@@ -17132,10 +17113,10 @@
         <v>31</v>
       </c>
       <c r="H223" s="63" t="s">
-        <v>1176</v>
+        <v>1169</v>
       </c>
       <c r="I223" s="63" t="s">
-        <v>1177</v>
+        <v>1170</v>
       </c>
       <c r="J223" s="63" t="s">
         <v>45</v>
@@ -17144,24 +17125,24 @@
         <v>45</v>
       </c>
       <c r="L223" s="63" t="s">
-        <v>1178</v>
+        <v>1171</v>
       </c>
       <c r="M223" s="63" t="s">
         <v>45</v>
       </c>
       <c r="N223" s="63" t="s">
-        <v>1148</v>
+        <v>1141</v>
       </c>
       <c r="Q223" s="63" t="s">
-        <v>1179</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="224" spans="1:26" ht="91.5">
       <c r="A224" s="17" t="s">
-        <v>1180</v>
+        <v>1173</v>
       </c>
       <c r="B224" s="7" t="s">
-        <v>1178</v>
+        <v>1171</v>
       </c>
       <c r="C224" s="7" t="s">
         <v>27</v>
@@ -17170,19 +17151,19 @@
         <v>1002</v>
       </c>
       <c r="E224" s="7" t="s">
-        <v>1143</v>
+        <v>1136</v>
       </c>
       <c r="F224" s="7" t="s">
-        <v>1181</v>
+        <v>1174</v>
       </c>
       <c r="G224" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H224" s="53" t="s">
-        <v>1182</v>
+        <v>1175</v>
       </c>
       <c r="I224" s="7" t="s">
-        <v>1183</v>
+        <v>1176</v>
       </c>
       <c r="J224" s="7" t="s">
         <v>45</v>
@@ -17191,13 +17172,13 @@
         <v>45</v>
       </c>
       <c r="L224" s="7" t="s">
-        <v>1178</v>
+        <v>1171</v>
       </c>
       <c r="M224" s="7" t="s">
         <v>45</v>
       </c>
       <c r="N224" s="7" t="s">
-        <v>1148</v>
+        <v>1141</v>
       </c>
       <c r="V224" s="7"/>
       <c r="Y224" s="7"/>
@@ -17205,10 +17186,10 @@
     </row>
     <row r="225" spans="1:26" ht="91.5">
       <c r="A225" s="17" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="B225" s="7" t="s">
-        <v>1185</v>
+        <v>1178</v>
       </c>
       <c r="C225" s="7" t="s">
         <v>27</v>
@@ -17217,10 +17198,10 @@
         <v>1002</v>
       </c>
       <c r="E225" s="7" t="s">
-        <v>1143</v>
+        <v>1136</v>
       </c>
       <c r="F225" s="7" t="s">
-        <v>1186</v>
+        <v>1179</v>
       </c>
       <c r="G225" s="7" t="s">
         <v>31</v>
@@ -17229,7 +17210,7 @@
         <v>2016</v>
       </c>
       <c r="I225" s="7" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="J225" s="7" t="s">
         <v>45</v>
@@ -17238,13 +17219,13 @@
         <v>45</v>
       </c>
       <c r="L225" s="7" t="s">
-        <v>1188</v>
+        <v>1181</v>
       </c>
       <c r="M225" s="7" t="s">
         <v>45</v>
       </c>
       <c r="N225" s="7" t="s">
-        <v>1148</v>
+        <v>1141</v>
       </c>
       <c r="V225" s="7"/>
       <c r="Y225" s="7"/>
@@ -17252,10 +17233,10 @@
     </row>
     <row r="226" spans="1:26" ht="106.5">
       <c r="A226" s="17" t="s">
-        <v>1189</v>
+        <v>1182</v>
       </c>
       <c r="B226" s="7" t="s">
-        <v>1190</v>
+        <v>1183</v>
       </c>
       <c r="C226" s="7" t="s">
         <v>27</v>
@@ -17264,19 +17245,19 @@
         <v>1002</v>
       </c>
       <c r="E226" s="7" t="s">
-        <v>1143</v>
+        <v>1136</v>
       </c>
       <c r="F226" s="7" t="s">
-        <v>1191</v>
+        <v>1184</v>
       </c>
       <c r="G226" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H226" s="23" t="s">
-        <v>1182</v>
+        <v>1175</v>
       </c>
       <c r="I226" s="7" t="s">
-        <v>1192</v>
+        <v>1185</v>
       </c>
       <c r="J226" s="7" t="s">
         <v>45</v>
@@ -17285,23 +17266,23 @@
         <v>45</v>
       </c>
       <c r="L226" s="7" t="s">
-        <v>1178</v>
+        <v>1171</v>
       </c>
       <c r="M226" s="7" t="s">
         <v>45</v>
       </c>
       <c r="N226" s="7" t="s">
-        <v>1148</v>
+        <v>1141</v>
       </c>
       <c r="R226" s="5"/>
       <c r="Z226" s="7"/>
     </row>
     <row r="227" spans="1:26" ht="91.5">
       <c r="A227" s="17" t="s">
-        <v>1193</v>
+        <v>1186</v>
       </c>
       <c r="B227" s="7" t="s">
-        <v>1194</v>
+        <v>1187</v>
       </c>
       <c r="C227" s="44" t="s">
         <v>27</v>
@@ -17319,10 +17300,10 @@
         <v>31</v>
       </c>
       <c r="H227" s="44" t="s">
-        <v>1195</v>
+        <v>1188</v>
       </c>
       <c r="I227" s="44" t="s">
-        <v>1196</v>
+        <v>1189</v>
       </c>
       <c r="J227" s="7" t="s">
         <v>45</v>
@@ -17354,10 +17335,10 @@
     </row>
     <row r="228" spans="1:26" ht="91.5">
       <c r="A228" s="17" t="s">
-        <v>1197</v>
+        <v>1190</v>
       </c>
       <c r="B228" s="7" t="s">
-        <v>1198</v>
+        <v>1191</v>
       </c>
       <c r="C228" s="7" t="s">
         <v>27</v>
@@ -17369,16 +17350,16 @@
         <v>1003</v>
       </c>
       <c r="F228" s="7" t="s">
-        <v>1199</v>
+        <v>1192</v>
       </c>
       <c r="G228" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H228" s="7" t="s">
-        <v>1200</v>
+        <v>1193</v>
       </c>
       <c r="I228" s="7" t="s">
-        <v>1198</v>
+        <v>1191</v>
       </c>
       <c r="J228" s="7" t="s">
         <v>45</v>
@@ -17387,7 +17368,7 @@
         <v>45</v>
       </c>
       <c r="L228" s="7" t="s">
-        <v>1201</v>
+        <v>1194</v>
       </c>
       <c r="M228" s="17"/>
       <c r="N228" s="7" t="s">
@@ -17408,10 +17389,10 @@
     </row>
     <row r="229" spans="1:26" ht="91.5">
       <c r="A229" s="17" t="s">
-        <v>1202</v>
+        <v>1195</v>
       </c>
       <c r="B229" s="7" t="s">
-        <v>1203</v>
+        <v>1196</v>
       </c>
       <c r="C229" s="7" t="s">
         <v>27</v>
@@ -17423,16 +17404,16 @@
         <v>1003</v>
       </c>
       <c r="F229" s="7" t="s">
-        <v>1204</v>
+        <v>1197</v>
       </c>
       <c r="G229" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H229" s="7" t="s">
-        <v>1205</v>
+        <v>1198</v>
       </c>
       <c r="I229" s="7" t="s">
-        <v>1203</v>
+        <v>1196</v>
       </c>
       <c r="J229" s="7" t="s">
         <v>45</v>
@@ -17441,7 +17422,7 @@
         <v>45</v>
       </c>
       <c r="L229" s="7" t="s">
-        <v>1206</v>
+        <v>1199</v>
       </c>
       <c r="M229" s="7" t="s">
         <v>45</v>
@@ -17467,7 +17448,7 @@
         <v>529</v>
       </c>
       <c r="B230" s="7" t="s">
-        <v>1207</v>
+        <v>1200</v>
       </c>
       <c r="C230" s="44" t="s">
         <v>27</v>
@@ -17488,7 +17469,7 @@
         <v>1089</v>
       </c>
       <c r="I230" s="7" t="s">
-        <v>1207</v>
+        <v>1200</v>
       </c>
       <c r="J230" s="17"/>
       <c r="K230" s="17"/>
@@ -17515,7 +17496,7 @@
         <v>529</v>
       </c>
       <c r="B231" s="7" t="s">
-        <v>1208</v>
+        <v>1201</v>
       </c>
       <c r="C231" s="6" t="s">
         <v>27</v>
@@ -17527,16 +17508,16 @@
         <v>1003</v>
       </c>
       <c r="F231" s="7" t="s">
-        <v>1209</v>
+        <v>1202</v>
       </c>
       <c r="G231" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H231" s="23" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="I231" s="7" t="s">
-        <v>1208</v>
+        <v>1201</v>
       </c>
       <c r="J231" s="7" t="s">
         <v>34</v>
@@ -17545,7 +17526,7 @@
         <v>45</v>
       </c>
       <c r="L231" s="7" t="s">
-        <v>1210</v>
+        <v>1203</v>
       </c>
       <c r="M231" s="7" t="s">
         <v>34</v>
@@ -17569,19 +17550,19 @@
         <v>529</v>
       </c>
       <c r="B232" s="7" t="s">
-        <v>1211</v>
+        <v>1204</v>
       </c>
       <c r="C232" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D232" s="7" t="s">
-        <v>1212</v>
+        <v>1205</v>
       </c>
       <c r="E232" s="7" t="s">
-        <v>1213</v>
+        <v>1206</v>
       </c>
       <c r="F232" s="7" t="s">
-        <v>1214</v>
+        <v>1207</v>
       </c>
       <c r="G232" s="7" t="s">
         <v>31</v>
@@ -17590,7 +17571,7 @@
         <v>2022</v>
       </c>
       <c r="I232" s="7" t="s">
-        <v>1215</v>
+        <v>1208</v>
       </c>
       <c r="J232" s="7" t="s">
         <v>45</v>
@@ -17599,13 +17580,13 @@
         <v>45</v>
       </c>
       <c r="L232" s="7" t="s">
-        <v>1216</v>
+        <v>1209</v>
       </c>
       <c r="M232" s="7" t="s">
         <v>45</v>
       </c>
       <c r="N232" s="7" t="s">
-        <v>1217</v>
+        <v>1210</v>
       </c>
       <c r="O232" s="17"/>
       <c r="P232" s="17"/>
@@ -17625,28 +17606,28 @@
         <v>529</v>
       </c>
       <c r="B233" s="7" t="s">
-        <v>1218</v>
+        <v>1211</v>
       </c>
       <c r="C233" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D233" s="7" t="s">
+        <v>1205</v>
+      </c>
+      <c r="E233" s="7" t="s">
+        <v>1206</v>
+      </c>
+      <c r="F233" s="7" t="s">
         <v>1212</v>
-      </c>
-      <c r="E233" s="7" t="s">
-        <v>1213</v>
-      </c>
-      <c r="F233" s="7" t="s">
-        <v>1219</v>
       </c>
       <c r="G233" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H233" s="7" t="s">
-        <v>1220</v>
+        <v>1213</v>
       </c>
       <c r="I233" s="7" t="s">
-        <v>1221</v>
+        <v>1214</v>
       </c>
       <c r="J233" s="7" t="s">
         <v>45</v>
@@ -17655,13 +17636,13 @@
         <v>45</v>
       </c>
       <c r="L233" s="7" t="s">
-        <v>1222</v>
+        <v>1215</v>
       </c>
       <c r="M233" s="7" t="s">
         <v>45</v>
       </c>
       <c r="N233" s="7" t="s">
-        <v>1217</v>
+        <v>1210</v>
       </c>
       <c r="O233" s="17"/>
       <c r="P233" s="17"/>
@@ -17678,19 +17659,19 @@
     </row>
     <row r="234" spans="1:26" ht="91.5">
       <c r="A234" s="17" t="s">
-        <v>1223</v>
+        <v>1216</v>
       </c>
       <c r="B234" s="7" t="s">
-        <v>1224</v>
+        <v>1217</v>
       </c>
       <c r="C234" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D234" s="7" t="s">
-        <v>1225</v>
+        <v>1218</v>
       </c>
       <c r="E234" s="7" t="s">
-        <v>1226</v>
+        <v>1219</v>
       </c>
       <c r="F234" s="7" t="s">
         <v>89</v>
@@ -17699,10 +17680,10 @@
         <v>31</v>
       </c>
       <c r="H234" s="23" t="s">
-        <v>1227</v>
+        <v>1220</v>
       </c>
       <c r="I234" s="7" t="s">
-        <v>1228</v>
+        <v>1221</v>
       </c>
       <c r="J234" s="7" t="s">
         <v>45</v>
@@ -17711,13 +17692,13 @@
         <v>45</v>
       </c>
       <c r="L234" s="7" t="s">
-        <v>1229</v>
+        <v>1222</v>
       </c>
       <c r="M234" s="7" t="s">
         <v>45</v>
       </c>
       <c r="N234" s="7" t="s">
-        <v>1217</v>
+        <v>1210</v>
       </c>
       <c r="O234" s="17"/>
       <c r="P234" s="17"/>
@@ -17732,31 +17713,31 @@
     </row>
     <row r="235" spans="1:26" ht="91.5">
       <c r="A235" s="17" t="s">
-        <v>1230</v>
+        <v>1223</v>
       </c>
       <c r="B235" s="7" t="s">
-        <v>1231</v>
+        <v>1224</v>
       </c>
       <c r="C235" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D235" s="7" t="s">
+        <v>1218</v>
+      </c>
+      <c r="E235" s="7" t="s">
+        <v>1219</v>
+      </c>
+      <c r="F235" s="7" t="s">
         <v>1225</v>
-      </c>
-      <c r="E235" s="7" t="s">
-        <v>1226</v>
-      </c>
-      <c r="F235" s="7" t="s">
-        <v>1232</v>
       </c>
       <c r="G235" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H235" s="23" t="s">
-        <v>1233</v>
+        <v>1226</v>
       </c>
       <c r="I235" s="7" t="s">
-        <v>1231</v>
+        <v>1224</v>
       </c>
       <c r="J235" s="7" t="s">
         <v>45</v>
@@ -17765,13 +17746,13 @@
         <v>45</v>
       </c>
       <c r="L235" s="7" t="s">
-        <v>1234</v>
+        <v>1227</v>
       </c>
       <c r="M235" s="7" t="s">
         <v>45</v>
       </c>
       <c r="N235" s="7" t="s">
-        <v>1217</v>
+        <v>1210</v>
       </c>
       <c r="O235" s="17"/>
       <c r="P235" s="17"/>
@@ -17786,19 +17767,19 @@
     </row>
     <row r="236" spans="1:26" ht="91.5">
       <c r="A236" s="17" t="s">
-        <v>1235</v>
+        <v>1228</v>
       </c>
       <c r="B236" s="7" t="s">
-        <v>1236</v>
+        <v>1229</v>
       </c>
       <c r="C236" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D236" s="7" t="s">
-        <v>1225</v>
+        <v>1218</v>
       </c>
       <c r="E236" s="7" t="s">
-        <v>1226</v>
+        <v>1219</v>
       </c>
       <c r="F236" s="7" t="s">
         <v>407</v>
@@ -17807,10 +17788,10 @@
         <v>31</v>
       </c>
       <c r="H236" s="23" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="I236" s="7" t="s">
-        <v>1237</v>
+        <v>1230</v>
       </c>
       <c r="J236" s="7" t="s">
         <v>45</v>
@@ -17819,13 +17800,13 @@
         <v>45</v>
       </c>
       <c r="L236" s="7" t="s">
-        <v>1238</v>
+        <v>1231</v>
       </c>
       <c r="M236" s="7" t="s">
         <v>45</v>
       </c>
       <c r="N236" s="7" t="s">
-        <v>1217</v>
+        <v>1210</v>
       </c>
       <c r="O236" s="17"/>
       <c r="P236" s="17"/>
@@ -17840,19 +17821,19 @@
     </row>
     <row r="237" spans="1:26" ht="91.5">
       <c r="A237" s="17" t="s">
-        <v>1235</v>
+        <v>1228</v>
       </c>
       <c r="B237" s="7" t="s">
-        <v>1239</v>
+        <v>1232</v>
       </c>
       <c r="C237" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D237" s="7" t="s">
-        <v>1225</v>
+        <v>1218</v>
       </c>
       <c r="E237" s="7" t="s">
-        <v>1226</v>
+        <v>1219</v>
       </c>
       <c r="F237" s="7" t="s">
         <v>407</v>
@@ -17861,10 +17842,10 @@
         <v>31</v>
       </c>
       <c r="H237" s="23" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="I237" s="7" t="s">
-        <v>1240</v>
+        <v>1233</v>
       </c>
       <c r="J237" s="7" t="s">
         <v>45</v>
@@ -17873,13 +17854,13 @@
         <v>45</v>
       </c>
       <c r="L237" s="7" t="s">
-        <v>1241</v>
+        <v>1234</v>
       </c>
       <c r="M237" s="7" t="s">
         <v>45</v>
       </c>
       <c r="N237" s="7" t="s">
-        <v>1217</v>
+        <v>1210</v>
       </c>
       <c r="O237" s="17"/>
       <c r="P237" s="17"/>
@@ -17894,31 +17875,31 @@
     </row>
     <row r="238" spans="1:26" ht="91.5">
       <c r="A238" s="17" t="s">
-        <v>1242</v>
+        <v>1235</v>
       </c>
       <c r="B238" s="7" t="s">
-        <v>1243</v>
+        <v>1236</v>
       </c>
       <c r="C238" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D238" s="7" t="s">
-        <v>1225</v>
+        <v>1218</v>
       </c>
       <c r="E238" s="7" t="s">
-        <v>1226</v>
+        <v>1219</v>
       </c>
       <c r="F238" s="7" t="s">
-        <v>1244</v>
+        <v>1237</v>
       </c>
       <c r="G238" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H238" s="23" t="s">
-        <v>1245</v>
+        <v>1238</v>
       </c>
       <c r="I238" s="7" t="s">
-        <v>1243</v>
+        <v>1236</v>
       </c>
       <c r="J238" s="7" t="s">
         <v>45</v>
@@ -17927,13 +17908,13 @@
         <v>45</v>
       </c>
       <c r="L238" s="7" t="s">
-        <v>1246</v>
+        <v>1239</v>
       </c>
       <c r="M238" s="7" t="s">
         <v>45</v>
       </c>
       <c r="N238" s="7" t="s">
-        <v>1217</v>
+        <v>1210</v>
       </c>
       <c r="O238" s="17"/>
       <c r="P238" s="17"/>
@@ -17951,19 +17932,19 @@
         <v>529</v>
       </c>
       <c r="B239" s="7" t="s">
-        <v>1247</v>
+        <v>1240</v>
       </c>
       <c r="C239" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D239" s="7" t="s">
-        <v>1225</v>
+        <v>1218</v>
       </c>
       <c r="E239" s="7" t="s">
-        <v>1226</v>
+        <v>1219</v>
       </c>
       <c r="F239" s="7" t="s">
-        <v>1248</v>
+        <v>1241</v>
       </c>
       <c r="G239" s="7" t="s">
         <v>31</v>
@@ -17972,7 +17953,7 @@
         <v>663</v>
       </c>
       <c r="I239" s="7" t="s">
-        <v>1249</v>
+        <v>1242</v>
       </c>
       <c r="J239" s="7" t="s">
         <v>45</v>
@@ -17981,13 +17962,13 @@
         <v>45</v>
       </c>
       <c r="L239" s="7" t="s">
-        <v>1250</v>
+        <v>1243</v>
       </c>
       <c r="M239" s="7" t="s">
         <v>45</v>
       </c>
       <c r="N239" s="7" t="s">
-        <v>1217</v>
+        <v>1210</v>
       </c>
       <c r="O239" s="17"/>
       <c r="P239" s="17"/>
@@ -18002,31 +17983,31 @@
     </row>
     <row r="240" spans="1:26" ht="91.5">
       <c r="A240" s="17" t="s">
-        <v>1251</v>
+        <v>1244</v>
       </c>
       <c r="B240" s="7" t="s">
-        <v>1252</v>
+        <v>1245</v>
       </c>
       <c r="C240" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D240" s="7" t="s">
-        <v>1253</v>
+        <v>1246</v>
       </c>
       <c r="E240" s="7" t="s">
-        <v>1254</v>
+        <v>1247</v>
       </c>
       <c r="F240" s="7" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
       <c r="G240" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H240" s="23" t="s">
-        <v>1256</v>
+        <v>1249</v>
       </c>
       <c r="I240" s="7" t="s">
-        <v>1257</v>
+        <v>1250</v>
       </c>
       <c r="J240" s="7" t="s">
         <v>45</v>
@@ -18035,13 +18016,13 @@
         <v>45</v>
       </c>
       <c r="L240" s="7" t="s">
-        <v>1258</v>
+        <v>1251</v>
       </c>
       <c r="M240" s="7" t="s">
         <v>45</v>
       </c>
       <c r="N240" s="7" t="s">
-        <v>1217</v>
+        <v>1210</v>
       </c>
       <c r="O240" s="17"/>
       <c r="P240" s="17"/>
@@ -18056,46 +18037,46 @@
     </row>
     <row r="241" spans="1:26" ht="91.5">
       <c r="A241" s="17" t="s">
-        <v>1259</v>
+        <v>1252</v>
       </c>
       <c r="B241" s="7" t="s">
-        <v>1260</v>
+        <v>1253</v>
       </c>
       <c r="C241" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D241" s="7" t="s">
-        <v>1253</v>
+        <v>1246</v>
       </c>
       <c r="E241" s="7" t="s">
+        <v>1247</v>
+      </c>
+      <c r="F241" s="7" t="s">
         <v>1254</v>
-      </c>
-      <c r="F241" s="7" t="s">
-        <v>1261</v>
       </c>
       <c r="G241" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H241" s="23" t="s">
+        <v>1249</v>
+      </c>
+      <c r="I241" s="7" t="s">
+        <v>1255</v>
+      </c>
+      <c r="J241" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K241" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L241" s="7" t="s">
         <v>1256</v>
       </c>
-      <c r="I241" s="7" t="s">
-        <v>1262</v>
-      </c>
-      <c r="J241" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="K241" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L241" s="7" t="s">
-        <v>1263</v>
-      </c>
       <c r="M241" s="7" t="s">
         <v>45</v>
       </c>
       <c r="N241" s="7" t="s">
-        <v>1217</v>
+        <v>1210</v>
       </c>
       <c r="O241" s="17"/>
       <c r="P241" s="17"/>
@@ -18113,28 +18094,28 @@
         <v>1083</v>
       </c>
       <c r="B242" s="7" t="s">
-        <v>1264</v>
+        <v>1257</v>
       </c>
       <c r="C242" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D242" s="7" t="s">
-        <v>1253</v>
+        <v>1246</v>
       </c>
       <c r="E242" s="7" t="s">
-        <v>1254</v>
+        <v>1247</v>
       </c>
       <c r="F242" s="7" t="s">
-        <v>1265</v>
+        <v>1258</v>
       </c>
       <c r="G242" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H242" s="23" t="s">
-        <v>1256</v>
+        <v>1249</v>
       </c>
       <c r="I242" s="7" t="s">
-        <v>1266</v>
+        <v>1259</v>
       </c>
       <c r="J242" s="7" t="s">
         <v>45</v>
@@ -18149,7 +18130,7 @@
         <v>45</v>
       </c>
       <c r="N242" s="7" t="s">
-        <v>1217</v>
+        <v>1210</v>
       </c>
       <c r="O242" s="17"/>
       <c r="P242" s="17"/>
@@ -18167,28 +18148,28 @@
         <v>1083</v>
       </c>
       <c r="B243" s="7" t="s">
-        <v>1267</v>
+        <v>1260</v>
       </c>
       <c r="C243" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D243" s="7" t="s">
-        <v>1268</v>
+        <v>1261</v>
       </c>
       <c r="E243" s="7" t="s">
-        <v>1254</v>
+        <v>1247</v>
       </c>
       <c r="F243" s="7" t="s">
-        <v>1269</v>
+        <v>1262</v>
       </c>
       <c r="G243" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H243" s="23" t="s">
-        <v>1270</v>
+        <v>1263</v>
       </c>
       <c r="I243" s="7" t="s">
-        <v>1271</v>
+        <v>1264</v>
       </c>
       <c r="J243" s="7" t="s">
         <v>45</v>
@@ -18203,7 +18184,7 @@
         <v>45</v>
       </c>
       <c r="N243" s="7" t="s">
-        <v>1217</v>
+        <v>1210</v>
       </c>
       <c r="O243" s="17"/>
       <c r="P243" s="17"/>
@@ -18221,28 +18202,28 @@
         <v>529</v>
       </c>
       <c r="B244" s="7" t="s">
-        <v>1272</v>
+        <v>1265</v>
       </c>
       <c r="C244" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D244" s="44" t="s">
-        <v>1273</v>
+        <v>1266</v>
       </c>
       <c r="E244" s="7" t="s">
-        <v>1274</v>
+        <v>1267</v>
       </c>
       <c r="F244" s="7" t="s">
-        <v>1275</v>
+        <v>1268</v>
       </c>
       <c r="G244" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H244" s="7" t="s">
-        <v>1276</v>
+        <v>1269</v>
       </c>
       <c r="I244" s="7" t="s">
-        <v>1277</v>
+        <v>1270</v>
       </c>
       <c r="J244" s="7" t="s">
         <v>45</v>
@@ -18251,13 +18232,13 @@
         <v>45</v>
       </c>
       <c r="L244" s="44" t="s">
-        <v>1278</v>
+        <v>1271</v>
       </c>
       <c r="M244" s="7" t="s">
         <v>45</v>
       </c>
       <c r="N244" s="7" t="s">
-        <v>1148</v>
+        <v>1141</v>
       </c>
       <c r="O244" s="17"/>
       <c r="P244" s="17"/>
@@ -18274,22 +18255,22 @@
     </row>
     <row r="245" spans="1:26" ht="91.5">
       <c r="A245" s="17" t="s">
-        <v>1279</v>
+        <v>1272</v>
       </c>
       <c r="B245" s="7" t="s">
-        <v>1280</v>
+        <v>1273</v>
       </c>
       <c r="C245" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D245" s="7" t="s">
-        <v>1281</v>
+        <v>1274</v>
       </c>
       <c r="E245" s="7" t="s">
-        <v>1282</v>
+        <v>1275</v>
       </c>
       <c r="F245" s="7" t="s">
-        <v>1283</v>
+        <v>1276</v>
       </c>
       <c r="G245" s="7" t="s">
         <v>31</v>
@@ -18298,7 +18279,7 @@
         <v>753</v>
       </c>
       <c r="I245" s="7" t="s">
-        <v>1280</v>
+        <v>1273</v>
       </c>
       <c r="J245" s="7" t="s">
         <v>45</v>
@@ -18313,7 +18294,7 @@
         <v>45</v>
       </c>
       <c r="N245" s="7" t="s">
-        <v>1148</v>
+        <v>1141</v>
       </c>
       <c r="O245" s="17"/>
       <c r="P245" s="17"/>
@@ -18333,26 +18314,26 @@
         <v>529</v>
       </c>
       <c r="B246" s="7" t="s">
-        <v>1284</v>
+        <v>1277</v>
       </c>
       <c r="C246" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D246" s="7" t="s">
-        <v>1281</v>
+        <v>1274</v>
       </c>
       <c r="E246" s="7" t="s">
-        <v>1282</v>
+        <v>1275</v>
       </c>
       <c r="F246" s="7" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="G246" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H246" s="17"/>
       <c r="I246" s="7" t="s">
-        <v>1286</v>
+        <v>1279</v>
       </c>
       <c r="J246" s="7" t="s">
         <v>45</v>
@@ -18361,13 +18342,13 @@
         <v>45</v>
       </c>
       <c r="L246" s="7" t="s">
-        <v>1287</v>
+        <v>1280</v>
       </c>
       <c r="M246" s="7" t="s">
         <v>45</v>
       </c>
       <c r="N246" s="7" t="s">
-        <v>1148</v>
+        <v>1141</v>
       </c>
       <c r="O246" s="17"/>
       <c r="P246" s="17"/>
@@ -18384,10 +18365,10 @@
     </row>
     <row r="247" spans="1:26" ht="91.5">
       <c r="A247" s="17" t="s">
-        <v>1288</v>
+        <v>1281</v>
       </c>
       <c r="B247" s="7" t="s">
-        <v>1289</v>
+        <v>1282</v>
       </c>
       <c r="C247" s="7" t="s">
         <v>27</v>
@@ -18396,16 +18377,16 @@
         <v>370</v>
       </c>
       <c r="E247" s="58" t="s">
-        <v>1290</v>
+        <v>1283</v>
       </c>
       <c r="F247" s="7" t="s">
-        <v>1291</v>
+        <v>1284</v>
       </c>
       <c r="G247" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H247" s="7" t="s">
-        <v>1292</v>
+        <v>1285</v>
       </c>
       <c r="I247" s="7" t="s">
         <v>45</v>
@@ -18417,13 +18398,13 @@
         <v>45</v>
       </c>
       <c r="L247" s="7" t="s">
-        <v>1293</v>
+        <v>1286</v>
       </c>
       <c r="M247" s="7" t="s">
         <v>45</v>
       </c>
       <c r="N247" s="7" t="s">
-        <v>1294</v>
+        <v>1287</v>
       </c>
       <c r="V247" s="7"/>
       <c r="Y247" s="7"/>
@@ -18431,10 +18412,10 @@
     </row>
     <row r="248" spans="1:26" ht="91.5">
       <c r="A248" s="17" t="s">
-        <v>1295</v>
+        <v>1288</v>
       </c>
       <c r="B248" s="7" t="s">
-        <v>1296</v>
+        <v>1289</v>
       </c>
       <c r="C248" s="7" t="s">
         <v>27</v>
@@ -18443,19 +18424,19 @@
         <v>370</v>
       </c>
       <c r="E248" s="58" t="s">
+        <v>1283</v>
+      </c>
+      <c r="F248" s="7" t="s">
         <v>1290</v>
-      </c>
-      <c r="F248" s="7" t="s">
-        <v>1297</v>
       </c>
       <c r="G248" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H248" s="7" t="s">
-        <v>1298</v>
+        <v>1291</v>
       </c>
       <c r="I248" s="7" t="s">
-        <v>1299</v>
+        <v>1292</v>
       </c>
       <c r="J248" s="7" t="s">
         <v>45</v>
@@ -18464,13 +18445,13 @@
         <v>45</v>
       </c>
       <c r="L248" s="7" t="s">
-        <v>1300</v>
+        <v>1293</v>
       </c>
       <c r="M248" s="7" t="s">
         <v>45</v>
       </c>
       <c r="N248" s="7" t="s">
-        <v>1294</v>
+        <v>1287</v>
       </c>
       <c r="V248" s="7"/>
       <c r="Y248" s="7"/>
@@ -18478,10 +18459,10 @@
     </row>
     <row r="249" spans="1:26" ht="91.5">
       <c r="A249" s="17" t="s">
-        <v>1301</v>
+        <v>1294</v>
       </c>
       <c r="B249" s="7" t="s">
-        <v>1289</v>
+        <v>1282</v>
       </c>
       <c r="C249" s="7" t="s">
         <v>27</v>
@@ -18490,16 +18471,16 @@
         <v>370</v>
       </c>
       <c r="E249" s="58" t="s">
-        <v>1290</v>
+        <v>1283</v>
       </c>
       <c r="F249" s="7" t="s">
-        <v>1302</v>
+        <v>1295</v>
       </c>
       <c r="G249" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H249" s="7" t="s">
-        <v>1303</v>
+        <v>1296</v>
       </c>
       <c r="I249" s="7" t="s">
         <v>45</v>
@@ -18511,13 +18492,13 @@
         <v>45</v>
       </c>
       <c r="L249" s="7" t="s">
-        <v>1293</v>
+        <v>1286</v>
       </c>
       <c r="M249" s="7" t="s">
         <v>45</v>
       </c>
       <c r="N249" s="7" t="s">
-        <v>1294</v>
+        <v>1287</v>
       </c>
       <c r="V249" s="7"/>
       <c r="Y249" s="7"/>
@@ -18525,31 +18506,31 @@
     </row>
     <row r="250" spans="1:26" ht="91.5">
       <c r="A250" s="17" t="s">
-        <v>1304</v>
+        <v>1297</v>
       </c>
       <c r="B250" s="7" t="s">
-        <v>1305</v>
+        <v>1298</v>
       </c>
       <c r="C250" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D250" s="7" t="s">
-        <v>1306</v>
+        <v>1299</v>
       </c>
       <c r="E250" s="58" t="s">
-        <v>1290</v>
+        <v>1283</v>
       </c>
       <c r="F250" s="7" t="s">
-        <v>1307</v>
+        <v>1300</v>
       </c>
       <c r="G250" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H250" s="7" t="s">
-        <v>1308</v>
+        <v>1301</v>
       </c>
       <c r="I250" s="7" t="s">
-        <v>1309</v>
+        <v>1302</v>
       </c>
       <c r="J250" s="7" t="s">
         <v>45</v>
@@ -18558,13 +18539,13 @@
         <v>45</v>
       </c>
       <c r="L250" s="7" t="s">
-        <v>1310</v>
+        <v>1303</v>
       </c>
       <c r="M250" s="7" t="s">
         <v>45</v>
       </c>
       <c r="N250" s="7" t="s">
-        <v>1294</v>
+        <v>1287</v>
       </c>
       <c r="V250" s="7"/>
       <c r="Y250" s="7"/>
@@ -18572,31 +18553,31 @@
     </row>
     <row r="251" spans="1:26" ht="91.5">
       <c r="A251" s="17" t="s">
-        <v>1311</v>
+        <v>1304</v>
       </c>
       <c r="B251" s="7" t="s">
-        <v>1312</v>
+        <v>1305</v>
       </c>
       <c r="C251" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D251" s="7" t="s">
-        <v>1313</v>
+        <v>1306</v>
       </c>
       <c r="E251" s="58" t="s">
-        <v>1290</v>
+        <v>1283</v>
       </c>
       <c r="F251" s="7" t="s">
-        <v>1314</v>
+        <v>1307</v>
       </c>
       <c r="G251" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H251" s="7" t="s">
+        <v>1301</v>
+      </c>
+      <c r="I251" s="7" t="s">
         <v>1308</v>
-      </c>
-      <c r="I251" s="7" t="s">
-        <v>1315</v>
       </c>
       <c r="J251" s="7" t="s">
         <v>45</v>
@@ -18611,7 +18592,7 @@
         <v>45</v>
       </c>
       <c r="N251" s="7" t="s">
-        <v>1294</v>
+        <v>1287</v>
       </c>
       <c r="V251" s="7"/>
       <c r="Y251" s="7"/>
@@ -18619,28 +18600,28 @@
     </row>
     <row r="252" spans="1:26" ht="91.5">
       <c r="A252" s="17" t="s">
-        <v>1316</v>
+        <v>1309</v>
       </c>
       <c r="B252" s="7" t="s">
-        <v>1317</v>
+        <v>1310</v>
       </c>
       <c r="C252" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D252" s="7" t="s">
-        <v>1318</v>
+        <v>1311</v>
       </c>
       <c r="E252" s="58" t="s">
-        <v>1290</v>
+        <v>1283</v>
       </c>
       <c r="F252" s="7" t="s">
-        <v>1319</v>
+        <v>1312</v>
       </c>
       <c r="G252" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H252" s="7" t="s">
-        <v>1320</v>
+        <v>1313</v>
       </c>
       <c r="I252" s="7" t="s">
         <v>45</v>
@@ -18652,13 +18633,13 @@
         <v>45</v>
       </c>
       <c r="L252" s="7" t="s">
-        <v>1321</v>
+        <v>1314</v>
       </c>
       <c r="M252" s="7" t="s">
         <v>45</v>
       </c>
       <c r="N252" s="7" t="s">
-        <v>1294</v>
+        <v>1287</v>
       </c>
       <c r="V252" s="7"/>
       <c r="Y252" s="7"/>
@@ -18666,46 +18647,46 @@
     </row>
     <row r="253" spans="1:26" ht="91.5">
       <c r="A253" s="17" t="s">
-        <v>1322</v>
+        <v>1315</v>
       </c>
       <c r="B253" s="7" t="s">
-        <v>1323</v>
+        <v>1316</v>
       </c>
       <c r="C253" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D253" s="7" t="s">
-        <v>1324</v>
+        <v>1317</v>
       </c>
       <c r="E253" s="58" t="s">
-        <v>1290</v>
+        <v>1283</v>
       </c>
       <c r="F253" s="7" t="s">
-        <v>1325</v>
+        <v>1318</v>
       </c>
       <c r="G253" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H253" s="7" t="s">
+        <v>1313</v>
+      </c>
+      <c r="I253" s="7" t="s">
+        <v>1319</v>
+      </c>
+      <c r="J253" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K253" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L253" s="7" t="s">
         <v>1320</v>
       </c>
-      <c r="I253" s="7" t="s">
-        <v>1326</v>
-      </c>
-      <c r="J253" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="K253" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L253" s="7" t="s">
-        <v>1327</v>
-      </c>
       <c r="M253" s="7" t="s">
         <v>45</v>
       </c>
       <c r="N253" s="7" t="s">
-        <v>1294</v>
+        <v>1287</v>
       </c>
       <c r="V253" s="7"/>
       <c r="Y253" s="7"/>
@@ -18713,31 +18694,31 @@
     </row>
     <row r="254" spans="1:26" ht="91.5">
       <c r="A254" s="17" t="s">
-        <v>1328</v>
+        <v>1321</v>
       </c>
       <c r="B254" s="7" t="s">
-        <v>1329</v>
+        <v>1322</v>
       </c>
       <c r="C254" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D254" s="7" t="s">
-        <v>1330</v>
+        <v>1323</v>
       </c>
       <c r="E254" s="58" t="s">
-        <v>1290</v>
+        <v>1283</v>
       </c>
       <c r="F254" s="7" t="s">
-        <v>1331</v>
+        <v>1324</v>
       </c>
       <c r="G254" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H254" s="7" t="s">
-        <v>1320</v>
+        <v>1313</v>
       </c>
       <c r="I254" s="7" t="s">
-        <v>1332</v>
+        <v>1325</v>
       </c>
       <c r="J254" s="7" t="s">
         <v>45</v>
@@ -18752,7 +18733,7 @@
         <v>45</v>
       </c>
       <c r="N254" s="7" t="s">
-        <v>1294</v>
+        <v>1287</v>
       </c>
       <c r="V254" s="7"/>
       <c r="Y254" s="7"/>
@@ -18760,31 +18741,31 @@
     </row>
     <row r="255" spans="1:26" ht="91.5">
       <c r="A255" s="17" t="s">
-        <v>1333</v>
+        <v>1326</v>
       </c>
       <c r="B255" s="7" t="s">
-        <v>1334</v>
+        <v>1327</v>
       </c>
       <c r="C255" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D255" s="7" t="s">
-        <v>1318</v>
+        <v>1311</v>
       </c>
       <c r="E255" s="58" t="s">
-        <v>1290</v>
+        <v>1283</v>
       </c>
       <c r="F255" s="7" t="s">
-        <v>1335</v>
+        <v>1328</v>
       </c>
       <c r="G255" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H255" s="7" t="s">
-        <v>1336</v>
+        <v>1329</v>
       </c>
       <c r="I255" s="7" t="s">
-        <v>1337</v>
+        <v>1330</v>
       </c>
       <c r="J255" s="7" t="s">
         <v>45</v>
@@ -18793,10 +18774,10 @@
         <v>45</v>
       </c>
       <c r="L255" s="7" t="s">
-        <v>1338</v>
+        <v>1331</v>
       </c>
       <c r="N255" s="7" t="s">
-        <v>1294</v>
+        <v>1287</v>
       </c>
       <c r="V255" s="7"/>
       <c r="Y255" s="7"/>
@@ -18804,10 +18785,10 @@
     </row>
     <row r="256" spans="1:26" ht="91.5">
       <c r="A256" s="17" t="s">
-        <v>1339</v>
+        <v>1332</v>
       </c>
       <c r="B256" s="7" t="s">
-        <v>1340</v>
+        <v>1333</v>
       </c>
       <c r="C256" s="7" t="s">
         <v>27</v>
@@ -18816,19 +18797,19 @@
         <v>370</v>
       </c>
       <c r="E256" s="58" t="s">
-        <v>1290</v>
+        <v>1283</v>
       </c>
       <c r="F256" s="7" t="s">
-        <v>1341</v>
+        <v>1334</v>
       </c>
       <c r="G256" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H256" s="7" t="s">
-        <v>1342</v>
+        <v>1335</v>
       </c>
       <c r="I256" s="7" t="s">
-        <v>1343</v>
+        <v>1336</v>
       </c>
       <c r="J256" s="7" t="s">
         <v>45</v>
@@ -18837,13 +18818,13 @@
         <v>45</v>
       </c>
       <c r="L256" s="7" t="s">
-        <v>1344</v>
+        <v>1337</v>
       </c>
       <c r="M256" s="7" t="s">
         <v>45</v>
       </c>
       <c r="N256" s="7" t="s">
-        <v>1294</v>
+        <v>1287</v>
       </c>
       <c r="V256" s="7"/>
       <c r="Y256" s="7"/>
@@ -18851,10 +18832,10 @@
     </row>
     <row r="257" spans="1:26" ht="91.5">
       <c r="A257" s="17" t="s">
-        <v>1339</v>
+        <v>1332</v>
       </c>
       <c r="B257" s="7" t="s">
-        <v>1340</v>
+        <v>1333</v>
       </c>
       <c r="C257" s="7" t="s">
         <v>27</v>
@@ -18863,19 +18844,19 @@
         <v>370</v>
       </c>
       <c r="E257" s="58" t="s">
-        <v>1290</v>
+        <v>1283</v>
       </c>
       <c r="F257" s="7" t="s">
-        <v>1291</v>
+        <v>1284</v>
       </c>
       <c r="G257" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H257" s="7" t="s">
-        <v>1320</v>
+        <v>1313</v>
       </c>
       <c r="I257" s="7" t="s">
-        <v>1345</v>
+        <v>1338</v>
       </c>
       <c r="J257" s="7" t="s">
         <v>45</v>
@@ -18884,13 +18865,13 @@
         <v>45</v>
       </c>
       <c r="L257" s="7" t="s">
-        <v>1344</v>
+        <v>1337</v>
       </c>
       <c r="M257" s="7" t="s">
         <v>45</v>
       </c>
       <c r="N257" s="7" t="s">
-        <v>1294</v>
+        <v>1287</v>
       </c>
       <c r="V257" s="7"/>
       <c r="Y257" s="7"/>
@@ -18898,10 +18879,10 @@
     </row>
     <row r="258" spans="1:26" ht="91.5">
       <c r="A258" s="17" t="s">
-        <v>1339</v>
+        <v>1332</v>
       </c>
       <c r="B258" s="7" t="s">
-        <v>1340</v>
+        <v>1333</v>
       </c>
       <c r="C258" s="7" t="s">
         <v>27</v>
@@ -18910,19 +18891,19 @@
         <v>370</v>
       </c>
       <c r="E258" s="58" t="s">
+        <v>1283</v>
+      </c>
+      <c r="F258" s="7" t="s">
         <v>1290</v>
-      </c>
-      <c r="F258" s="7" t="s">
-        <v>1297</v>
       </c>
       <c r="G258" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H258" s="7" t="s">
-        <v>1320</v>
+        <v>1313</v>
       </c>
       <c r="I258" s="7" t="s">
-        <v>1345</v>
+        <v>1338</v>
       </c>
       <c r="J258" s="7" t="s">
         <v>45</v>
@@ -18931,13 +18912,13 @@
         <v>45</v>
       </c>
       <c r="L258" s="7" t="s">
-        <v>1344</v>
+        <v>1337</v>
       </c>
       <c r="M258" s="7" t="s">
         <v>45</v>
       </c>
       <c r="N258" s="7" t="s">
-        <v>1294</v>
+        <v>1287</v>
       </c>
       <c r="V258" s="7"/>
       <c r="Y258" s="7"/>
@@ -18945,10 +18926,10 @@
     </row>
     <row r="259" spans="1:26" ht="91.5">
       <c r="A259" s="17" t="s">
-        <v>1339</v>
+        <v>1332</v>
       </c>
       <c r="B259" s="7" t="s">
-        <v>1340</v>
+        <v>1333</v>
       </c>
       <c r="C259" s="7" t="s">
         <v>27</v>
@@ -18957,19 +18938,19 @@
         <v>370</v>
       </c>
       <c r="E259" s="58" t="s">
-        <v>1290</v>
+        <v>1283</v>
       </c>
       <c r="F259" s="7" t="s">
-        <v>1302</v>
+        <v>1295</v>
       </c>
       <c r="G259" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H259" s="7" t="s">
-        <v>1346</v>
+        <v>1339</v>
       </c>
       <c r="I259" s="7" t="s">
-        <v>1347</v>
+        <v>1340</v>
       </c>
       <c r="J259" s="7" t="s">
         <v>45</v>
@@ -18978,13 +18959,13 @@
         <v>45</v>
       </c>
       <c r="L259" s="7" t="s">
-        <v>1344</v>
+        <v>1337</v>
       </c>
       <c r="M259" s="7" t="s">
         <v>45</v>
       </c>
       <c r="N259" s="7" t="s">
-        <v>1294</v>
+        <v>1287</v>
       </c>
       <c r="V259" s="7"/>
       <c r="Y259" s="7"/>
@@ -18992,10 +18973,10 @@
     </row>
     <row r="260" spans="1:26" ht="91.5">
       <c r="A260" s="17" t="s">
-        <v>1339</v>
+        <v>1332</v>
       </c>
       <c r="B260" s="7" t="s">
-        <v>1348</v>
+        <v>1341</v>
       </c>
       <c r="C260" s="7" t="s">
         <v>27</v>
@@ -19004,19 +18985,19 @@
         <v>370</v>
       </c>
       <c r="E260" s="58" t="s">
-        <v>1290</v>
+        <v>1283</v>
       </c>
       <c r="F260" s="7" t="s">
-        <v>1341</v>
+        <v>1334</v>
       </c>
       <c r="G260" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H260" s="7" t="s">
-        <v>1349</v>
+        <v>1342</v>
       </c>
       <c r="I260" s="7" t="s">
-        <v>1347</v>
+        <v>1340</v>
       </c>
       <c r="J260" s="7" t="s">
         <v>45</v>
@@ -19025,13 +19006,13 @@
         <v>45</v>
       </c>
       <c r="L260" s="7" t="s">
-        <v>1344</v>
+        <v>1337</v>
       </c>
       <c r="M260" s="7" t="s">
         <v>45</v>
       </c>
       <c r="N260" s="7" t="s">
-        <v>1294</v>
+        <v>1287</v>
       </c>
       <c r="V260" s="7"/>
       <c r="Y260" s="7"/>
@@ -19039,31 +19020,31 @@
     </row>
     <row r="261" spans="1:26" ht="91.5">
       <c r="A261" s="17" t="s">
-        <v>1350</v>
+        <v>1343</v>
       </c>
       <c r="B261" s="7" t="s">
-        <v>1351</v>
+        <v>1344</v>
       </c>
       <c r="C261" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D261" s="7" t="s">
-        <v>1352</v>
+        <v>1345</v>
       </c>
       <c r="E261" s="7" t="s">
-        <v>1353</v>
+        <v>1346</v>
       </c>
       <c r="F261" s="44" t="s">
-        <v>1354</v>
+        <v>1347</v>
       </c>
       <c r="G261" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H261" s="7" t="s">
-        <v>1355</v>
+        <v>1348</v>
       </c>
       <c r="I261" s="7" t="s">
-        <v>1351</v>
+        <v>1344</v>
       </c>
       <c r="J261" s="7" t="s">
         <v>45</v>
@@ -19072,13 +19053,13 @@
         <v>45</v>
       </c>
       <c r="L261" s="7" t="s">
-        <v>1356</v>
+        <v>1349</v>
       </c>
       <c r="M261" s="7" t="s">
         <v>45</v>
       </c>
       <c r="N261" s="7" t="s">
-        <v>1294</v>
+        <v>1287</v>
       </c>
       <c r="O261" s="17"/>
       <c r="P261" s="17"/>
@@ -19095,31 +19076,31 @@
     </row>
     <row r="262" spans="1:26" ht="91.5">
       <c r="A262" s="17" t="s">
-        <v>1357</v>
+        <v>1350</v>
       </c>
       <c r="B262" s="7" t="s">
-        <v>1358</v>
+        <v>1351</v>
       </c>
       <c r="C262" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D262" s="7" t="s">
+        <v>1345</v>
+      </c>
+      <c r="E262" s="7" t="s">
         <v>1352</v>
       </c>
-      <c r="E262" s="7" t="s">
-        <v>1359</v>
-      </c>
       <c r="F262" s="7" t="s">
-        <v>1360</v>
+        <v>1353</v>
       </c>
       <c r="G262" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H262" s="7" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="I262" s="7" t="s">
-        <v>1361</v>
+        <v>1354</v>
       </c>
       <c r="J262" s="7" t="s">
         <v>45</v>
@@ -19128,13 +19109,13 @@
         <v>45</v>
       </c>
       <c r="L262" s="7" t="s">
-        <v>1362</v>
+        <v>1355</v>
       </c>
       <c r="M262" s="7" t="s">
         <v>45</v>
       </c>
       <c r="N262" s="7" t="s">
-        <v>1294</v>
+        <v>1287</v>
       </c>
       <c r="V262" s="7"/>
       <c r="Y262" s="7"/>
@@ -19142,22 +19123,22 @@
     </row>
     <row r="263" spans="1:26" ht="91.5">
       <c r="A263" s="17" t="s">
-        <v>1363</v>
+        <v>1356</v>
       </c>
       <c r="B263" s="7" t="s">
-        <v>1363</v>
+        <v>1356</v>
       </c>
       <c r="C263" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D263" s="7" t="s">
+        <v>1345</v>
+      </c>
+      <c r="E263" s="7" t="s">
         <v>1352</v>
       </c>
-      <c r="E263" s="7" t="s">
-        <v>1359</v>
-      </c>
       <c r="F263" s="7" t="s">
-        <v>1364</v>
+        <v>1357</v>
       </c>
       <c r="G263" s="7" t="s">
         <v>31</v>
@@ -19166,7 +19147,7 @@
         <v>2022</v>
       </c>
       <c r="I263" s="7" t="s">
-        <v>1363</v>
+        <v>1356</v>
       </c>
       <c r="J263" s="7" t="s">
         <v>45</v>
@@ -19175,13 +19156,13 @@
         <v>45</v>
       </c>
       <c r="L263" s="7" t="s">
-        <v>1365</v>
+        <v>1358</v>
       </c>
       <c r="M263" s="7" t="s">
         <v>45</v>
       </c>
       <c r="N263" s="7" t="s">
-        <v>1294</v>
+        <v>1287</v>
       </c>
       <c r="V263" s="7"/>
       <c r="Y263" s="7"/>
@@ -19189,31 +19170,31 @@
     </row>
     <row r="264" spans="1:26" ht="91.5">
       <c r="A264" s="17" t="s">
-        <v>1350</v>
+        <v>1343</v>
       </c>
       <c r="B264" s="7" t="s">
-        <v>1351</v>
+        <v>1344</v>
       </c>
       <c r="C264" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D264" s="7" t="s">
+        <v>1345</v>
+      </c>
+      <c r="E264" s="7" t="s">
         <v>1352</v>
       </c>
-      <c r="E264" s="7" t="s">
-        <v>1359</v>
-      </c>
       <c r="F264" s="44" t="s">
-        <v>1354</v>
+        <v>1347</v>
       </c>
       <c r="G264" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H264" s="7" t="s">
-        <v>1366</v>
+        <v>1359</v>
       </c>
       <c r="I264" s="7" t="s">
-        <v>1351</v>
+        <v>1344</v>
       </c>
       <c r="J264" s="7" t="s">
         <v>45</v>
@@ -19222,13 +19203,13 @@
         <v>45</v>
       </c>
       <c r="L264" s="7" t="s">
-        <v>1356</v>
+        <v>1349</v>
       </c>
       <c r="M264" s="7" t="s">
         <v>45</v>
       </c>
       <c r="N264" s="7" t="s">
-        <v>1294</v>
+        <v>1287</v>
       </c>
       <c r="V264" s="7"/>
       <c r="Y264" s="7"/>
@@ -19239,28 +19220,28 @@
         <v>529</v>
       </c>
       <c r="B265" s="7" t="s">
-        <v>1367</v>
+        <v>1360</v>
       </c>
       <c r="C265" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D265" s="7" t="s">
-        <v>1352</v>
+        <v>1345</v>
       </c>
       <c r="E265" s="7" t="s">
         <v>989</v>
       </c>
       <c r="F265" s="7" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="G265" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H265" s="7" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="I265" s="7" t="s">
-        <v>1367</v>
+        <v>1360</v>
       </c>
       <c r="J265" s="7" t="s">
         <v>45</v>
@@ -19269,13 +19250,13 @@
         <v>45</v>
       </c>
       <c r="L265" s="7" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="M265" s="7" t="s">
         <v>45</v>
       </c>
       <c r="N265" s="7" t="s">
-        <v>1294</v>
+        <v>1287</v>
       </c>
       <c r="V265" s="7"/>
       <c r="Y265" s="7"/>
@@ -19286,28 +19267,28 @@
         <v>529</v>
       </c>
       <c r="B266" s="7" t="s">
-        <v>1368</v>
+        <v>1361</v>
       </c>
       <c r="C266" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D266" s="7" t="s">
-        <v>1352</v>
+        <v>1345</v>
       </c>
       <c r="E266" s="7" t="s">
         <v>989</v>
       </c>
       <c r="F266" s="7" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="G266" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H266" s="7" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="I266" s="7" t="s">
-        <v>1368</v>
+        <v>1361</v>
       </c>
       <c r="J266" s="7" t="s">
         <v>45</v>
@@ -19316,13 +19297,13 @@
         <v>45</v>
       </c>
       <c r="L266" s="7" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="M266" s="7" t="s">
         <v>45</v>
       </c>
       <c r="N266" s="7" t="s">
-        <v>1294</v>
+        <v>1287</v>
       </c>
       <c r="V266" s="7"/>
       <c r="Y266" s="7"/>
@@ -19333,28 +19314,28 @@
         <v>529</v>
       </c>
       <c r="B267" s="7" t="s">
-        <v>1369</v>
+        <v>1362</v>
       </c>
       <c r="C267" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D267" s="7" t="s">
-        <v>1352</v>
+        <v>1345</v>
       </c>
       <c r="E267" s="7" t="s">
         <v>989</v>
       </c>
       <c r="F267" s="7" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="G267" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H267" s="7" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="I267" s="7" t="s">
-        <v>1369</v>
+        <v>1362</v>
       </c>
       <c r="J267" s="7" t="s">
         <v>45</v>
@@ -19363,13 +19344,13 @@
         <v>45</v>
       </c>
       <c r="L267" s="7" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="M267" s="7" t="s">
         <v>45</v>
       </c>
       <c r="N267" s="7" t="s">
-        <v>1294</v>
+        <v>1287</v>
       </c>
       <c r="V267" s="7"/>
       <c r="Y267" s="7"/>
@@ -19380,28 +19361,28 @@
         <v>529</v>
       </c>
       <c r="B268" s="7" t="s">
-        <v>1370</v>
+        <v>1363</v>
       </c>
       <c r="C268" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D268" s="7" t="s">
-        <v>1352</v>
+        <v>1345</v>
       </c>
       <c r="E268" s="7" t="s">
         <v>989</v>
       </c>
       <c r="F268" s="7" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="G268" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H268" s="7" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="I268" s="7" t="s">
-        <v>1370</v>
+        <v>1363</v>
       </c>
       <c r="J268" s="7" t="s">
         <v>45</v>
@@ -19410,13 +19391,13 @@
         <v>45</v>
       </c>
       <c r="L268" s="7" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="M268" s="7" t="s">
         <v>45</v>
       </c>
       <c r="N268" s="7" t="s">
-        <v>1294</v>
+        <v>1287</v>
       </c>
       <c r="V268" s="7"/>
       <c r="Y268" s="7"/>
@@ -19427,28 +19408,28 @@
         <v>529</v>
       </c>
       <c r="B269" s="7" t="s">
-        <v>1371</v>
+        <v>1364</v>
       </c>
       <c r="C269" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D269" s="7" t="s">
-        <v>1352</v>
+        <v>1345</v>
       </c>
       <c r="E269" s="7" t="s">
         <v>989</v>
       </c>
       <c r="F269" s="7" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="G269" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H269" s="7" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="I269" s="7" t="s">
-        <v>1371</v>
+        <v>1364</v>
       </c>
       <c r="J269" s="7" t="s">
         <v>45</v>
@@ -19457,13 +19438,13 @@
         <v>45</v>
       </c>
       <c r="L269" s="7" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="M269" s="7" t="s">
         <v>45</v>
       </c>
       <c r="N269" s="7" t="s">
-        <v>1294</v>
+        <v>1287</v>
       </c>
       <c r="V269" s="7"/>
       <c r="Y269" s="7"/>
@@ -19474,28 +19455,28 @@
         <v>529</v>
       </c>
       <c r="B270" s="7" t="s">
-        <v>1372</v>
+        <v>1365</v>
       </c>
       <c r="C270" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D270" s="7" t="s">
-        <v>1352</v>
+        <v>1345</v>
       </c>
       <c r="E270" s="7" t="s">
         <v>989</v>
       </c>
       <c r="F270" s="7" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="G270" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H270" s="7" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="I270" s="7" t="s">
-        <v>1373</v>
+        <v>1366</v>
       </c>
       <c r="J270" s="7" t="s">
         <v>45</v>
@@ -19504,13 +19485,13 @@
         <v>45</v>
       </c>
       <c r="L270" s="7" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="M270" s="7" t="s">
         <v>45</v>
       </c>
       <c r="N270" s="7" t="s">
-        <v>1294</v>
+        <v>1287</v>
       </c>
       <c r="V270" s="7"/>
       <c r="Y270" s="7"/>
@@ -19521,7 +19502,7 @@
         <v>529</v>
       </c>
       <c r="B271" s="7" t="s">
-        <v>1374</v>
+        <v>1367</v>
       </c>
       <c r="C271" s="7" t="s">
         <v>27</v>
@@ -19530,19 +19511,19 @@
         <v>522</v>
       </c>
       <c r="E271" s="7" t="s">
-        <v>1375</v>
+        <v>1368</v>
       </c>
       <c r="F271" s="7" t="s">
-        <v>1376</v>
+        <v>1369</v>
       </c>
       <c r="G271" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H271" s="7" t="s">
-        <v>1377</v>
+        <v>1370</v>
       </c>
       <c r="I271" s="7" t="s">
-        <v>1378</v>
+        <v>1371</v>
       </c>
       <c r="J271" s="7" t="s">
         <v>34</v>
@@ -19551,13 +19532,13 @@
         <v>34</v>
       </c>
       <c r="L271" s="7" t="s">
-        <v>1379</v>
+        <v>1372</v>
       </c>
       <c r="M271" s="7" t="s">
         <v>34</v>
       </c>
       <c r="N271" s="7" t="s">
-        <v>1380</v>
+        <v>1373</v>
       </c>
       <c r="V271" s="7"/>
       <c r="Y271" s="7"/>
@@ -19568,7 +19549,7 @@
         <v>529</v>
       </c>
       <c r="B272" s="7" t="s">
-        <v>1381</v>
+        <v>1374</v>
       </c>
       <c r="C272" s="7" t="s">
         <v>27</v>
@@ -19577,19 +19558,19 @@
         <v>522</v>
       </c>
       <c r="E272" s="7" t="s">
+        <v>1368</v>
+      </c>
+      <c r="F272" s="7" t="s">
         <v>1375</v>
-      </c>
-      <c r="F272" s="7" t="s">
-        <v>1382</v>
       </c>
       <c r="G272" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H272" s="23" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="I272" s="7" t="s">
-        <v>1383</v>
+        <v>1376</v>
       </c>
       <c r="J272" s="7" t="s">
         <v>34</v>
@@ -19598,13 +19579,13 @@
         <v>34</v>
       </c>
       <c r="L272" s="7" t="s">
-        <v>1384</v>
+        <v>1377</v>
       </c>
       <c r="M272" s="7" t="s">
         <v>34</v>
       </c>
       <c r="N272" s="7" t="s">
-        <v>1380</v>
+        <v>1373</v>
       </c>
       <c r="R272" s="5"/>
       <c r="Z272" s="7"/>
@@ -19614,7 +19595,7 @@
         <v>529</v>
       </c>
       <c r="B273" s="7" t="s">
-        <v>1385</v>
+        <v>1378</v>
       </c>
       <c r="C273" s="7" t="s">
         <v>27</v>
@@ -19623,19 +19604,19 @@
         <v>522</v>
       </c>
       <c r="E273" s="7" t="s">
-        <v>1375</v>
+        <v>1368</v>
       </c>
       <c r="F273" s="7" t="s">
-        <v>1386</v>
+        <v>1379</v>
       </c>
       <c r="G273" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H273" s="23" t="s">
-        <v>1387</v>
+        <v>1380</v>
       </c>
       <c r="I273" s="7" t="s">
-        <v>1388</v>
+        <v>1381</v>
       </c>
       <c r="J273" s="7" t="s">
         <v>34</v>
@@ -19644,13 +19625,13 @@
         <v>34</v>
       </c>
       <c r="L273" s="7" t="s">
-        <v>1389</v>
+        <v>1382</v>
       </c>
       <c r="M273" s="7" t="s">
         <v>34</v>
       </c>
       <c r="N273" s="7" t="s">
-        <v>1380</v>
+        <v>1373</v>
       </c>
       <c r="R273" s="5"/>
       <c r="Z273" s="7"/>
@@ -19660,7 +19641,7 @@
         <v>529</v>
       </c>
       <c r="B274" s="7" t="s">
-        <v>1390</v>
+        <v>1383</v>
       </c>
       <c r="C274" s="7" t="s">
         <v>27</v>
@@ -19669,19 +19650,19 @@
         <v>522</v>
       </c>
       <c r="E274" s="7" t="s">
-        <v>1375</v>
+        <v>1368</v>
       </c>
       <c r="F274" s="23" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="G274" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H274" s="23" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="I274" s="7" t="s">
-        <v>1390</v>
+        <v>1383</v>
       </c>
       <c r="J274" s="7" t="s">
         <v>45</v>
@@ -19690,13 +19671,13 @@
         <v>45</v>
       </c>
       <c r="L274" s="7" t="s">
-        <v>1391</v>
+        <v>1384</v>
       </c>
       <c r="M274" s="7" t="s">
         <v>45</v>
       </c>
       <c r="N274" s="7" t="s">
-        <v>1380</v>
+        <v>1373</v>
       </c>
       <c r="R274" s="5"/>
       <c r="Z274" s="7"/>
@@ -19706,7 +19687,7 @@
         <v>529</v>
       </c>
       <c r="B275" s="7" t="s">
-        <v>1392</v>
+        <v>1385</v>
       </c>
       <c r="C275" s="7" t="s">
         <v>27</v>
@@ -19715,19 +19696,19 @@
         <v>522</v>
       </c>
       <c r="E275" s="7" t="s">
-        <v>1375</v>
+        <v>1368</v>
       </c>
       <c r="F275" s="23" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="G275" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H275" s="23" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="I275" s="7" t="s">
-        <v>1392</v>
+        <v>1385</v>
       </c>
       <c r="J275" s="7" t="s">
         <v>34</v>
@@ -19739,7 +19720,7 @@
         <v>34</v>
       </c>
       <c r="N275" s="7" t="s">
-        <v>1380</v>
+        <v>1373</v>
       </c>
       <c r="R275" s="5"/>
       <c r="Z275" s="7"/>
@@ -19749,7 +19730,7 @@
         <v>529</v>
       </c>
       <c r="B276" s="7" t="s">
-        <v>1393</v>
+        <v>1386</v>
       </c>
       <c r="C276" s="7" t="s">
         <v>27</v>
@@ -19758,19 +19739,19 @@
         <v>522</v>
       </c>
       <c r="E276" s="7" t="s">
-        <v>1375</v>
+        <v>1368</v>
       </c>
       <c r="F276" s="23" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="G276" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H276" s="23" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="I276" s="7" t="s">
-        <v>1393</v>
+        <v>1386</v>
       </c>
       <c r="J276" s="7" t="s">
         <v>45</v>
@@ -19785,7 +19766,7 @@
         <v>45</v>
       </c>
       <c r="N276" s="7" t="s">
-        <v>1380</v>
+        <v>1373</v>
       </c>
       <c r="R276" s="5"/>
       <c r="Z276" s="7"/>
@@ -19795,7 +19776,7 @@
         <v>529</v>
       </c>
       <c r="B277" s="7" t="s">
-        <v>1394</v>
+        <v>1387</v>
       </c>
       <c r="C277" s="7" t="s">
         <v>27</v>
@@ -19804,19 +19785,19 @@
         <v>522</v>
       </c>
       <c r="E277" s="7" t="s">
-        <v>1375</v>
+        <v>1368</v>
       </c>
       <c r="F277" s="7" t="s">
-        <v>1395</v>
+        <v>1388</v>
       </c>
       <c r="G277" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H277" s="23" t="s">
-        <v>1387</v>
+        <v>1380</v>
       </c>
       <c r="I277" s="7" t="s">
-        <v>1396</v>
+        <v>1389</v>
       </c>
       <c r="J277" s="7" t="s">
         <v>45</v>
@@ -19825,13 +19806,13 @@
         <v>45</v>
       </c>
       <c r="L277" s="7" t="s">
-        <v>1397</v>
+        <v>1390</v>
       </c>
       <c r="M277" s="7" t="s">
         <v>45</v>
       </c>
       <c r="N277" s="7" t="s">
-        <v>1380</v>
+        <v>1373</v>
       </c>
       <c r="R277" s="5"/>
       <c r="Z277" s="7"/>
@@ -19841,7 +19822,7 @@
         <v>529</v>
       </c>
       <c r="B278" s="7" t="s">
-        <v>1398</v>
+        <v>1391</v>
       </c>
       <c r="C278" s="7" t="s">
         <v>27</v>
@@ -19850,19 +19831,19 @@
         <v>522</v>
       </c>
       <c r="E278" s="7" t="s">
-        <v>1375</v>
+        <v>1368</v>
       </c>
       <c r="F278" s="7" t="s">
-        <v>1395</v>
+        <v>1388</v>
       </c>
       <c r="G278" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H278" s="23" t="s">
-        <v>1399</v>
+        <v>1392</v>
       </c>
       <c r="I278" s="7" t="s">
-        <v>1400</v>
+        <v>1393</v>
       </c>
       <c r="J278" s="7" t="s">
         <v>45</v>
@@ -19871,13 +19852,13 @@
         <v>45</v>
       </c>
       <c r="L278" s="7" t="s">
-        <v>1401</v>
+        <v>1394</v>
       </c>
       <c r="M278" s="7" t="s">
         <v>45</v>
       </c>
       <c r="N278" s="7" t="s">
-        <v>1380</v>
+        <v>1373</v>
       </c>
       <c r="R278" s="5"/>
       <c r="Z278" s="7"/>
@@ -19887,7 +19868,7 @@
         <v>529</v>
       </c>
       <c r="B279" s="7" t="s">
-        <v>1402</v>
+        <v>1395</v>
       </c>
       <c r="C279" s="7" t="s">
         <v>27</v>
@@ -19896,19 +19877,19 @@
         <v>522</v>
       </c>
       <c r="E279" s="7" t="s">
-        <v>1375</v>
+        <v>1368</v>
       </c>
       <c r="F279" s="7" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="G279" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H279" s="23" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="I279" s="7" t="s">
-        <v>1403</v>
+        <v>1396</v>
       </c>
       <c r="J279" s="7" t="s">
         <v>45</v>
@@ -19920,7 +19901,7 @@
         <v>45</v>
       </c>
       <c r="N279" s="7" t="s">
-        <v>1380</v>
+        <v>1373</v>
       </c>
       <c r="R279" s="5"/>
       <c r="Z279" s="7"/>
@@ -19930,7 +19911,7 @@
         <v>529</v>
       </c>
       <c r="B280" s="7" t="s">
-        <v>1404</v>
+        <v>1397</v>
       </c>
       <c r="C280" s="7" t="s">
         <v>27</v>
@@ -19939,19 +19920,19 @@
         <v>522</v>
       </c>
       <c r="E280" s="7" t="s">
-        <v>1375</v>
+        <v>1368</v>
       </c>
       <c r="F280" s="7" t="s">
-        <v>1405</v>
+        <v>1398</v>
       </c>
       <c r="G280" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H280" s="23" t="s">
-        <v>1406</v>
+        <v>1399</v>
       </c>
       <c r="I280" s="7" t="s">
-        <v>1407</v>
+        <v>1400</v>
       </c>
       <c r="J280" s="7" t="s">
         <v>34</v>
@@ -19960,13 +19941,13 @@
         <v>34</v>
       </c>
       <c r="L280" s="7" t="s">
-        <v>1408</v>
+        <v>1401</v>
       </c>
       <c r="M280" s="7" t="s">
         <v>34</v>
       </c>
       <c r="N280" s="7" t="s">
-        <v>1380</v>
+        <v>1373</v>
       </c>
       <c r="R280" s="5"/>
       <c r="Z280" s="7"/>
@@ -19976,7 +19957,7 @@
         <v>529</v>
       </c>
       <c r="B281" s="7" t="s">
-        <v>1409</v>
+        <v>1402</v>
       </c>
       <c r="C281" s="7" t="s">
         <v>27</v>
@@ -19985,7 +19966,7 @@
         <v>522</v>
       </c>
       <c r="E281" s="7" t="s">
-        <v>1375</v>
+        <v>1368</v>
       </c>
       <c r="F281" s="7" t="s">
         <v>520</v>
@@ -19994,10 +19975,10 @@
         <v>31</v>
       </c>
       <c r="H281" s="23" t="s">
-        <v>1410</v>
+        <v>1403</v>
       </c>
       <c r="I281" s="7" t="s">
-        <v>1411</v>
+        <v>1404</v>
       </c>
       <c r="J281" s="7" t="s">
         <v>34</v>
@@ -20009,7 +19990,7 @@
         <v>34</v>
       </c>
       <c r="N281" s="7" t="s">
-        <v>1380</v>
+        <v>1373</v>
       </c>
       <c r="R281" s="5"/>
       <c r="Z281" s="7"/>
@@ -20019,7 +20000,7 @@
         <v>529</v>
       </c>
       <c r="B282" s="7" t="s">
-        <v>1412</v>
+        <v>1405</v>
       </c>
       <c r="C282" s="7" t="s">
         <v>27</v>
@@ -20028,7 +20009,7 @@
         <v>522</v>
       </c>
       <c r="E282" s="7" t="s">
-        <v>1375</v>
+        <v>1368</v>
       </c>
       <c r="F282" s="7" t="s">
         <v>42</v>
@@ -20037,10 +20018,10 @@
         <v>31</v>
       </c>
       <c r="H282" s="23" t="s">
-        <v>1130</v>
+        <v>1125</v>
       </c>
       <c r="I282" s="7" t="s">
-        <v>1413</v>
+        <v>1406</v>
       </c>
       <c r="J282" s="7" t="s">
         <v>34</v>
@@ -20049,13 +20030,13 @@
         <v>34</v>
       </c>
       <c r="L282" s="7" t="s">
-        <v>1414</v>
+        <v>1407</v>
       </c>
       <c r="M282" s="7" t="s">
         <v>34</v>
       </c>
       <c r="N282" s="7" t="s">
-        <v>1380</v>
+        <v>1373</v>
       </c>
       <c r="R282" s="5"/>
       <c r="Z282" s="7"/>
@@ -20065,7 +20046,7 @@
         <v>529</v>
       </c>
       <c r="B283" s="7" t="s">
-        <v>1415</v>
+        <v>1408</v>
       </c>
       <c r="C283" s="7" t="s">
         <v>27</v>
@@ -20074,19 +20055,19 @@
         <v>522</v>
       </c>
       <c r="E283" s="7" t="s">
-        <v>1375</v>
+        <v>1368</v>
       </c>
       <c r="F283" s="7" t="s">
-        <v>1416</v>
+        <v>1409</v>
       </c>
       <c r="G283" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H283" s="23" t="s">
-        <v>1417</v>
+        <v>1410</v>
       </c>
       <c r="I283" s="7" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
       <c r="J283" s="7" t="s">
         <v>34</v>
@@ -20098,7 +20079,7 @@
         <v>34</v>
       </c>
       <c r="N283" s="7" t="s">
-        <v>1380</v>
+        <v>1373</v>
       </c>
       <c r="R283" s="5"/>
       <c r="Z283" s="7"/>
@@ -20108,28 +20089,28 @@
         <v>529</v>
       </c>
       <c r="B284" s="7" t="s">
-        <v>1419</v>
+        <v>1412</v>
       </c>
       <c r="C284" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D284" s="7" t="s">
-        <v>1420</v>
+        <v>1413</v>
       </c>
       <c r="E284" s="7" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
       <c r="F284" s="7" t="s">
-        <v>1422</v>
+        <v>1415</v>
       </c>
       <c r="G284" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H284" s="23" t="s">
-        <v>1387</v>
+        <v>1380</v>
       </c>
       <c r="I284" s="7" t="s">
-        <v>1423</v>
+        <v>1416</v>
       </c>
       <c r="J284" s="7" t="s">
         <v>45</v>
@@ -20144,7 +20125,7 @@
         <v>45</v>
       </c>
       <c r="N284" s="7" t="s">
-        <v>1380</v>
+        <v>1373</v>
       </c>
       <c r="R284" s="5"/>
       <c r="Z284" s="7"/>
@@ -20154,28 +20135,28 @@
         <v>529</v>
       </c>
       <c r="B285" s="7" t="s">
-        <v>1424</v>
+        <v>1417</v>
       </c>
       <c r="C285" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D285" s="7" t="s">
-        <v>1420</v>
+        <v>1413</v>
       </c>
       <c r="E285" s="7" t="s">
-        <v>1425</v>
+        <v>1418</v>
       </c>
       <c r="F285" s="7" t="s">
-        <v>1426</v>
+        <v>1419</v>
       </c>
       <c r="G285" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H285" s="23" t="s">
-        <v>1427</v>
+        <v>1420</v>
       </c>
       <c r="I285" s="7" t="s">
-        <v>1424</v>
+        <v>1417</v>
       </c>
       <c r="J285" s="7" t="s">
         <v>63</v>
@@ -20184,13 +20165,13 @@
         <v>63</v>
       </c>
       <c r="L285" s="7" t="s">
-        <v>1428</v>
+        <v>1421</v>
       </c>
       <c r="M285" s="7" t="s">
         <v>45</v>
       </c>
       <c r="N285" s="7" t="s">
-        <v>1380</v>
+        <v>1373</v>
       </c>
       <c r="R285" s="5"/>
       <c r="Z285" s="7"/>
@@ -20200,28 +20181,28 @@
         <v>529</v>
       </c>
       <c r="B286" s="7" t="s">
-        <v>1429</v>
+        <v>1422</v>
       </c>
       <c r="C286" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D286" s="7" t="s">
-        <v>1430</v>
+        <v>1423</v>
       </c>
       <c r="E286" s="7" t="s">
-        <v>1431</v>
+        <v>1424</v>
       </c>
       <c r="F286" s="7" t="s">
-        <v>1432</v>
+        <v>1425</v>
       </c>
       <c r="G286" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H286" s="23" t="s">
-        <v>1433</v>
+        <v>1426</v>
       </c>
       <c r="I286" s="7" t="s">
-        <v>1434</v>
+        <v>1427</v>
       </c>
       <c r="J286" s="7" t="s">
         <v>45</v>
@@ -20230,13 +20211,13 @@
         <v>45</v>
       </c>
       <c r="L286" s="7" t="s">
-        <v>1435</v>
+        <v>1428</v>
       </c>
       <c r="M286" s="7" t="s">
         <v>45</v>
       </c>
       <c r="N286" s="7" t="s">
-        <v>1436</v>
+        <v>1429</v>
       </c>
       <c r="R286" s="5"/>
       <c r="Z286" s="7"/>
@@ -20246,28 +20227,28 @@
         <v>529</v>
       </c>
       <c r="B287" s="7" t="s">
-        <v>1437</v>
+        <v>1430</v>
       </c>
       <c r="C287" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D287" s="7" t="s">
-        <v>1430</v>
+        <v>1423</v>
       </c>
       <c r="E287" s="7" t="s">
-        <v>1431</v>
+        <v>1424</v>
       </c>
       <c r="F287" s="7" t="s">
-        <v>1375</v>
+        <v>1368</v>
       </c>
       <c r="G287" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H287" s="23" t="s">
-        <v>1155</v>
+        <v>1148</v>
       </c>
       <c r="I287" s="7" t="s">
-        <v>1438</v>
+        <v>1431</v>
       </c>
       <c r="J287" s="7" t="s">
         <v>34</v>
@@ -20276,13 +20257,13 @@
         <v>34</v>
       </c>
       <c r="L287" s="7" t="s">
-        <v>1439</v>
+        <v>1432</v>
       </c>
       <c r="M287" s="7" t="s">
         <v>34</v>
       </c>
       <c r="N287" s="7" t="s">
-        <v>1436</v>
+        <v>1429</v>
       </c>
       <c r="R287" s="5"/>
       <c r="Z287" s="7"/>
@@ -20292,19 +20273,19 @@
         <v>529</v>
       </c>
       <c r="B288" s="7" t="s">
-        <v>1440</v>
+        <v>1433</v>
       </c>
       <c r="C288" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D288" s="7" t="s">
-        <v>1430</v>
+        <v>1423</v>
       </c>
       <c r="E288" s="7" t="s">
-        <v>1431</v>
+        <v>1424</v>
       </c>
       <c r="F288" s="7" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
       <c r="G288" s="7" t="s">
         <v>31</v>
@@ -20313,7 +20294,7 @@
         <v>1089</v>
       </c>
       <c r="I288" s="7" t="s">
-        <v>1442</v>
+        <v>1435</v>
       </c>
       <c r="J288" s="7" t="s">
         <v>34</v>
@@ -20322,13 +20303,13 @@
         <v>34</v>
       </c>
       <c r="L288" s="7" t="s">
-        <v>1443</v>
+        <v>1436</v>
       </c>
       <c r="M288" s="7" t="s">
         <v>34</v>
       </c>
       <c r="N288" s="7" t="s">
-        <v>1436</v>
+        <v>1429</v>
       </c>
       <c r="R288" s="5"/>
       <c r="Z288" s="7"/>
@@ -20338,28 +20319,28 @@
         <v>529</v>
       </c>
       <c r="B289" s="7" t="s">
-        <v>1444</v>
+        <v>1437</v>
       </c>
       <c r="C289" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D289" s="7" t="s">
-        <v>1430</v>
+        <v>1423</v>
       </c>
       <c r="E289" s="7" t="s">
-        <v>1431</v>
+        <v>1424</v>
       </c>
       <c r="F289" s="7" t="s">
-        <v>1445</v>
+        <v>1438</v>
       </c>
       <c r="G289" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H289" s="23" t="s">
-        <v>1130</v>
+        <v>1125</v>
       </c>
       <c r="I289" s="7" t="s">
-        <v>1446</v>
+        <v>1439</v>
       </c>
       <c r="J289" s="7" t="s">
         <v>34</v>
@@ -20368,13 +20349,13 @@
         <v>34</v>
       </c>
       <c r="L289" s="7" t="s">
-        <v>1443</v>
+        <v>1436</v>
       </c>
       <c r="M289" s="7" t="s">
         <v>34</v>
       </c>
       <c r="N289" s="7" t="s">
-        <v>1436</v>
+        <v>1429</v>
       </c>
       <c r="R289" s="5"/>
       <c r="Z289" s="7"/>
@@ -20384,28 +20365,28 @@
         <v>529</v>
       </c>
       <c r="B290" s="7" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
       <c r="C290" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D290" s="7" t="s">
-        <v>1430</v>
+        <v>1423</v>
       </c>
       <c r="E290" s="7" t="s">
-        <v>1431</v>
+        <v>1424</v>
       </c>
       <c r="F290" s="7" t="s">
-        <v>1375</v>
+        <v>1368</v>
       </c>
       <c r="G290" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H290" s="23" t="s">
-        <v>1448</v>
+        <v>1441</v>
       </c>
       <c r="I290" s="7" t="s">
-        <v>1449</v>
+        <v>1442</v>
       </c>
       <c r="J290" s="7" t="s">
         <v>34</v>
@@ -20414,13 +20395,13 @@
         <v>34</v>
       </c>
       <c r="L290" s="7" t="s">
-        <v>1443</v>
+        <v>1436</v>
       </c>
       <c r="M290" s="7" t="s">
         <v>34</v>
       </c>
       <c r="N290" s="7" t="s">
-        <v>1436</v>
+        <v>1429</v>
       </c>
       <c r="R290" s="5"/>
       <c r="Z290" s="7"/>
@@ -20430,28 +20411,28 @@
         <v>529</v>
       </c>
       <c r="B291" s="7" t="s">
-        <v>1450</v>
+        <v>1443</v>
       </c>
       <c r="C291" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D291" s="7" t="s">
-        <v>1430</v>
+        <v>1423</v>
       </c>
       <c r="E291" s="7" t="s">
-        <v>1451</v>
+        <v>1444</v>
       </c>
       <c r="F291" s="7" t="s">
-        <v>1452</v>
+        <v>1445</v>
       </c>
       <c r="G291" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H291" s="23" t="s">
-        <v>1417</v>
+        <v>1410</v>
       </c>
       <c r="I291" s="7" t="s">
-        <v>1453</v>
+        <v>1446</v>
       </c>
       <c r="J291" s="7" t="s">
         <v>45</v>
@@ -20460,13 +20441,13 @@
         <v>45</v>
       </c>
       <c r="L291" s="7" t="s">
-        <v>1454</v>
+        <v>1447</v>
       </c>
       <c r="M291" s="7" t="s">
         <v>45</v>
       </c>
       <c r="N291" s="7" t="s">
-        <v>1436</v>
+        <v>1429</v>
       </c>
       <c r="R291" s="5"/>
       <c r="Z291" s="7"/>
@@ -20476,28 +20457,28 @@
         <v>529</v>
       </c>
       <c r="B292" s="7" t="s">
-        <v>1455</v>
+        <v>1448</v>
       </c>
       <c r="C292" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D292" s="7" t="s">
-        <v>1430</v>
+        <v>1423</v>
       </c>
       <c r="E292" s="7" t="s">
-        <v>1451</v>
+        <v>1444</v>
       </c>
       <c r="F292" s="7" t="s">
-        <v>1456</v>
+        <v>1449</v>
       </c>
       <c r="G292" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H292" s="23" t="s">
-        <v>1417</v>
+        <v>1410</v>
       </c>
       <c r="I292" s="7" t="s">
-        <v>1457</v>
+        <v>1450</v>
       </c>
       <c r="J292" s="7" t="s">
         <v>45</v>
@@ -20506,13 +20487,13 @@
         <v>45</v>
       </c>
       <c r="L292" s="7" t="s">
-        <v>1454</v>
+        <v>1447</v>
       </c>
       <c r="M292" s="7" t="s">
         <v>45</v>
       </c>
       <c r="N292" s="7" t="s">
-        <v>1436</v>
+        <v>1429</v>
       </c>
       <c r="R292" s="5"/>
       <c r="Z292" s="7"/>
@@ -20522,28 +20503,28 @@
         <v>529</v>
       </c>
       <c r="B293" s="7" t="s">
-        <v>1458</v>
+        <v>1451</v>
       </c>
       <c r="C293" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D293" s="7" t="s">
-        <v>1430</v>
+        <v>1423</v>
       </c>
       <c r="E293" s="7" t="s">
-        <v>1451</v>
+        <v>1444</v>
       </c>
       <c r="F293" s="7" t="s">
-        <v>1459</v>
+        <v>1452</v>
       </c>
       <c r="G293" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H293" s="23" t="s">
-        <v>1399</v>
+        <v>1392</v>
       </c>
       <c r="I293" s="7" t="s">
-        <v>1460</v>
+        <v>1453</v>
       </c>
       <c r="J293" s="7" t="s">
         <v>45</v>
@@ -20552,44 +20533,44 @@
         <v>45</v>
       </c>
       <c r="L293" s="7" t="s">
-        <v>1454</v>
+        <v>1447</v>
       </c>
       <c r="M293" s="7" t="s">
         <v>45</v>
       </c>
       <c r="N293" s="7" t="s">
-        <v>1436</v>
+        <v>1429</v>
       </c>
       <c r="R293" s="5"/>
       <c r="Z293" s="7"/>
     </row>
     <row r="294" spans="1:26" ht="183">
       <c r="A294" s="17" t="s">
-        <v>1461</v>
+        <v>1454</v>
       </c>
       <c r="B294" s="7" t="s">
-        <v>1462</v>
+        <v>1455</v>
       </c>
       <c r="C294" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D294" s="7" t="s">
-        <v>1430</v>
+        <v>1423</v>
       </c>
       <c r="E294" s="7" t="s">
-        <v>1463</v>
+        <v>1456</v>
       </c>
       <c r="F294" s="7" t="s">
-        <v>1464</v>
+        <v>1457</v>
       </c>
       <c r="G294" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H294" s="23" t="s">
-        <v>1465</v>
+        <v>1458</v>
       </c>
       <c r="I294" s="7" t="s">
-        <v>1466</v>
+        <v>1459</v>
       </c>
       <c r="J294" s="7" t="s">
         <v>34</v>
@@ -20604,7 +20585,7 @@
         <v>34</v>
       </c>
       <c r="N294" s="7" t="s">
-        <v>1436</v>
+        <v>1429</v>
       </c>
       <c r="R294" s="5"/>
       <c r="Z294" s="7"/>
@@ -20614,28 +20595,28 @@
         <v>529</v>
       </c>
       <c r="B295" s="7" t="s">
-        <v>1467</v>
+        <v>1460</v>
       </c>
       <c r="C295" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D295" s="7" t="s">
-        <v>1430</v>
+        <v>1423</v>
       </c>
       <c r="E295" s="7" t="s">
-        <v>1468</v>
+        <v>1461</v>
       </c>
       <c r="F295" s="7" t="s">
-        <v>1469</v>
+        <v>1462</v>
       </c>
       <c r="G295" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H295" s="23" t="s">
-        <v>1470</v>
+        <v>1463</v>
       </c>
       <c r="I295" s="7" t="s">
-        <v>1471</v>
+        <v>1464</v>
       </c>
       <c r="J295" s="7" t="s">
         <v>34</v>
@@ -20644,13 +20625,13 @@
         <v>34</v>
       </c>
       <c r="L295" s="7" t="s">
-        <v>1472</v>
+        <v>1465</v>
       </c>
       <c r="M295" s="7" t="s">
         <v>34</v>
       </c>
       <c r="N295" s="7" t="s">
-        <v>1473</v>
+        <v>1466</v>
       </c>
       <c r="R295" s="5"/>
       <c r="Z295" s="7"/>
@@ -20660,7 +20641,7 @@
         <v>901</v>
       </c>
       <c r="B296" s="59" t="s">
-        <v>1474</v>
+        <v>1467</v>
       </c>
       <c r="C296" s="7" t="s">
         <v>101</v>
@@ -20669,7 +20650,7 @@
         <v>67</v>
       </c>
       <c r="E296" s="7" t="s">
-        <v>1475</v>
+        <v>1468</v>
       </c>
       <c r="F296" s="7" t="s">
         <v>275</v>
@@ -20678,10 +20659,10 @@
         <v>31</v>
       </c>
       <c r="H296" s="23" t="s">
-        <v>1476</v>
+        <v>1469</v>
       </c>
       <c r="I296" s="59" t="s">
-        <v>1477</v>
+        <v>1470</v>
       </c>
       <c r="J296" s="7" t="s">
         <v>439</v>
@@ -20693,7 +20674,7 @@
         <v>439</v>
       </c>
       <c r="N296" s="65" t="s">
-        <v>1478</v>
+        <v>1471</v>
       </c>
       <c r="R296" s="5"/>
       <c r="Z296" s="7"/>
@@ -20703,7 +20684,7 @@
         <v>901</v>
       </c>
       <c r="B297" s="7" t="s">
-        <v>1479</v>
+        <v>1472</v>
       </c>
       <c r="C297" s="7" t="s">
         <v>86</v>
@@ -20712,41 +20693,41 @@
         <v>388</v>
       </c>
       <c r="G297" s="7" t="s">
-        <v>1480</v>
+        <v>1473</v>
       </c>
       <c r="I297" s="7" t="s">
-        <v>1481</v>
+        <v>1474</v>
       </c>
       <c r="R297" s="5"/>
       <c r="Z297" s="7"/>
     </row>
     <row r="298" spans="1:26" ht="106.5">
       <c r="A298" s="17" t="s">
-        <v>1482</v>
+        <v>1475</v>
       </c>
       <c r="B298" s="7" t="s">
-        <v>1483</v>
+        <v>1476</v>
       </c>
       <c r="C298" s="7" t="s">
         <v>86</v>
       </c>
       <c r="D298" s="7" t="s">
-        <v>1484</v>
+        <v>1477</v>
       </c>
       <c r="E298" s="7" t="s">
-        <v>1485</v>
+        <v>1478</v>
       </c>
       <c r="F298" s="7" t="s">
-        <v>1232</v>
+        <v>1225</v>
       </c>
       <c r="G298" s="7" t="s">
-        <v>1486</v>
+        <v>1479</v>
       </c>
       <c r="H298" s="23" t="s">
-        <v>1195</v>
+        <v>1188</v>
       </c>
       <c r="I298" s="7" t="s">
-        <v>1487</v>
+        <v>1480</v>
       </c>
       <c r="J298" s="7" t="s">
         <v>439</v>
@@ -20758,7 +20739,7 @@
         <v>439</v>
       </c>
       <c r="N298" s="65" t="s">
-        <v>1488</v>
+        <v>1481</v>
       </c>
       <c r="R298" s="5"/>
       <c r="Z298" s="7"/>
@@ -27875,12 +27856,14 @@
     <hyperlink ref="R163" r:id="rId16" xr:uid="{F217D10B-0B4A-42EA-A164-8F41E8D12A41}"/>
     <hyperlink ref="S163" r:id="rId17" xr:uid="{7E0EB780-9260-4002-999A-7EC1883A092C}"/>
     <hyperlink ref="N61" r:id="rId18" xr:uid="{E61DB296-B1A0-4210-93AC-A89CAF24AB57}"/>
-    <hyperlink ref="N50" r:id="rId19" xr:uid="{AE9EEF1C-2808-4CDE-805F-CAB39F7726CB}"/>
+    <hyperlink ref="N50" r:id="rId19" display="https://archive.org/details/ESDC_A-2020-002665" xr:uid="{AE9EEF1C-2808-4CDE-805F-CAB39F7726CB}"/>
+    <hyperlink ref="O18" r:id="rId20" xr:uid="{5B2094E7-5F57-46D9-8CF5-6C7D520F1C88}"/>
+    <hyperlink ref="O19" r:id="rId21" xr:uid="{2AA433F4-A8E9-4BAA-A14D-340A669D4487}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId20"/>
+  <pageSetup orientation="portrait" r:id="rId22"/>
   <tableParts count="1">
-    <tablePart r:id="rId21"/>
+    <tablePart r:id="rId23"/>
   </tableParts>
 </worksheet>
 </file>

--- a/canada-tag-data-main.xlsx
+++ b/canada-tag-data-main.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://plp150-my.sharepoint.com/personal/m_leslie_publiclawproject_org_uk/Documents/Research and writing/TAG Project/TAG Register/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{31F6D587-CCFD-4FF0-84E9-D258A3811655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C59E0D4-ACDF-44F0-8319-339E04641FBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30015" yWindow="795" windowWidth="24915" windowHeight="14130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6444,8 +6444,8 @@
   <dimension ref="A1:AC1704"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A302" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A303" sqref="A303:XFD303"/>
+      <pane ySplit="1" topLeftCell="J299" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C301" sqref="C301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -9704,7 +9704,7 @@
         <v>479</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="D67" s="7" t="s">
         <v>352</v>
@@ -10213,7 +10213,7 @@
         <v>532</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="D78" s="7" t="s">
         <v>154</v>
@@ -14279,7 +14279,7 @@
         <v>878</v>
       </c>
       <c r="C167" s="7" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="D167" s="7" t="s">
         <v>352</v>
@@ -20138,7 +20138,7 @@
         <v>1395</v>
       </c>
       <c r="C286" s="7" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="D286" s="7" t="s">
         <v>1396</v>
@@ -20792,7 +20792,7 @@
         <v>1471</v>
       </c>
       <c r="C301" s="7" t="s">
-        <v>1458</v>
+        <v>84</v>
       </c>
       <c r="D301" s="7" t="s">
         <v>1459</v>

--- a/canada-tag-data-main.xlsx
+++ b/canada-tag-data-main.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://plp150-my.sharepoint.com/personal/m_leslie_publiclawproject_org_uk/Documents/Research and writing/TAG Project/TAG Register/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3DAD093-8C60-49D0-B8DD-2152BCC8DD10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{429C8149-D48D-406B-AD15-74D24CA99364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30015" yWindow="795" windowWidth="24915" windowHeight="14130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5441,9 +5441,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -5588,6 +5585,9 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -6444,8 +6444,8 @@
   <dimension ref="A1:AC1704"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="N55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X304" sqref="X304"/>
+      <pane ySplit="1" topLeftCell="F11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -6457,7 +6457,7 @@
     <col min="5" max="5" width="17.42578125" style="7" customWidth="1"/>
     <col min="6" max="6" width="23.28515625" style="7" customWidth="1"/>
     <col min="7" max="7" width="17.42578125" style="7" customWidth="1"/>
-    <col min="8" max="8" width="31.42578125" style="23" customWidth="1"/>
+    <col min="8" max="8" width="31.42578125" style="22" customWidth="1"/>
     <col min="9" max="9" width="46.85546875" style="7" customWidth="1"/>
     <col min="10" max="10" width="27.85546875" style="7" customWidth="1"/>
     <col min="11" max="11" width="28.85546875" style="7" customWidth="1"/>
@@ -6473,14 +6473,14 @@
     <col min="22" max="22" width="22.42578125" style="5" customWidth="1"/>
     <col min="23" max="23" width="20.28515625" style="7" customWidth="1"/>
     <col min="24" max="24" width="30.7109375" style="7" customWidth="1"/>
-    <col min="25" max="25" width="25.42578125" style="18" customWidth="1"/>
+    <col min="25" max="25" width="25.42578125" style="17" customWidth="1"/>
     <col min="26" max="26" width="21.42578125" style="5" customWidth="1"/>
     <col min="27" max="27" width="6.7109375" style="7"/>
     <col min="28" max="29" width="20.28515625" style="7" customWidth="1"/>
     <col min="30" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="22" customFormat="1" ht="60.75">
+    <row r="1" spans="1:29" s="21" customFormat="1" ht="60.75">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6493,7 +6493,7 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="55" t="s">
+      <c r="E1" s="54" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -6502,7 +6502,7 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="23" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
@@ -6561,7 +6561,7 @@
       <c r="AC1" s="2"/>
     </row>
     <row r="2" spans="1:29" ht="198">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="16" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -6582,7 +6582,7 @@
       <c r="G2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="H2" s="22" t="s">
         <v>32</v>
       </c>
       <c r="I2" s="7" t="s">
@@ -6612,7 +6612,7 @@
       <c r="Z2" s="7"/>
     </row>
     <row r="3" spans="1:29" ht="198">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B3" s="11" t="s">
@@ -6633,7 +6633,7 @@
       <c r="G3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="H3" s="22" t="s">
         <v>43</v>
       </c>
       <c r="I3" s="8" t="s">
@@ -6662,7 +6662,7 @@
       </c>
     </row>
     <row r="4" spans="1:29" ht="198">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="16" t="s">
         <v>38</v>
       </c>
       <c r="B4" s="8" t="s">
@@ -6683,7 +6683,7 @@
       <c r="G4" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="23" t="s">
+      <c r="H4" s="22" t="s">
         <v>50</v>
       </c>
       <c r="I4" s="7" t="s">
@@ -6733,7 +6733,7 @@
       <c r="G5" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="23" t="s">
+      <c r="H5" s="22" t="s">
         <v>57</v>
       </c>
       <c r="I5" s="9" t="s">
@@ -6751,7 +6751,7 @@
       <c r="M5" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="N5" s="54" t="s">
+      <c r="N5" s="53" t="s">
         <v>61</v>
       </c>
       <c r="O5" s="6"/>
@@ -6784,7 +6784,7 @@
       <c r="G6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="23" t="s">
+      <c r="H6" s="22" t="s">
         <v>66</v>
       </c>
       <c r="I6" s="9" t="s">
@@ -6814,7 +6814,7 @@
       <c r="Z6" s="7"/>
     </row>
     <row r="7" spans="1:29" ht="198">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="18" t="s">
         <v>73</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -6835,7 +6835,7 @@
       <c r="G7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H7" s="23" t="s">
+      <c r="H7" s="22" t="s">
         <v>78</v>
       </c>
       <c r="I7" s="7" t="s">
@@ -6865,7 +6865,7 @@
       <c r="Z7" s="7"/>
     </row>
     <row r="8" spans="1:29" ht="91.5">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="16" t="s">
         <v>82</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -6886,7 +6886,7 @@
       <c r="G8" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="H8" s="23" t="s">
+      <c r="H8" s="22" t="s">
         <v>89</v>
       </c>
       <c r="I8" s="7" t="s">
@@ -6916,7 +6916,7 @@
       <c r="Z8" s="7"/>
     </row>
     <row r="9" spans="1:29" ht="198">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="16" t="s">
         <v>73</v>
       </c>
       <c r="B9" s="7" t="s">
@@ -6937,7 +6937,7 @@
       <c r="G9" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H9" s="23" t="s">
+      <c r="H9" s="22" t="s">
         <v>78</v>
       </c>
       <c r="I9" s="7" t="s">
@@ -6967,7 +6967,7 @@
       <c r="Z9" s="7"/>
     </row>
     <row r="10" spans="1:29" ht="409.6">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="16" t="s">
         <v>96</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -6988,7 +6988,7 @@
       <c r="G10" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="H10" s="25">
+      <c r="H10" s="24">
         <v>2020</v>
       </c>
       <c r="I10" s="7" t="s">
@@ -7023,7 +7023,7 @@
       <c r="Z10" s="7"/>
     </row>
     <row r="11" spans="1:29" ht="409.6">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="16" t="s">
         <v>96</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -7044,7 +7044,7 @@
       <c r="G11" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="H11" s="23" t="s">
+      <c r="H11" s="22" t="s">
         <v>113</v>
       </c>
       <c r="I11" s="7" t="s">
@@ -7095,7 +7095,7 @@
       <c r="G12" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H12" s="23" t="s">
+      <c r="H12" s="22" t="s">
         <v>119</v>
       </c>
       <c r="I12" s="9" t="s">
@@ -7113,10 +7113,10 @@
       <c r="M12" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="N12" s="14" t="s">
+      <c r="N12" s="66" t="s">
         <v>122</v>
       </c>
-      <c r="O12" s="15"/>
+      <c r="O12" s="14"/>
       <c r="P12" s="5"/>
       <c r="R12" s="5"/>
       <c r="T12" s="7" t="s">
@@ -7128,7 +7128,7 @@
       <c r="Z12" s="7"/>
     </row>
     <row r="13" spans="1:29" ht="198">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="16" t="s">
         <v>73</v>
       </c>
       <c r="B13" s="7" t="s">
@@ -7149,7 +7149,7 @@
       <c r="G13" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H13" s="23" t="s">
+      <c r="H13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="I13" s="7" t="s">
@@ -7179,7 +7179,7 @@
       <c r="Z13" s="7"/>
     </row>
     <row r="14" spans="1:29" ht="198">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="19" t="s">
         <v>125</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -7200,7 +7200,7 @@
       <c r="G14" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H14" s="23" t="s">
+      <c r="H14" s="22" t="s">
         <v>128</v>
       </c>
       <c r="I14" s="7" t="s">
@@ -7230,7 +7230,7 @@
       <c r="Z14" s="7"/>
     </row>
     <row r="15" spans="1:29" ht="198">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="19" t="s">
         <v>131</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -7251,7 +7251,7 @@
       <c r="G15" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H15" s="23" t="s">
+      <c r="H15" s="22" t="s">
         <v>133</v>
       </c>
       <c r="I15" s="7" t="s">
@@ -7280,7 +7280,7 @@
       <c r="Z15" s="7"/>
     </row>
     <row r="16" spans="1:29" ht="198">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="16" t="s">
         <v>136</v>
       </c>
       <c r="B16" s="7" t="s">
@@ -7301,7 +7301,7 @@
       <c r="G16" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H16" s="23" t="s">
+      <c r="H16" s="22" t="s">
         <v>133</v>
       </c>
       <c r="I16" s="7" t="s">
@@ -7331,7 +7331,7 @@
       <c r="Z16" s="7"/>
     </row>
     <row r="17" spans="1:26" ht="198">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="16" t="s">
         <v>140</v>
       </c>
       <c r="B17" s="7" t="s">
@@ -7352,7 +7352,7 @@
       <c r="G17" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H17" s="23" t="s">
+      <c r="H17" s="22" t="s">
         <v>142</v>
       </c>
       <c r="I17" s="7" t="s">
@@ -7382,7 +7382,7 @@
       <c r="Z17" s="7"/>
     </row>
     <row r="18" spans="1:26" ht="91.5">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="16" t="s">
         <v>145</v>
       </c>
       <c r="B18" s="7" t="s">
@@ -7403,7 +7403,7 @@
       <c r="G18" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H18" s="23" t="s">
+      <c r="H18" s="22" t="s">
         <v>148</v>
       </c>
       <c r="I18" s="7" t="s">
@@ -7424,15 +7424,15 @@
       <c r="N18" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="O18" s="59" t="s">
+      <c r="O18" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="P18" s="59"/>
+      <c r="P18" s="58"/>
       <c r="R18" s="5"/>
       <c r="Z18" s="7"/>
     </row>
     <row r="19" spans="1:26" ht="43.5">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="16" t="s">
         <v>152</v>
       </c>
       <c r="B19" s="7" t="s">
@@ -7453,10 +7453,10 @@
       <c r="G19" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H19" s="23" t="s">
+      <c r="H19" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="I19" s="30" t="s">
+      <c r="I19" s="29" t="s">
         <v>157</v>
       </c>
       <c r="J19" s="7" t="s">
@@ -7474,14 +7474,14 @@
       <c r="N19" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="O19" s="59" t="s">
+      <c r="O19" s="58" t="s">
         <v>81</v>
       </c>
       <c r="R19" s="5"/>
       <c r="Z19" s="7"/>
     </row>
     <row r="20" spans="1:26" ht="183">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="19" t="s">
         <v>158</v>
       </c>
       <c r="B20" s="8" t="s">
@@ -7502,7 +7502,7 @@
       <c r="G20" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H20" s="23" t="s">
+      <c r="H20" s="22" t="s">
         <v>160</v>
       </c>
       <c r="I20" s="7" t="s">
@@ -7529,7 +7529,7 @@
       <c r="Z20" s="7"/>
     </row>
     <row r="21" spans="1:26" ht="91.5">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="16" t="s">
         <v>163</v>
       </c>
       <c r="B21" s="7" t="s">
@@ -7550,7 +7550,7 @@
       <c r="G21" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H21" s="23" t="s">
+      <c r="H21" s="22" t="s">
         <v>165</v>
       </c>
       <c r="I21" s="7" t="s">
@@ -7577,7 +7577,7 @@
       <c r="Z21" s="7"/>
     </row>
     <row r="22" spans="1:26" ht="152.25">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="16" t="s">
         <v>168</v>
       </c>
       <c r="B22" s="7" t="s">
@@ -7598,7 +7598,7 @@
       <c r="G22" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H22" s="23" t="s">
+      <c r="H22" s="22" t="s">
         <v>171</v>
       </c>
       <c r="I22" s="7" t="s">
@@ -7625,7 +7625,7 @@
       <c r="Z22" s="7"/>
     </row>
     <row r="23" spans="1:26" ht="91.5">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="16" t="s">
         <v>174</v>
       </c>
       <c r="B23" s="7" t="s">
@@ -7646,7 +7646,7 @@
       <c r="G23" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H23" s="23" t="s">
+      <c r="H23" s="22" t="s">
         <v>177</v>
       </c>
       <c r="I23" s="7" t="s">
@@ -7673,7 +7673,7 @@
       <c r="Z23" s="7"/>
     </row>
     <row r="24" spans="1:26" ht="91.5">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="16" t="s">
         <v>180</v>
       </c>
       <c r="B24" s="7" t="s">
@@ -7694,7 +7694,7 @@
       <c r="G24" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H24" s="23" t="s">
+      <c r="H24" s="22" t="s">
         <v>183</v>
       </c>
       <c r="I24" s="7" t="s">
@@ -7721,7 +7721,7 @@
       <c r="Z24" s="7"/>
     </row>
     <row r="25" spans="1:26" ht="183">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="16" t="s">
         <v>186</v>
       </c>
       <c r="B25" s="7" t="s">
@@ -7742,7 +7742,7 @@
       <c r="G25" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H25" s="23" t="s">
+      <c r="H25" s="22" t="s">
         <v>189</v>
       </c>
       <c r="I25" s="7" t="s">
@@ -7769,7 +7769,7 @@
       <c r="Z25" s="7"/>
     </row>
     <row r="26" spans="1:26" ht="244.5">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="16" t="s">
         <v>192</v>
       </c>
       <c r="B26" s="7" t="s">
@@ -7790,7 +7790,7 @@
       <c r="G26" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H26" s="23" t="s">
+      <c r="H26" s="22" t="s">
         <v>195</v>
       </c>
       <c r="I26" s="7" t="s">
@@ -7819,7 +7819,7 @@
       <c r="Z26" s="7"/>
     </row>
     <row r="27" spans="1:26" ht="229.5">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="16" t="s">
         <v>199</v>
       </c>
       <c r="B27" s="7" t="s">
@@ -7840,7 +7840,7 @@
       <c r="G27" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H27" s="23" t="s">
+      <c r="H27" s="22" t="s">
         <v>202</v>
       </c>
       <c r="I27" s="7" t="s">
@@ -7867,7 +7867,7 @@
       <c r="Z27" s="7"/>
     </row>
     <row r="28" spans="1:26" ht="167.25">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="16" t="s">
         <v>203</v>
       </c>
       <c r="B28" s="7" t="s">
@@ -7888,7 +7888,7 @@
       <c r="G28" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H28" s="23" t="s">
+      <c r="H28" s="22" t="s">
         <v>206</v>
       </c>
       <c r="I28" s="7" t="s">
@@ -7913,7 +7913,7 @@
       <c r="Z28" s="7"/>
     </row>
     <row r="29" spans="1:26" ht="91.5">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="16" t="s">
         <v>209</v>
       </c>
       <c r="B29" s="7" t="s">
@@ -7934,7 +7934,7 @@
       <c r="G29" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H29" s="23" t="s">
+      <c r="H29" s="22" t="s">
         <v>211</v>
       </c>
       <c r="I29" s="7" t="s">
@@ -7961,7 +7961,7 @@
       <c r="Z29" s="7"/>
     </row>
     <row r="30" spans="1:26" ht="167.25">
-      <c r="A30" s="20" t="s">
+      <c r="A30" s="19" t="s">
         <v>214</v>
       </c>
       <c r="B30" s="7" t="s">
@@ -7982,7 +7982,7 @@
       <c r="G30" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H30" s="23" t="s">
+      <c r="H30" s="22" t="s">
         <v>216</v>
       </c>
       <c r="I30" s="7" t="s">
@@ -8009,7 +8009,7 @@
       <c r="Z30" s="7"/>
     </row>
     <row r="31" spans="1:26" ht="321">
-      <c r="A31" s="17" t="s">
+      <c r="A31" s="16" t="s">
         <v>219</v>
       </c>
       <c r="B31" s="7" t="s">
@@ -8030,7 +8030,7 @@
       <c r="G31" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H31" s="23" t="s">
+      <c r="H31" s="22" t="s">
         <v>166</v>
       </c>
       <c r="I31" s="7" t="s">
@@ -8057,7 +8057,7 @@
       <c r="Z31" s="7"/>
     </row>
     <row r="32" spans="1:26" ht="91.5">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="16" t="s">
         <v>223</v>
       </c>
       <c r="B32" s="7" t="s">
@@ -8078,7 +8078,7 @@
       <c r="G32" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H32" s="23" t="s">
+      <c r="H32" s="22" t="s">
         <v>225</v>
       </c>
       <c r="I32" s="7" t="s">
@@ -8099,13 +8099,13 @@
       <c r="N32" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="O32" s="21"/>
-      <c r="P32" s="21"/>
+      <c r="O32" s="20"/>
+      <c r="P32" s="20"/>
       <c r="R32" s="5"/>
       <c r="Z32" s="7"/>
     </row>
     <row r="33" spans="1:26" ht="91.5">
-      <c r="A33" s="17" t="s">
+      <c r="A33" s="16" t="s">
         <v>227</v>
       </c>
       <c r="B33" s="7" t="s">
@@ -8126,7 +8126,7 @@
       <c r="G33" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H33" s="23" t="s">
+      <c r="H33" s="22" t="s">
         <v>166</v>
       </c>
       <c r="I33" s="7" t="s">
@@ -8153,7 +8153,7 @@
       <c r="Z33" s="7"/>
     </row>
     <row r="34" spans="1:26" ht="91.5">
-      <c r="A34" s="17" t="s">
+      <c r="A34" s="16" t="s">
         <v>231</v>
       </c>
       <c r="B34" s="7" t="s">
@@ -8174,7 +8174,7 @@
       <c r="G34" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H34" s="23" t="s">
+      <c r="H34" s="22" t="s">
         <v>234</v>
       </c>
       <c r="I34" s="7" t="s">
@@ -8201,7 +8201,7 @@
       <c r="Z34" s="7"/>
     </row>
     <row r="35" spans="1:26" ht="91.5">
-      <c r="A35" s="17" t="s">
+      <c r="A35" s="16" t="s">
         <v>236</v>
       </c>
       <c r="B35" s="7" t="s">
@@ -8222,7 +8222,7 @@
       <c r="G35" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H35" s="23" t="s">
+      <c r="H35" s="22" t="s">
         <v>239</v>
       </c>
       <c r="I35" s="7" t="s">
@@ -8246,7 +8246,7 @@
       <c r="Z35" s="7"/>
     </row>
     <row r="36" spans="1:26" ht="91.5">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="16" t="s">
         <v>73</v>
       </c>
       <c r="B36" s="7" t="s">
@@ -8267,7 +8267,7 @@
       <c r="G36" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H36" s="23" t="s">
+      <c r="H36" s="22" t="s">
         <v>166</v>
       </c>
       <c r="I36" s="7" t="s">
@@ -8294,7 +8294,7 @@
       <c r="Z36" s="7"/>
     </row>
     <row r="37" spans="1:26" ht="91.5">
-      <c r="A37" s="17" t="s">
+      <c r="A37" s="16" t="s">
         <v>243</v>
       </c>
       <c r="B37" s="7" t="s">
@@ -8315,7 +8315,7 @@
       <c r="G37" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H37" s="23" t="s">
+      <c r="H37" s="22" t="s">
         <v>166</v>
       </c>
       <c r="I37" s="7" t="s">
@@ -8339,7 +8339,7 @@
       <c r="Z37" s="7"/>
     </row>
     <row r="38" spans="1:26" ht="91.5">
-      <c r="A38" s="17" t="s">
+      <c r="A38" s="16" t="s">
         <v>73</v>
       </c>
       <c r="B38" s="7" t="s">
@@ -8360,7 +8360,7 @@
       <c r="G38" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H38" s="23" t="s">
+      <c r="H38" s="22" t="s">
         <v>249</v>
       </c>
       <c r="I38" s="7" t="s">
@@ -8387,7 +8387,7 @@
       <c r="Z38" s="7"/>
     </row>
     <row r="39" spans="1:26" ht="91.5">
-      <c r="A39" s="17" t="s">
+      <c r="A39" s="16" t="s">
         <v>251</v>
       </c>
       <c r="B39" s="7" t="s">
@@ -8408,7 +8408,7 @@
       <c r="G39" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H39" s="23" t="s">
+      <c r="H39" s="22" t="s">
         <v>256</v>
       </c>
       <c r="I39" s="7" t="s">
@@ -8439,7 +8439,7 @@
       <c r="Z39" s="7"/>
     </row>
     <row r="40" spans="1:26" ht="91.5">
-      <c r="A40" s="17" t="s">
+      <c r="A40" s="16" t="s">
         <v>262</v>
       </c>
       <c r="B40" s="7" t="s">
@@ -8460,7 +8460,7 @@
       <c r="G40" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H40" s="23" t="s">
+      <c r="H40" s="22" t="s">
         <v>265</v>
       </c>
       <c r="I40" s="7" t="s">
@@ -8484,7 +8484,7 @@
       <c r="Z40" s="7"/>
     </row>
     <row r="41" spans="1:26" ht="91.5">
-      <c r="A41" s="17" t="s">
+      <c r="A41" s="16" t="s">
         <v>267</v>
       </c>
       <c r="B41" s="7" t="s">
@@ -8505,7 +8505,7 @@
       <c r="G41" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H41" s="23" t="s">
+      <c r="H41" s="22" t="s">
         <v>270</v>
       </c>
       <c r="I41" s="7" t="s">
@@ -8529,7 +8529,7 @@
       <c r="Z41" s="7"/>
     </row>
     <row r="42" spans="1:26" ht="91.5">
-      <c r="A42" s="17" t="s">
+      <c r="A42" s="16" t="s">
         <v>267</v>
       </c>
       <c r="B42" s="7" t="s">
@@ -8550,7 +8550,7 @@
       <c r="G42" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H42" s="23" t="s">
+      <c r="H42" s="22" t="s">
         <v>273</v>
       </c>
       <c r="I42" s="7" t="s">
@@ -8571,13 +8571,13 @@
       <c r="N42" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="O42" s="21"/>
-      <c r="P42" s="21"/>
+      <c r="O42" s="20"/>
+      <c r="P42" s="20"/>
       <c r="R42" s="5"/>
       <c r="Z42" s="7"/>
     </row>
     <row r="43" spans="1:26" ht="91.5">
-      <c r="A43" s="17" t="s">
+      <c r="A43" s="16" t="s">
         <v>276</v>
       </c>
       <c r="B43" s="7" t="s">
@@ -8598,7 +8598,7 @@
       <c r="G43" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H43" s="23" t="s">
+      <c r="H43" s="22" t="s">
         <v>279</v>
       </c>
       <c r="I43" s="7" t="s">
@@ -8623,7 +8623,7 @@
       <c r="Z43" s="7"/>
     </row>
     <row r="44" spans="1:26" ht="91.5">
-      <c r="A44" s="17" t="s">
+      <c r="A44" s="16" t="s">
         <v>282</v>
       </c>
       <c r="B44" s="7" t="s">
@@ -8644,7 +8644,7 @@
       <c r="G44" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H44" s="23" t="s">
+      <c r="H44" s="22" t="s">
         <v>285</v>
       </c>
       <c r="I44" s="7" t="s">
@@ -8669,7 +8669,7 @@
       <c r="Z44" s="7"/>
     </row>
     <row r="45" spans="1:26" ht="91.5">
-      <c r="A45" s="17" t="s">
+      <c r="A45" s="16" t="s">
         <v>267</v>
       </c>
       <c r="B45" s="7" t="s">
@@ -8690,7 +8690,7 @@
       <c r="G45" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H45" s="27" t="s">
+      <c r="H45" s="26" t="s">
         <v>290</v>
       </c>
       <c r="I45" s="7" t="s">
@@ -8712,7 +8712,7 @@
       <c r="Z45" s="7"/>
     </row>
     <row r="46" spans="1:26" ht="106.5">
-      <c r="A46" s="17" t="s">
+      <c r="A46" s="16" t="s">
         <v>292</v>
       </c>
       <c r="B46" s="6" t="s">
@@ -8733,13 +8733,13 @@
       <c r="G46" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="H46" s="23" t="s">
+      <c r="H46" s="22" t="s">
         <v>297</v>
       </c>
       <c r="I46" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="L46" s="26" t="s">
+      <c r="L46" s="25" t="s">
         <v>299</v>
       </c>
       <c r="N46" s="7" t="s">
@@ -8749,7 +8749,7 @@
       <c r="Z46" s="7"/>
     </row>
     <row r="47" spans="1:26" ht="60.75">
-      <c r="A47" s="17" t="s">
+      <c r="A47" s="16" t="s">
         <v>301</v>
       </c>
       <c r="B47" s="7" t="s">
@@ -8770,7 +8770,7 @@
       <c r="G47" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="H47" s="23" t="s">
+      <c r="H47" s="22" t="s">
         <v>307</v>
       </c>
       <c r="I47" s="7" t="s">
@@ -8798,7 +8798,7 @@
       <c r="Z47" s="7"/>
     </row>
     <row r="48" spans="1:26" ht="91.5">
-      <c r="A48" s="17" t="s">
+      <c r="A48" s="16" t="s">
         <v>315</v>
       </c>
       <c r="B48" s="7" t="s">
@@ -8810,7 +8810,7 @@
       <c r="D48" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="E48" s="29" t="s">
+      <c r="E48" s="28" t="s">
         <v>318</v>
       </c>
       <c r="F48" s="7" t="s">
@@ -8819,7 +8819,7 @@
       <c r="G48" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H48" s="23" t="s">
+      <c r="H48" s="22" t="s">
         <v>320</v>
       </c>
       <c r="I48" s="7" t="s">
@@ -8844,7 +8844,7 @@
       <c r="Z48" s="7"/>
     </row>
     <row r="49" spans="1:26" ht="76.5">
-      <c r="A49" s="17" t="s">
+      <c r="A49" s="16" t="s">
         <v>324</v>
       </c>
       <c r="B49" s="1" t="s">
@@ -8865,7 +8865,7 @@
       <c r="G49" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H49" s="23" t="s">
+      <c r="H49" s="22" t="s">
         <v>329</v>
       </c>
       <c r="I49" s="1" t="s">
@@ -8890,7 +8890,7 @@
       <c r="Z49" s="7"/>
     </row>
     <row r="50" spans="1:26" ht="76.5">
-      <c r="A50" s="17" t="s">
+      <c r="A50" s="16" t="s">
         <v>333</v>
       </c>
       <c r="B50" s="7" t="s">
@@ -8905,16 +8905,16 @@
       <c r="E50" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="F50" s="28" t="s">
+      <c r="F50" s="27" t="s">
         <v>337</v>
       </c>
       <c r="G50" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H50" s="23" t="s">
+      <c r="H50" s="22" t="s">
         <v>338</v>
       </c>
-      <c r="I50" s="28" t="s">
+      <c r="I50" s="27" t="s">
         <v>339</v>
       </c>
       <c r="J50" s="7" t="s">
@@ -8929,14 +8929,14 @@
       <c r="M50" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="N50" s="60" t="s">
+      <c r="N50" s="59" t="s">
         <v>341</v>
       </c>
       <c r="R50" s="5"/>
       <c r="Z50" s="7"/>
     </row>
     <row r="51" spans="1:26" ht="60.75">
-      <c r="A51" s="17" t="s">
+      <c r="A51" s="16" t="s">
         <v>342</v>
       </c>
       <c r="B51" s="7" t="s">
@@ -8957,10 +8957,10 @@
       <c r="G51" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H51" s="23" t="s">
+      <c r="H51" s="22" t="s">
         <v>320</v>
       </c>
-      <c r="I51" s="35" t="s">
+      <c r="I51" s="34" t="s">
         <v>347</v>
       </c>
       <c r="J51" s="7" t="s">
@@ -8982,7 +8982,7 @@
       <c r="Z51" s="7"/>
     </row>
     <row r="52" spans="1:26" ht="45.75">
-      <c r="A52" s="17" t="s">
+      <c r="A52" s="16" t="s">
         <v>350</v>
       </c>
       <c r="B52" s="7" t="s">
@@ -8994,7 +8994,7 @@
       <c r="D52" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="E52" s="29" t="s">
+      <c r="E52" s="28" t="s">
         <v>318</v>
       </c>
       <c r="F52" s="7" t="s">
@@ -9003,7 +9003,7 @@
       <c r="G52" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H52" s="23" t="s">
+      <c r="H52" s="22" t="s">
         <v>329</v>
       </c>
       <c r="I52" s="7" t="s">
@@ -9021,14 +9021,14 @@
       <c r="M52" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="N52" s="59" t="s">
+      <c r="N52" s="58" t="s">
         <v>354</v>
       </c>
       <c r="R52" s="5"/>
       <c r="Z52" s="7"/>
     </row>
     <row r="53" spans="1:26" ht="91.5">
-      <c r="A53" s="17" t="s">
+      <c r="A53" s="16" t="s">
         <v>355</v>
       </c>
       <c r="B53" s="7" t="s">
@@ -9049,7 +9049,7 @@
       <c r="G53" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H53" s="23" t="s">
+      <c r="H53" s="22" t="s">
         <v>319</v>
       </c>
       <c r="I53" s="7" t="s">
@@ -9074,10 +9074,10 @@
       <c r="Z53" s="7"/>
     </row>
     <row r="54" spans="1:26" ht="60.75">
-      <c r="A54" s="32" t="s">
+      <c r="A54" s="31" t="s">
         <v>360</v>
       </c>
-      <c r="B54" s="29" t="s">
+      <c r="B54" s="28" t="s">
         <v>361</v>
       </c>
       <c r="C54" s="7" t="s">
@@ -9095,7 +9095,7 @@
       <c r="G54" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H54" s="23" t="s">
+      <c r="H54" s="22" t="s">
         <v>363</v>
       </c>
       <c r="I54" s="7" t="s">
@@ -9113,14 +9113,14 @@
       <c r="M54" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="N54" s="59" t="s">
+      <c r="N54" s="58" t="s">
         <v>365</v>
       </c>
       <c r="R54" s="5"/>
       <c r="Z54" s="7"/>
     </row>
     <row r="55" spans="1:26" ht="409.6">
-      <c r="A55" s="33" t="s">
+      <c r="A55" s="32" t="s">
         <v>366</v>
       </c>
       <c r="B55" s="7" t="s">
@@ -9138,7 +9138,7 @@
       <c r="G55" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H55" s="23" t="s">
+      <c r="H55" s="22" t="s">
         <v>369</v>
       </c>
       <c r="I55" s="7" t="s">
@@ -9156,7 +9156,7 @@
       <c r="M55" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="N55" s="60" t="s">
+      <c r="N55" s="59" t="s">
         <v>365</v>
       </c>
       <c r="Q55" s="7" t="s">
@@ -9169,7 +9169,7 @@
       <c r="Z55" s="7"/>
     </row>
     <row r="56" spans="1:26" ht="45.75">
-      <c r="A56" s="17" t="s">
+      <c r="A56" s="16" t="s">
         <v>375</v>
       </c>
       <c r="B56" s="7" t="s">
@@ -9181,7 +9181,7 @@
       <c r="D56" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="E56" s="34" t="s">
+      <c r="E56" s="33" t="s">
         <v>378</v>
       </c>
       <c r="F56" s="7" t="s">
@@ -9190,10 +9190,10 @@
       <c r="G56" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H56" s="23" t="s">
+      <c r="H56" s="22" t="s">
         <v>319</v>
       </c>
-      <c r="I56" s="29" t="s">
+      <c r="I56" s="28" t="s">
         <v>379</v>
       </c>
       <c r="J56" s="7" t="s">
@@ -9215,7 +9215,7 @@
       <c r="Z56" s="7"/>
     </row>
     <row r="57" spans="1:26" ht="76.5">
-      <c r="A57" s="17" t="s">
+      <c r="A57" s="16" t="s">
         <v>382</v>
       </c>
       <c r="B57" s="7" t="s">
@@ -9236,7 +9236,7 @@
       <c r="G57" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="H57" s="23" t="s">
+      <c r="H57" s="22" t="s">
         <v>387</v>
       </c>
       <c r="I57" s="7" t="s">
@@ -9261,10 +9261,10 @@
       <c r="Z57" s="7"/>
     </row>
     <row r="58" spans="1:26" ht="106.5">
-      <c r="A58" s="17" t="s">
+      <c r="A58" s="16" t="s">
         <v>391</v>
       </c>
-      <c r="B58" s="30" t="s">
+      <c r="B58" s="29" t="s">
         <v>392</v>
       </c>
       <c r="C58" s="7" t="s">
@@ -9282,7 +9282,7 @@
       <c r="G58" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="H58" s="23" t="s">
+      <c r="H58" s="22" t="s">
         <v>397</v>
       </c>
       <c r="I58" s="7" t="s">
@@ -9310,10 +9310,10 @@
       <c r="Z58" s="7"/>
     </row>
     <row r="59" spans="1:26" ht="121.5">
-      <c r="A59" s="17" t="s">
+      <c r="A59" s="16" t="s">
         <v>403</v>
       </c>
-      <c r="B59" s="31" t="s">
+      <c r="B59" s="30" t="s">
         <v>392</v>
       </c>
       <c r="C59" s="7" t="s">
@@ -9331,7 +9331,7 @@
       <c r="G59" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="H59" s="23" t="s">
+      <c r="H59" s="22" t="s">
         <v>408</v>
       </c>
       <c r="I59" s="7" t="s">
@@ -9353,10 +9353,10 @@
       <c r="Z59" s="7"/>
     </row>
     <row r="60" spans="1:26" ht="152.25">
-      <c r="A60" s="17" t="s">
+      <c r="A60" s="16" t="s">
         <v>413</v>
       </c>
-      <c r="B60" s="31" t="s">
+      <c r="B60" s="30" t="s">
         <v>414</v>
       </c>
       <c r="C60" s="7" t="s">
@@ -9374,7 +9374,7 @@
       <c r="G60" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="H60" s="23" t="s">
+      <c r="H60" s="22" t="s">
         <v>416</v>
       </c>
       <c r="I60" s="7" t="s">
@@ -9399,7 +9399,7 @@
       <c r="Z60" s="7"/>
     </row>
     <row r="61" spans="1:26" ht="137.25">
-      <c r="A61" s="17" t="s">
+      <c r="A61" s="16" t="s">
         <v>421</v>
       </c>
       <c r="B61" s="7" t="s">
@@ -9420,7 +9420,7 @@
       <c r="G61" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H61" s="23" t="s">
+      <c r="H61" s="22" t="s">
         <v>425</v>
       </c>
       <c r="I61" s="7" t="s">
@@ -9435,7 +9435,7 @@
       <c r="L61" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="M61" s="30" t="s">
+      <c r="M61" s="29" t="s">
         <v>428</v>
       </c>
       <c r="N61" s="12" t="s">
@@ -9447,7 +9447,7 @@
       <c r="Q61" s="12" t="s">
         <v>431</v>
       </c>
-      <c r="R61" s="61" t="s">
+      <c r="R61" s="60" t="s">
         <v>432</v>
       </c>
       <c r="X61" s="12" t="s">
@@ -9456,7 +9456,7 @@
       <c r="Z61" s="7"/>
     </row>
     <row r="62" spans="1:26" ht="121.5">
-      <c r="A62" s="17" t="s">
+      <c r="A62" s="16" t="s">
         <v>434</v>
       </c>
       <c r="B62" s="7" t="s">
@@ -9477,7 +9477,7 @@
       <c r="G62" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H62" s="23" t="s">
+      <c r="H62" s="22" t="s">
         <v>438</v>
       </c>
       <c r="I62" s="7" t="s">
@@ -9502,7 +9502,7 @@
       <c r="Z62" s="7"/>
     </row>
     <row r="63" spans="1:26" ht="106.5">
-      <c r="A63" s="17" t="s">
+      <c r="A63" s="16" t="s">
         <v>442</v>
       </c>
       <c r="B63" s="7" t="s">
@@ -9523,7 +9523,7 @@
       <c r="G63" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="H63" s="23" t="s">
+      <c r="H63" s="22" t="s">
         <v>446</v>
       </c>
       <c r="I63" s="7" t="s">
@@ -9554,7 +9554,7 @@
       <c r="Z63" s="7"/>
     </row>
     <row r="64" spans="1:26" ht="76.5">
-      <c r="A64" s="17" t="s">
+      <c r="A64" s="16" t="s">
         <v>453</v>
       </c>
       <c r="B64" s="7" t="s">
@@ -9575,7 +9575,7 @@
       <c r="G64" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H64" s="23" t="s">
+      <c r="H64" s="22" t="s">
         <v>458</v>
       </c>
       <c r="I64" s="7" t="s">
@@ -9600,7 +9600,7 @@
       <c r="Z64" s="7"/>
     </row>
     <row r="65" spans="1:26" ht="106.5">
-      <c r="A65" s="17" t="s">
+      <c r="A65" s="16" t="s">
         <v>462</v>
       </c>
       <c r="B65" s="7" t="s">
@@ -9621,7 +9621,7 @@
       <c r="G65" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H65" s="23" t="s">
+      <c r="H65" s="22" t="s">
         <v>464</v>
       </c>
       <c r="I65" s="7" t="s">
@@ -9649,7 +9649,7 @@
       <c r="Z65" s="7"/>
     </row>
     <row r="66" spans="1:26" ht="76.5">
-      <c r="A66" s="17" t="s">
+      <c r="A66" s="16" t="s">
         <v>469</v>
       </c>
       <c r="B66" s="7" t="s">
@@ -9670,7 +9670,7 @@
       <c r="G66" s="7" t="s">
         <v>473</v>
       </c>
-      <c r="H66" s="23" t="s">
+      <c r="H66" s="22" t="s">
         <v>474</v>
       </c>
       <c r="I66" s="7" t="s">
@@ -9700,7 +9700,7 @@
       <c r="Z66" s="7"/>
     </row>
     <row r="67" spans="1:26" ht="106.5">
-      <c r="A67" s="17" t="s">
+      <c r="A67" s="16" t="s">
         <v>479</v>
       </c>
       <c r="B67" s="7" t="s">
@@ -9721,7 +9721,7 @@
       <c r="G67" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H67" s="23" t="s">
+      <c r="H67" s="22" t="s">
         <v>482</v>
       </c>
       <c r="I67" s="7" t="s">
@@ -9758,7 +9758,7 @@
       <c r="Z67" s="7"/>
     </row>
     <row r="68" spans="1:26" ht="60.75">
-      <c r="A68" s="17" t="s">
+      <c r="A68" s="16" t="s">
         <v>490</v>
       </c>
       <c r="B68" s="7" t="s">
@@ -9779,7 +9779,7 @@
       <c r="G68" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="H68" s="23" t="s">
+      <c r="H68" s="22" t="s">
         <v>495</v>
       </c>
       <c r="I68" s="7" t="s">
@@ -9804,7 +9804,7 @@
       <c r="Z68" s="7"/>
     </row>
     <row r="69" spans="1:26" ht="91.5">
-      <c r="A69" s="17" t="s">
+      <c r="A69" s="16" t="s">
         <v>500</v>
       </c>
       <c r="B69" s="7" t="s">
@@ -9825,7 +9825,7 @@
       <c r="G69" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H69" s="23" t="s">
+      <c r="H69" s="22" t="s">
         <v>505</v>
       </c>
       <c r="I69" s="7" t="s">
@@ -9850,7 +9850,7 @@
       <c r="Z69" s="7"/>
     </row>
     <row r="70" spans="1:26" ht="91.5">
-      <c r="A70" s="17" t="s">
+      <c r="A70" s="16" t="s">
         <v>509</v>
       </c>
       <c r="B70" s="7" t="s">
@@ -9871,7 +9871,7 @@
       <c r="G70" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H70" s="36" t="s">
+      <c r="H70" s="35" t="s">
         <v>512</v>
       </c>
       <c r="I70" s="7" t="s">
@@ -9896,7 +9896,7 @@
       <c r="Z70" s="7"/>
     </row>
     <row r="71" spans="1:26" ht="91.5">
-      <c r="A71" s="17" t="s">
+      <c r="A71" s="16" t="s">
         <v>509</v>
       </c>
       <c r="B71" s="7" t="s">
@@ -9917,7 +9917,7 @@
       <c r="G71" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H71" s="23" t="s">
+      <c r="H71" s="22" t="s">
         <v>166</v>
       </c>
       <c r="I71" s="7" t="s">
@@ -9942,7 +9942,7 @@
       <c r="Z71" s="7"/>
     </row>
     <row r="72" spans="1:26" ht="91.5">
-      <c r="A72" s="17" t="s">
+      <c r="A72" s="16" t="s">
         <v>509</v>
       </c>
       <c r="B72" s="7" t="s">
@@ -9963,7 +9963,7 @@
       <c r="G72" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H72" s="23" t="s">
+      <c r="H72" s="22" t="s">
         <v>166</v>
       </c>
       <c r="I72" s="7" t="s">
@@ -9988,7 +9988,7 @@
       <c r="Z72" s="7"/>
     </row>
     <row r="73" spans="1:26" ht="91.5">
-      <c r="A73" s="17" t="s">
+      <c r="A73" s="16" t="s">
         <v>509</v>
       </c>
       <c r="B73" s="7" t="s">
@@ -10009,7 +10009,7 @@
       <c r="G73" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H73" s="23" t="s">
+      <c r="H73" s="22" t="s">
         <v>166</v>
       </c>
       <c r="I73" s="7" t="s">
@@ -10034,7 +10034,7 @@
       <c r="Z73" s="7"/>
     </row>
     <row r="74" spans="1:26" ht="91.5">
-      <c r="A74" s="17" t="s">
+      <c r="A74" s="16" t="s">
         <v>509</v>
       </c>
       <c r="B74" s="7" t="s">
@@ -10055,7 +10055,7 @@
       <c r="G74" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H74" s="23" t="s">
+      <c r="H74" s="22" t="s">
         <v>166</v>
       </c>
       <c r="I74" s="7" t="s">
@@ -10080,7 +10080,7 @@
       <c r="Z74" s="7"/>
     </row>
     <row r="75" spans="1:26" ht="91.5">
-      <c r="A75" s="17" t="s">
+      <c r="A75" s="16" t="s">
         <v>509</v>
       </c>
       <c r="B75" s="7" t="s">
@@ -10101,7 +10101,7 @@
       <c r="G75" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H75" s="23" t="s">
+      <c r="H75" s="22" t="s">
         <v>166</v>
       </c>
       <c r="I75" s="7" t="s">
@@ -10126,7 +10126,7 @@
       <c r="Z75" s="7"/>
     </row>
     <row r="76" spans="1:26" ht="91.5">
-      <c r="A76" s="17" t="s">
+      <c r="A76" s="16" t="s">
         <v>509</v>
       </c>
       <c r="B76" s="7" t="s">
@@ -10147,7 +10147,7 @@
       <c r="G76" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H76" s="23" t="s">
+      <c r="H76" s="22" t="s">
         <v>166</v>
       </c>
       <c r="I76" s="7" t="s">
@@ -10169,7 +10169,7 @@
       <c r="Z76" s="7"/>
     </row>
     <row r="77" spans="1:26" ht="91.5">
-      <c r="A77" s="17" t="s">
+      <c r="A77" s="16" t="s">
         <v>267</v>
       </c>
       <c r="B77" s="7" t="s">
@@ -10190,7 +10190,7 @@
       <c r="G77" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H77" s="23" t="s">
+      <c r="H77" s="22" t="s">
         <v>166</v>
       </c>
       <c r="I77" s="7" t="s">
@@ -10212,7 +10212,7 @@
       <c r="Z77" s="7"/>
     </row>
     <row r="78" spans="1:26" ht="229.5">
-      <c r="A78" s="17" t="s">
+      <c r="A78" s="16" t="s">
         <v>509</v>
       </c>
       <c r="B78" s="7" t="s">
@@ -10233,7 +10233,7 @@
       <c r="G78" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H78" s="23" t="s">
+      <c r="H78" s="22" t="s">
         <v>166</v>
       </c>
       <c r="I78" s="7" t="s">
@@ -10264,7 +10264,7 @@
       <c r="Z78" s="7"/>
     </row>
     <row r="79" spans="1:26" ht="91.5">
-      <c r="A79" s="17" t="s">
+      <c r="A79" s="16" t="s">
         <v>538</v>
       </c>
       <c r="B79" s="7" t="s">
@@ -10285,7 +10285,7 @@
       <c r="G79" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H79" s="23" t="s">
+      <c r="H79" s="22" t="s">
         <v>542</v>
       </c>
       <c r="I79" s="7" t="s">
@@ -10310,7 +10310,7 @@
       <c r="Z79" s="7"/>
     </row>
     <row r="80" spans="1:26" ht="91.5">
-      <c r="A80" s="17" t="s">
+      <c r="A80" s="16" t="s">
         <v>545</v>
       </c>
       <c r="B80" s="7" t="s">
@@ -10331,7 +10331,7 @@
       <c r="G80" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H80" s="23" t="s">
+      <c r="H80" s="22" t="s">
         <v>549</v>
       </c>
       <c r="I80" s="7" t="s">
@@ -10356,7 +10356,7 @@
       <c r="Z80" s="7"/>
     </row>
     <row r="81" spans="1:26" ht="91.5">
-      <c r="A81" s="17" t="s">
+      <c r="A81" s="16" t="s">
         <v>551</v>
       </c>
       <c r="B81" s="7" t="s">
@@ -10377,7 +10377,7 @@
       <c r="G81" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H81" s="23" t="s">
+      <c r="H81" s="22" t="s">
         <v>166</v>
       </c>
       <c r="I81" s="7" t="s">
@@ -10402,7 +10402,7 @@
       <c r="Z81" s="7"/>
     </row>
     <row r="82" spans="1:26" ht="91.5">
-      <c r="A82" s="17" t="s">
+      <c r="A82" s="16" t="s">
         <v>555</v>
       </c>
       <c r="B82" s="7" t="s">
@@ -10423,7 +10423,7 @@
       <c r="G82" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H82" s="23" t="s">
+      <c r="H82" s="22" t="s">
         <v>166</v>
       </c>
       <c r="I82" s="7" t="s">
@@ -10448,7 +10448,7 @@
       <c r="Z82" s="7"/>
     </row>
     <row r="83" spans="1:26" ht="91.5">
-      <c r="A83" s="17" t="s">
+      <c r="A83" s="16" t="s">
         <v>559</v>
       </c>
       <c r="B83" s="7" t="s">
@@ -10469,7 +10469,7 @@
       <c r="G83" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H83" s="23" t="s">
+      <c r="H83" s="22" t="s">
         <v>166</v>
       </c>
       <c r="I83" s="7" t="s">
@@ -10494,7 +10494,7 @@
       <c r="Z83" s="7"/>
     </row>
     <row r="84" spans="1:26" ht="106.5">
-      <c r="A84" s="17" t="s">
+      <c r="A84" s="16" t="s">
         <v>564</v>
       </c>
       <c r="B84" s="7" t="s">
@@ -10515,7 +10515,7 @@
       <c r="G84" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H84" s="23" t="s">
+      <c r="H84" s="22" t="s">
         <v>569</v>
       </c>
       <c r="I84" s="7" t="s">
@@ -10540,7 +10540,7 @@
       <c r="Z84" s="7"/>
     </row>
     <row r="85" spans="1:26" ht="91.5">
-      <c r="A85" s="17" t="s">
+      <c r="A85" s="16" t="s">
         <v>573</v>
       </c>
       <c r="B85" s="7" t="s">
@@ -10561,7 +10561,7 @@
       <c r="G85" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H85" s="23" t="s">
+      <c r="H85" s="22" t="s">
         <v>505</v>
       </c>
       <c r="I85" s="7" t="s">
@@ -10586,7 +10586,7 @@
       <c r="Z85" s="7"/>
     </row>
     <row r="86" spans="1:26" ht="167.25">
-      <c r="A86" s="17" t="s">
+      <c r="A86" s="16" t="s">
         <v>267</v>
       </c>
       <c r="B86" s="7" t="s">
@@ -10607,7 +10607,7 @@
       <c r="G86" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H86" s="23" t="s">
+      <c r="H86" s="22" t="s">
         <v>581</v>
       </c>
       <c r="I86" s="7" t="s">
@@ -10632,7 +10632,7 @@
       <c r="Z86" s="7"/>
     </row>
     <row r="87" spans="1:26" ht="91.5">
-      <c r="A87" s="17" t="s">
+      <c r="A87" s="16" t="s">
         <v>584</v>
       </c>
       <c r="B87" s="7" t="s">
@@ -10653,7 +10653,7 @@
       <c r="G87" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H87" s="23" t="s">
+      <c r="H87" s="22" t="s">
         <v>587</v>
       </c>
       <c r="I87" s="7" t="s">
@@ -10678,7 +10678,7 @@
       <c r="Z87" s="7"/>
     </row>
     <row r="88" spans="1:26" ht="91.5">
-      <c r="A88" s="17" t="s">
+      <c r="A88" s="16" t="s">
         <v>590</v>
       </c>
       <c r="B88" s="7" t="s">
@@ -10699,7 +10699,7 @@
       <c r="G88" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H88" s="23" t="s">
+      <c r="H88" s="22" t="s">
         <v>587</v>
       </c>
       <c r="I88" s="7" t="s">
@@ -10724,7 +10724,7 @@
       <c r="Z88" s="7"/>
     </row>
     <row r="89" spans="1:26" ht="137.25">
-      <c r="A89" s="17" t="s">
+      <c r="A89" s="16" t="s">
         <v>593</v>
       </c>
       <c r="B89" s="7" t="s">
@@ -10745,7 +10745,7 @@
       <c r="G89" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H89" s="23" t="s">
+      <c r="H89" s="22" t="s">
         <v>587</v>
       </c>
       <c r="I89" s="7" t="s">
@@ -10770,7 +10770,7 @@
       <c r="Z89" s="7"/>
     </row>
     <row r="90" spans="1:26" ht="152.25">
-      <c r="A90" s="17" t="s">
+      <c r="A90" s="16" t="s">
         <v>596</v>
       </c>
       <c r="B90" s="7" t="s">
@@ -10791,7 +10791,7 @@
       <c r="G90" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H90" s="23" t="s">
+      <c r="H90" s="22" t="s">
         <v>598</v>
       </c>
       <c r="I90" s="7" t="s">
@@ -10816,7 +10816,7 @@
       <c r="Z90" s="7"/>
     </row>
     <row r="91" spans="1:26" ht="137.25">
-      <c r="A91" s="17" t="s">
+      <c r="A91" s="16" t="s">
         <v>600</v>
       </c>
       <c r="B91" s="7" t="s">
@@ -10837,7 +10837,7 @@
       <c r="G91" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H91" s="23" t="s">
+      <c r="H91" s="22" t="s">
         <v>270</v>
       </c>
       <c r="I91" s="7" t="s">
@@ -10862,7 +10862,7 @@
       <c r="Z91" s="7"/>
     </row>
     <row r="92" spans="1:26" ht="366">
-      <c r="A92" s="17" t="s">
+      <c r="A92" s="16" t="s">
         <v>605</v>
       </c>
       <c r="B92" s="7" t="s">
@@ -10883,7 +10883,7 @@
       <c r="G92" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H92" s="23" t="s">
+      <c r="H92" s="22" t="s">
         <v>598</v>
       </c>
       <c r="I92" s="7" t="s">
@@ -10908,7 +10908,7 @@
       <c r="Z92" s="7"/>
     </row>
     <row r="93" spans="1:26" ht="183">
-      <c r="A93" s="17" t="s">
+      <c r="A93" s="16" t="s">
         <v>596</v>
       </c>
       <c r="B93" s="7" t="s">
@@ -10929,7 +10929,7 @@
       <c r="G93" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H93" s="23" t="s">
+      <c r="H93" s="22" t="s">
         <v>598</v>
       </c>
       <c r="I93" s="7" t="s">
@@ -10954,7 +10954,7 @@
       <c r="Z93" s="7"/>
     </row>
     <row r="94" spans="1:26" ht="137.25">
-      <c r="A94" s="17" t="s">
+      <c r="A94" s="16" t="s">
         <v>612</v>
       </c>
       <c r="B94" s="7" t="s">
@@ -10975,7 +10975,7 @@
       <c r="G94" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H94" s="23" t="s">
+      <c r="H94" s="22" t="s">
         <v>256</v>
       </c>
       <c r="I94" s="7" t="s">
@@ -11000,7 +11000,7 @@
       <c r="Z94" s="7"/>
     </row>
     <row r="95" spans="1:26" ht="106.5">
-      <c r="A95" s="17" t="s">
+      <c r="A95" s="16" t="s">
         <v>616</v>
       </c>
       <c r="B95" s="7" t="s">
@@ -11021,7 +11021,7 @@
       <c r="G95" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H95" s="23" t="s">
+      <c r="H95" s="22" t="s">
         <v>618</v>
       </c>
       <c r="I95" s="7" t="s">
@@ -11046,7 +11046,7 @@
       <c r="Z95" s="7"/>
     </row>
     <row r="96" spans="1:26" ht="137.25">
-      <c r="A96" s="17" t="s">
+      <c r="A96" s="16" t="s">
         <v>621</v>
       </c>
       <c r="B96" s="7" t="s">
@@ -11067,7 +11067,7 @@
       <c r="G96" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H96" s="23" t="s">
+      <c r="H96" s="22" t="s">
         <v>166</v>
       </c>
       <c r="I96" s="7" t="s">
@@ -11092,7 +11092,7 @@
       <c r="Z96" s="7"/>
     </row>
     <row r="97" spans="1:26" ht="91.5">
-      <c r="A97" s="17" t="s">
+      <c r="A97" s="16" t="s">
         <v>626</v>
       </c>
       <c r="B97" s="7" t="s">
@@ -11113,7 +11113,7 @@
       <c r="G97" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H97" s="23" t="s">
+      <c r="H97" s="22" t="s">
         <v>166</v>
       </c>
       <c r="I97" s="7" t="s">
@@ -11138,7 +11138,7 @@
       <c r="Z97" s="7"/>
     </row>
     <row r="98" spans="1:26" ht="121.5">
-      <c r="A98" s="17" t="s">
+      <c r="A98" s="16" t="s">
         <v>626</v>
       </c>
       <c r="B98" s="7" t="s">
@@ -11159,7 +11159,7 @@
       <c r="G98" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H98" s="23" t="s">
+      <c r="H98" s="22" t="s">
         <v>166</v>
       </c>
       <c r="I98" s="7" t="s">
@@ -11184,7 +11184,7 @@
       <c r="Z98" s="7"/>
     </row>
     <row r="99" spans="1:26" ht="183">
-      <c r="A99" s="17" t="s">
+      <c r="A99" s="16" t="s">
         <v>509</v>
       </c>
       <c r="B99" s="7" t="s">
@@ -11205,7 +11205,7 @@
       <c r="G99" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H99" s="23" t="s">
+      <c r="H99" s="22" t="s">
         <v>631</v>
       </c>
       <c r="I99" s="7" t="s">
@@ -11230,7 +11230,7 @@
       <c r="Z99" s="7"/>
     </row>
     <row r="100" spans="1:26" ht="91.5">
-      <c r="A100" s="17" t="s">
+      <c r="A100" s="16" t="s">
         <v>509</v>
       </c>
       <c r="B100" s="7" t="s">
@@ -11251,7 +11251,7 @@
       <c r="G100" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H100" s="23" t="s">
+      <c r="H100" s="22" t="s">
         <v>166</v>
       </c>
       <c r="I100" s="7" t="s">
@@ -11276,7 +11276,7 @@
       <c r="Z100" s="7"/>
     </row>
     <row r="101" spans="1:26" ht="121.5">
-      <c r="A101" s="17" t="s">
+      <c r="A101" s="16" t="s">
         <v>509</v>
       </c>
       <c r="B101" s="7" t="s">
@@ -11297,7 +11297,7 @@
       <c r="G101" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H101" s="23" t="s">
+      <c r="H101" s="22" t="s">
         <v>637</v>
       </c>
       <c r="I101" s="7" t="s">
@@ -11322,7 +11322,7 @@
       <c r="Z101" s="7"/>
     </row>
     <row r="102" spans="1:26" ht="91.5">
-      <c r="A102" s="17" t="s">
+      <c r="A102" s="16" t="s">
         <v>639</v>
       </c>
       <c r="B102" s="7" t="s">
@@ -11365,7 +11365,7 @@
       <c r="Z102" s="7"/>
     </row>
     <row r="103" spans="1:26" ht="91.5">
-      <c r="A103" s="17" t="s">
+      <c r="A103" s="16" t="s">
         <v>641</v>
       </c>
       <c r="B103" s="7" t="s">
@@ -11408,7 +11408,7 @@
       <c r="Z103" s="7"/>
     </row>
     <row r="104" spans="1:26" ht="91.5">
-      <c r="A104" s="17" t="s">
+      <c r="A104" s="16" t="s">
         <v>643</v>
       </c>
       <c r="B104" s="7" t="s">
@@ -11451,7 +11451,7 @@
       <c r="Z104" s="7"/>
     </row>
     <row r="105" spans="1:26" ht="91.5">
-      <c r="A105" s="17" t="s">
+      <c r="A105" s="16" t="s">
         <v>645</v>
       </c>
       <c r="B105" s="7" t="s">
@@ -11494,7 +11494,7 @@
       <c r="Z105" s="7"/>
     </row>
     <row r="106" spans="1:26" ht="91.5">
-      <c r="A106" s="17" t="s">
+      <c r="A106" s="16" t="s">
         <v>647</v>
       </c>
       <c r="B106" s="7" t="s">
@@ -11537,7 +11537,7 @@
       <c r="Z106" s="7"/>
     </row>
     <row r="107" spans="1:26" ht="91.5">
-      <c r="A107" s="17" t="s">
+      <c r="A107" s="16" t="s">
         <v>649</v>
       </c>
       <c r="B107" s="7" t="s">
@@ -11580,7 +11580,7 @@
       <c r="Z107" s="7"/>
     </row>
     <row r="108" spans="1:26" ht="106.5">
-      <c r="A108" s="17" t="s">
+      <c r="A108" s="16" t="s">
         <v>651</v>
       </c>
       <c r="B108" s="7" t="s">
@@ -11601,7 +11601,7 @@
       <c r="G108" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H108" s="23" t="s">
+      <c r="H108" s="22" t="s">
         <v>45</v>
       </c>
       <c r="I108" s="7" t="s">
@@ -11626,7 +11626,7 @@
       <c r="Z108" s="7"/>
     </row>
     <row r="109" spans="1:26" ht="91.5">
-      <c r="A109" s="17" t="s">
+      <c r="A109" s="16" t="s">
         <v>653</v>
       </c>
       <c r="B109" s="7" t="s">
@@ -11647,7 +11647,7 @@
       <c r="G109" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H109" s="23" t="s">
+      <c r="H109" s="22" t="s">
         <v>45</v>
       </c>
       <c r="I109" s="7" t="s">
@@ -11672,7 +11672,7 @@
       <c r="Z109" s="7"/>
     </row>
     <row r="110" spans="1:26" ht="121.5">
-      <c r="A110" s="17" t="s">
+      <c r="A110" s="16" t="s">
         <v>656</v>
       </c>
       <c r="B110" s="7" t="s">
@@ -11693,7 +11693,7 @@
       <c r="G110" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H110" s="23" t="s">
+      <c r="H110" s="22" t="s">
         <v>659</v>
       </c>
       <c r="I110" s="7" t="s">
@@ -11718,7 +11718,7 @@
       <c r="Z110" s="7"/>
     </row>
     <row r="111" spans="1:26" ht="106.5">
-      <c r="A111" s="17" t="s">
+      <c r="A111" s="16" t="s">
         <v>656</v>
       </c>
       <c r="B111" s="7" t="s">
@@ -11739,7 +11739,7 @@
       <c r="G111" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H111" s="23" t="s">
+      <c r="H111" s="22" t="s">
         <v>662</v>
       </c>
       <c r="I111" s="7" t="s">
@@ -11764,7 +11764,7 @@
       <c r="Z111" s="7"/>
     </row>
     <row r="112" spans="1:26" ht="106.5">
-      <c r="A112" s="17" t="s">
+      <c r="A112" s="16" t="s">
         <v>509</v>
       </c>
       <c r="B112" s="7" t="s">
@@ -11785,7 +11785,7 @@
       <c r="G112" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H112" s="23" t="s">
+      <c r="H112" s="22" t="s">
         <v>166</v>
       </c>
       <c r="I112" s="7" t="s">
@@ -11810,7 +11810,7 @@
       <c r="Z112" s="7"/>
     </row>
     <row r="113" spans="1:26" ht="91.5">
-      <c r="A113" s="17" t="s">
+      <c r="A113" s="16" t="s">
         <v>509</v>
       </c>
       <c r="B113" s="7" t="s">
@@ -11831,7 +11831,7 @@
       <c r="G113" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H113" s="23" t="s">
+      <c r="H113" s="22" t="s">
         <v>166</v>
       </c>
       <c r="I113" s="7" t="s">
@@ -11856,7 +11856,7 @@
       <c r="Z113" s="7"/>
     </row>
     <row r="114" spans="1:26" ht="137.25">
-      <c r="A114" s="17" t="s">
+      <c r="A114" s="16" t="s">
         <v>509</v>
       </c>
       <c r="B114" s="7" t="s">
@@ -11877,7 +11877,7 @@
       <c r="G114" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H114" s="23" t="s">
+      <c r="H114" s="22" t="s">
         <v>166</v>
       </c>
       <c r="I114" s="7" t="s">
@@ -11902,7 +11902,7 @@
       <c r="Z114" s="7"/>
     </row>
     <row r="115" spans="1:26" ht="106.5">
-      <c r="A115" s="17" t="s">
+      <c r="A115" s="16" t="s">
         <v>509</v>
       </c>
       <c r="B115" s="7" t="s">
@@ -11923,7 +11923,7 @@
       <c r="G115" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H115" s="23" t="s">
+      <c r="H115" s="22" t="s">
         <v>166</v>
       </c>
       <c r="I115" s="7" t="s">
@@ -11948,7 +11948,7 @@
       <c r="Z115" s="7"/>
     </row>
     <row r="116" spans="1:26" ht="229.5">
-      <c r="A116" s="17" t="s">
+      <c r="A116" s="16" t="s">
         <v>509</v>
       </c>
       <c r="B116" s="7" t="s">
@@ -11969,7 +11969,7 @@
       <c r="G116" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H116" s="23" t="s">
+      <c r="H116" s="22" t="s">
         <v>166</v>
       </c>
       <c r="I116" s="7" t="s">
@@ -11991,7 +11991,7 @@
       <c r="Z116" s="7"/>
     </row>
     <row r="117" spans="1:26" ht="137.25">
-      <c r="A117" s="17" t="s">
+      <c r="A117" s="16" t="s">
         <v>509</v>
       </c>
       <c r="B117" s="7" t="s">
@@ -12012,7 +12012,7 @@
       <c r="G117" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H117" s="23" t="s">
+      <c r="H117" s="22" t="s">
         <v>166</v>
       </c>
       <c r="I117" s="7" t="s">
@@ -12037,7 +12037,7 @@
       <c r="Z117" s="7"/>
     </row>
     <row r="118" spans="1:26" ht="121.5">
-      <c r="A118" s="17" t="s">
+      <c r="A118" s="16" t="s">
         <v>509</v>
       </c>
       <c r="B118" s="7" t="s">
@@ -12058,7 +12058,7 @@
       <c r="G118" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H118" s="23" t="s">
+      <c r="H118" s="22" t="s">
         <v>166</v>
       </c>
       <c r="I118" s="7" t="s">
@@ -12083,7 +12083,7 @@
       <c r="Z118" s="7"/>
     </row>
     <row r="119" spans="1:26" ht="91.5">
-      <c r="A119" s="17" t="s">
+      <c r="A119" s="16" t="s">
         <v>676</v>
       </c>
       <c r="B119" s="7" t="s">
@@ -12104,7 +12104,7 @@
       <c r="G119" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H119" s="23" t="s">
+      <c r="H119" s="22" t="s">
         <v>166</v>
       </c>
       <c r="I119" s="7" t="s">
@@ -12129,7 +12129,7 @@
       <c r="Z119" s="7"/>
     </row>
     <row r="120" spans="1:26" ht="91.5">
-      <c r="A120" s="17" t="s">
+      <c r="A120" s="16" t="s">
         <v>656</v>
       </c>
       <c r="B120" s="7" t="s">
@@ -12150,7 +12150,7 @@
       <c r="G120" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H120" s="23" t="s">
+      <c r="H120" s="22" t="s">
         <v>681</v>
       </c>
       <c r="I120" s="7" t="s">
@@ -12175,7 +12175,7 @@
       <c r="Z120" s="7"/>
     </row>
     <row r="121" spans="1:26" ht="137.25">
-      <c r="A121" s="17" t="s">
+      <c r="A121" s="16" t="s">
         <v>509</v>
       </c>
       <c r="B121" s="7" t="s">
@@ -12196,7 +12196,7 @@
       <c r="G121" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H121" s="23" t="s">
+      <c r="H121" s="22" t="s">
         <v>166</v>
       </c>
       <c r="I121" s="7" t="s">
@@ -12221,7 +12221,7 @@
       <c r="Z121" s="7"/>
     </row>
     <row r="122" spans="1:26" ht="336">
-      <c r="A122" s="17" t="s">
+      <c r="A122" s="16" t="s">
         <v>267</v>
       </c>
       <c r="B122" s="7" t="s">
@@ -12242,7 +12242,7 @@
       <c r="G122" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H122" s="23" t="s">
+      <c r="H122" s="22" t="s">
         <v>166</v>
       </c>
       <c r="I122" s="7" t="s">
@@ -12267,7 +12267,7 @@
       <c r="Z122" s="7"/>
     </row>
     <row r="123" spans="1:26" ht="396.75">
-      <c r="A123" s="17" t="s">
+      <c r="A123" s="16" t="s">
         <v>687</v>
       </c>
       <c r="B123" s="7" t="s">
@@ -12288,7 +12288,7 @@
       <c r="G123" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H123" s="23" t="s">
+      <c r="H123" s="22" t="s">
         <v>166</v>
       </c>
       <c r="I123" s="7" t="s">
@@ -12313,7 +12313,7 @@
       <c r="Z123" s="7"/>
     </row>
     <row r="124" spans="1:26" ht="167.25">
-      <c r="A124" s="17" t="s">
+      <c r="A124" s="16" t="s">
         <v>267</v>
       </c>
       <c r="B124" s="7" t="s">
@@ -12334,7 +12334,7 @@
       <c r="G124" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H124" s="23" t="s">
+      <c r="H124" s="22" t="s">
         <v>693</v>
       </c>
       <c r="I124" s="7" t="s">
@@ -12359,7 +12359,7 @@
       <c r="Z124" s="7"/>
     </row>
     <row r="125" spans="1:26" ht="106.5">
-      <c r="A125" s="17" t="s">
+      <c r="A125" s="16" t="s">
         <v>695</v>
       </c>
       <c r="B125" s="7" t="s">
@@ -12380,7 +12380,7 @@
       <c r="G125" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H125" s="23" t="s">
+      <c r="H125" s="22" t="s">
         <v>699</v>
       </c>
       <c r="I125" s="7" t="s">
@@ -12411,7 +12411,7 @@
       <c r="Z125" s="7"/>
     </row>
     <row r="126" spans="1:26" ht="106.5">
-      <c r="A126" s="17" t="s">
+      <c r="A126" s="16" t="s">
         <v>509</v>
       </c>
       <c r="B126" s="7" t="s">
@@ -12432,7 +12432,7 @@
       <c r="G126" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H126" s="23" t="s">
+      <c r="H126" s="22" t="s">
         <v>708</v>
       </c>
       <c r="I126" s="7" t="s">
@@ -12457,7 +12457,7 @@
       <c r="Z126" s="7"/>
     </row>
     <row r="127" spans="1:26" ht="91.5">
-      <c r="A127" s="17" t="s">
+      <c r="A127" s="16" t="s">
         <v>711</v>
       </c>
       <c r="B127" s="7" t="s">
@@ -12478,7 +12478,7 @@
       <c r="G127" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H127" s="23" t="s">
+      <c r="H127" s="22" t="s">
         <v>716</v>
       </c>
       <c r="I127" s="7" t="s">
@@ -12503,40 +12503,40 @@
       <c r="Z127" s="7"/>
     </row>
     <row r="128" spans="1:26" ht="91.5">
-      <c r="A128" s="40" t="s">
+      <c r="A128" s="39" t="s">
         <v>719</v>
       </c>
-      <c r="B128" s="38" t="s">
+      <c r="B128" s="37" t="s">
         <v>720</v>
       </c>
-      <c r="C128" s="38" t="s">
+      <c r="C128" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="D128" s="39" t="s">
+      <c r="D128" s="38" t="s">
         <v>344</v>
       </c>
-      <c r="E128" s="56" t="s">
+      <c r="E128" s="55" t="s">
         <v>436</v>
       </c>
-      <c r="F128" s="38" t="s">
+      <c r="F128" s="37" t="s">
         <v>721</v>
       </c>
-      <c r="G128" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="H128" s="38" t="s">
+      <c r="G128" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="H128" s="37" t="s">
         <v>722</v>
       </c>
-      <c r="I128" s="38" t="s">
+      <c r="I128" s="37" t="s">
         <v>723</v>
       </c>
-      <c r="J128" s="38" t="s">
+      <c r="J128" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="K128" s="38" t="s">
+      <c r="K128" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="L128" s="38" t="s">
+      <c r="L128" s="37" t="s">
         <v>724</v>
       </c>
       <c r="M128" s="7" t="s">
@@ -12549,40 +12549,40 @@
       <c r="Z128" s="7"/>
     </row>
     <row r="129" spans="1:26" ht="91.5">
-      <c r="A129" s="40" t="s">
+      <c r="A129" s="39" t="s">
         <v>719</v>
       </c>
-      <c r="B129" s="38" t="s">
+      <c r="B129" s="37" t="s">
         <v>725</v>
       </c>
-      <c r="C129" s="38" t="s">
+      <c r="C129" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="D129" s="38" t="s">
+      <c r="D129" s="37" t="s">
         <v>344</v>
       </c>
-      <c r="E129" s="57" t="s">
+      <c r="E129" s="56" t="s">
         <v>436</v>
       </c>
-      <c r="F129" s="38" t="s">
+      <c r="F129" s="37" t="s">
         <v>534</v>
       </c>
-      <c r="G129" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="H129" s="38" t="s">
+      <c r="G129" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="H129" s="37" t="s">
         <v>726</v>
       </c>
       <c r="I129" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="J129" s="38" t="s">
+      <c r="J129" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="K129" s="38" t="s">
+      <c r="K129" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="L129" s="38" t="s">
+      <c r="L129" s="37" t="s">
         <v>727</v>
       </c>
       <c r="M129" s="7" t="s">
@@ -12595,40 +12595,40 @@
       <c r="Z129" s="7"/>
     </row>
     <row r="130" spans="1:26" ht="91.5">
-      <c r="A130" s="40" t="s">
+      <c r="A130" s="39" t="s">
         <v>719</v>
       </c>
-      <c r="B130" s="38" t="s">
+      <c r="B130" s="37" t="s">
         <v>728</v>
       </c>
-      <c r="C130" s="38" t="s">
+      <c r="C130" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="D130" s="38" t="s">
+      <c r="D130" s="37" t="s">
         <v>344</v>
       </c>
-      <c r="E130" s="56" t="s">
+      <c r="E130" s="55" t="s">
         <v>436</v>
       </c>
-      <c r="F130" s="38" t="s">
+      <c r="F130" s="37" t="s">
         <v>715</v>
       </c>
-      <c r="G130" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="H130" s="38" t="s">
+      <c r="G130" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="H130" s="37" t="s">
         <v>726</v>
       </c>
       <c r="I130" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="J130" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="K130" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="L130" s="38" t="s">
+      <c r="J130" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="K130" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="L130" s="37" t="s">
         <v>729</v>
       </c>
       <c r="M130" s="7" t="s">
@@ -12641,40 +12641,40 @@
       <c r="Z130" s="7"/>
     </row>
     <row r="131" spans="1:26" ht="91.5">
-      <c r="A131" s="40" t="s">
+      <c r="A131" s="39" t="s">
         <v>719</v>
       </c>
-      <c r="B131" s="41" t="s">
+      <c r="B131" s="40" t="s">
         <v>730</v>
       </c>
-      <c r="C131" s="37" t="s">
+      <c r="C131" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D131" s="38" t="s">
+      <c r="D131" s="37" t="s">
         <v>344</v>
       </c>
-      <c r="E131" s="56" t="s">
+      <c r="E131" s="55" t="s">
         <v>436</v>
       </c>
-      <c r="F131" s="38" t="s">
+      <c r="F131" s="37" t="s">
         <v>534</v>
       </c>
-      <c r="G131" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="H131" s="38" t="s">
+      <c r="G131" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="H131" s="37" t="s">
         <v>726</v>
       </c>
       <c r="I131" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="J131" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="K131" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="L131" s="38" t="s">
+      <c r="J131" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="K131" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="L131" s="37" t="s">
         <v>731</v>
       </c>
       <c r="M131" s="7" t="s">
@@ -12687,40 +12687,40 @@
       <c r="Z131" s="7"/>
     </row>
     <row r="132" spans="1:26" ht="152.25">
-      <c r="A132" s="40" t="s">
+      <c r="A132" s="39" t="s">
         <v>719</v>
       </c>
-      <c r="B132" s="38" t="s">
+      <c r="B132" s="37" t="s">
         <v>732</v>
       </c>
-      <c r="C132" s="38" t="s">
+      <c r="C132" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="D132" s="38" t="s">
+      <c r="D132" s="37" t="s">
         <v>344</v>
       </c>
-      <c r="E132" s="56" t="s">
+      <c r="E132" s="55" t="s">
         <v>436</v>
       </c>
-      <c r="F132" s="38" t="s">
+      <c r="F132" s="37" t="s">
         <v>733</v>
       </c>
-      <c r="G132" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="H132" s="38" t="s">
+      <c r="G132" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="H132" s="37" t="s">
         <v>734</v>
       </c>
       <c r="I132" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="J132" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="K132" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="L132" s="38" t="s">
+      <c r="J132" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="K132" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="L132" s="37" t="s">
         <v>735</v>
       </c>
       <c r="M132" s="7" t="s">
@@ -12733,19 +12733,19 @@
       <c r="Z132" s="7"/>
     </row>
     <row r="133" spans="1:26" ht="91.5">
-      <c r="A133" s="17" t="s">
+      <c r="A133" s="16" t="s">
         <v>509</v>
       </c>
       <c r="B133" s="7" t="s">
         <v>736</v>
       </c>
-      <c r="C133" s="38" t="s">
+      <c r="C133" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="D133" s="38" t="s">
+      <c r="D133" s="37" t="s">
         <v>344</v>
       </c>
-      <c r="E133" s="56" t="s">
+      <c r="E133" s="55" t="s">
         <v>436</v>
       </c>
       <c r="F133" s="7" t="s">
@@ -12754,7 +12754,7 @@
       <c r="G133" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H133" s="23" t="s">
+      <c r="H133" s="22" t="s">
         <v>734</v>
       </c>
       <c r="I133" s="7" t="s">
@@ -12779,7 +12779,7 @@
       <c r="Z133" s="7"/>
     </row>
     <row r="134" spans="1:26" ht="106.5">
-      <c r="A134" s="17" t="s">
+      <c r="A134" s="16" t="s">
         <v>509</v>
       </c>
       <c r="B134" s="7" t="s">
@@ -12800,7 +12800,7 @@
       <c r="G134" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H134" s="23" t="s">
+      <c r="H134" s="22" t="s">
         <v>166</v>
       </c>
       <c r="I134" s="7" t="s">
@@ -12825,7 +12825,7 @@
       <c r="Z134" s="7"/>
     </row>
     <row r="135" spans="1:26" ht="290.25">
-      <c r="A135" s="17" t="s">
+      <c r="A135" s="16" t="s">
         <v>509</v>
       </c>
       <c r="B135" s="7" t="s">
@@ -12846,7 +12846,7 @@
       <c r="G135" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H135" s="23" t="s">
+      <c r="H135" s="22" t="s">
         <v>743</v>
       </c>
       <c r="I135" s="7" t="s">
@@ -12871,7 +12871,7 @@
       <c r="Z135" s="7"/>
     </row>
     <row r="136" spans="1:26" ht="91.5">
-      <c r="A136" s="17" t="s">
+      <c r="A136" s="16" t="s">
         <v>746</v>
       </c>
       <c r="B136" s="7" t="s">
@@ -12892,7 +12892,7 @@
       <c r="G136" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H136" s="23" t="s">
+      <c r="H136" s="22" t="s">
         <v>749</v>
       </c>
       <c r="I136" s="7" t="s">
@@ -12917,7 +12917,7 @@
       <c r="Z136" s="7"/>
     </row>
     <row r="137" spans="1:26" ht="91.5">
-      <c r="A137" s="17" t="s">
+      <c r="A137" s="16" t="s">
         <v>751</v>
       </c>
       <c r="B137" s="7" t="s">
@@ -12963,7 +12963,7 @@
       <c r="Z137" s="7"/>
     </row>
     <row r="138" spans="1:26" ht="91.5">
-      <c r="A138" s="17" t="s">
+      <c r="A138" s="16" t="s">
         <v>756</v>
       </c>
       <c r="B138" s="7" t="s">
@@ -12984,7 +12984,7 @@
       <c r="G138" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H138" s="23" t="s">
+      <c r="H138" s="22" t="s">
         <v>759</v>
       </c>
       <c r="I138" s="7" t="s">
@@ -13009,7 +13009,7 @@
       <c r="Z138" s="7"/>
     </row>
     <row r="139" spans="1:26" ht="91.5">
-      <c r="A139" s="17" t="s">
+      <c r="A139" s="16" t="s">
         <v>762</v>
       </c>
       <c r="B139" s="7" t="s">
@@ -13030,7 +13030,7 @@
       <c r="G139" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H139" s="43">
+      <c r="H139" s="42">
         <v>44713</v>
       </c>
       <c r="I139" s="7" t="s">
@@ -13055,7 +13055,7 @@
       <c r="Z139" s="7"/>
     </row>
     <row r="140" spans="1:26" ht="91.5">
-      <c r="A140" s="17" t="s">
+      <c r="A140" s="16" t="s">
         <v>767</v>
       </c>
       <c r="B140" s="7" t="s">
@@ -13101,7 +13101,7 @@
       <c r="Z140" s="7"/>
     </row>
     <row r="141" spans="1:26" ht="121.5">
-      <c r="A141" s="17" t="s">
+      <c r="A141" s="16" t="s">
         <v>509</v>
       </c>
       <c r="B141" s="7" t="s">
@@ -13122,7 +13122,7 @@
       <c r="G141" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H141" s="42">
+      <c r="H141" s="41">
         <v>44370</v>
       </c>
       <c r="I141" s="7" t="s">
@@ -13147,7 +13147,7 @@
       <c r="Z141" s="7"/>
     </row>
     <row r="142" spans="1:26" ht="121.5">
-      <c r="A142" s="17" t="s">
+      <c r="A142" s="16" t="s">
         <v>509</v>
       </c>
       <c r="B142" s="7" t="s">
@@ -13168,7 +13168,7 @@
       <c r="G142" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H142" s="42">
+      <c r="H142" s="41">
         <v>44740</v>
       </c>
       <c r="I142" s="7" t="s">
@@ -13193,7 +13193,7 @@
       <c r="Z142" s="7"/>
     </row>
     <row r="143" spans="1:26" ht="91.5">
-      <c r="A143" s="17" t="s">
+      <c r="A143" s="16" t="s">
         <v>776</v>
       </c>
       <c r="B143" s="7" t="s">
@@ -13214,7 +13214,7 @@
       <c r="G143" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H143" s="23" t="s">
+      <c r="H143" s="22" t="s">
         <v>780</v>
       </c>
       <c r="I143" s="1" t="s">
@@ -13239,7 +13239,7 @@
       <c r="Z143" s="7"/>
     </row>
     <row r="144" spans="1:26" ht="91.5">
-      <c r="A144" s="17" t="s">
+      <c r="A144" s="16" t="s">
         <v>267</v>
       </c>
       <c r="B144" s="7" t="s">
@@ -13260,7 +13260,7 @@
       <c r="G144" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H144" s="23" t="s">
+      <c r="H144" s="22" t="s">
         <v>785</v>
       </c>
       <c r="I144" s="7" t="s">
@@ -13285,7 +13285,7 @@
       <c r="Z144" s="7"/>
     </row>
     <row r="145" spans="1:26" ht="91.5">
-      <c r="A145" s="17" t="s">
+      <c r="A145" s="16" t="s">
         <v>788</v>
       </c>
       <c r="B145" s="7" t="s">
@@ -13306,7 +13306,7 @@
       <c r="G145" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H145" s="23" t="s">
+      <c r="H145" s="22" t="s">
         <v>790</v>
       </c>
       <c r="I145" s="7" t="s">
@@ -13331,7 +13331,7 @@
       <c r="Z145" s="7"/>
     </row>
     <row r="146" spans="1:26" ht="91.5">
-      <c r="A146" s="17" t="s">
+      <c r="A146" s="16" t="s">
         <v>793</v>
       </c>
       <c r="B146" s="7" t="s">
@@ -13352,7 +13352,7 @@
       <c r="G146" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H146" s="23" t="s">
+      <c r="H146" s="22" t="s">
         <v>795</v>
       </c>
       <c r="I146" s="7" t="s">
@@ -13377,7 +13377,7 @@
       <c r="Z146" s="7"/>
     </row>
     <row r="147" spans="1:26" ht="91.5">
-      <c r="A147" s="17" t="s">
+      <c r="A147" s="16" t="s">
         <v>797</v>
       </c>
       <c r="B147" s="7" t="s">
@@ -13398,7 +13398,7 @@
       <c r="G147" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H147" s="23" t="s">
+      <c r="H147" s="22" t="s">
         <v>799</v>
       </c>
       <c r="I147" s="7" t="s">
@@ -13423,7 +13423,7 @@
       <c r="Z147" s="7"/>
     </row>
     <row r="148" spans="1:26" ht="91.5">
-      <c r="A148" s="17" t="s">
+      <c r="A148" s="16" t="s">
         <v>802</v>
       </c>
       <c r="B148" s="7" t="s">
@@ -13444,7 +13444,7 @@
       <c r="G148" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H148" s="23" t="s">
+      <c r="H148" s="22" t="s">
         <v>166</v>
       </c>
       <c r="I148" s="7" t="s">
@@ -13469,7 +13469,7 @@
       <c r="Z148" s="7"/>
     </row>
     <row r="149" spans="1:26" ht="91.5">
-      <c r="A149" s="17" t="s">
+      <c r="A149" s="16" t="s">
         <v>807</v>
       </c>
       <c r="B149" s="7" t="s">
@@ -13490,7 +13490,7 @@
       <c r="G149" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H149" s="23" t="s">
+      <c r="H149" s="22" t="s">
         <v>166</v>
       </c>
       <c r="I149" s="7" t="s">
@@ -13515,7 +13515,7 @@
       <c r="Z149" s="7"/>
     </row>
     <row r="150" spans="1:26" ht="91.5">
-      <c r="A150" s="17" t="s">
+      <c r="A150" s="16" t="s">
         <v>811</v>
       </c>
       <c r="B150" s="7" t="s">
@@ -13536,7 +13536,7 @@
       <c r="G150" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H150" s="23" t="s">
+      <c r="H150" s="22" t="s">
         <v>166</v>
       </c>
       <c r="I150" s="7" t="s">
@@ -13561,7 +13561,7 @@
       <c r="Z150" s="7"/>
     </row>
     <row r="151" spans="1:26" ht="121.5">
-      <c r="A151" s="17" t="s">
+      <c r="A151" s="16" t="s">
         <v>815</v>
       </c>
       <c r="B151" s="7" t="s">
@@ -13582,7 +13582,7 @@
       <c r="G151" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H151" s="23" t="s">
+      <c r="H151" s="22" t="s">
         <v>166</v>
       </c>
       <c r="I151" s="7" t="s">
@@ -13607,7 +13607,7 @@
       <c r="Z151" s="7"/>
     </row>
     <row r="152" spans="1:26" ht="91.5">
-      <c r="A152" s="17" t="s">
+      <c r="A152" s="16" t="s">
         <v>818</v>
       </c>
       <c r="B152" s="7" t="s">
@@ -13628,7 +13628,7 @@
       <c r="G152" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H152" s="23" t="s">
+      <c r="H152" s="22" t="s">
         <v>166</v>
       </c>
       <c r="I152" s="7" t="s">
@@ -13653,7 +13653,7 @@
       <c r="Z152" s="7"/>
     </row>
     <row r="153" spans="1:26" ht="121.5">
-      <c r="A153" s="17" t="s">
+      <c r="A153" s="16" t="s">
         <v>509</v>
       </c>
       <c r="B153" s="7" t="s">
@@ -13674,7 +13674,7 @@
       <c r="G153" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H153" s="23" t="s">
+      <c r="H153" s="22" t="s">
         <v>166</v>
       </c>
       <c r="I153" s="7" t="s">
@@ -13699,7 +13699,7 @@
       <c r="Z153" s="7"/>
     </row>
     <row r="154" spans="1:26" ht="91.5">
-      <c r="A154" s="17" t="s">
+      <c r="A154" s="16" t="s">
         <v>509</v>
       </c>
       <c r="B154" s="7" t="s">
@@ -13720,7 +13720,7 @@
       <c r="G154" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H154" s="23" t="s">
+      <c r="H154" s="22" t="s">
         <v>166</v>
       </c>
       <c r="I154" s="7" t="s">
@@ -13745,7 +13745,7 @@
       <c r="Z154" s="7"/>
     </row>
     <row r="155" spans="1:26" ht="91.5">
-      <c r="A155" s="17" t="s">
+      <c r="A155" s="16" t="s">
         <v>509</v>
       </c>
       <c r="B155" s="7" t="s">
@@ -13766,7 +13766,7 @@
       <c r="G155" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H155" s="23" t="s">
+      <c r="H155" s="22" t="s">
         <v>166</v>
       </c>
       <c r="I155" s="7" t="s">
@@ -13791,7 +13791,7 @@
       <c r="Z155" s="7"/>
     </row>
     <row r="156" spans="1:26" ht="91.5">
-      <c r="A156" s="17" t="s">
+      <c r="A156" s="16" t="s">
         <v>509</v>
       </c>
       <c r="B156" s="7" t="s">
@@ -13812,7 +13812,7 @@
       <c r="G156" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H156" s="23" t="s">
+      <c r="H156" s="22" t="s">
         <v>166</v>
       </c>
       <c r="I156" s="7" t="s">
@@ -13837,7 +13837,7 @@
       <c r="Z156" s="7"/>
     </row>
     <row r="157" spans="1:26" ht="91.5">
-      <c r="A157" s="17" t="s">
+      <c r="A157" s="16" t="s">
         <v>509</v>
       </c>
       <c r="B157" s="7" t="s">
@@ -13858,7 +13858,7 @@
       <c r="G157" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H157" s="23" t="s">
+      <c r="H157" s="22" t="s">
         <v>166</v>
       </c>
       <c r="I157" s="7" t="s">
@@ -13883,7 +13883,7 @@
       <c r="Z157" s="7"/>
     </row>
     <row r="158" spans="1:26" ht="91.5">
-      <c r="A158" s="17" t="s">
+      <c r="A158" s="16" t="s">
         <v>509</v>
       </c>
       <c r="B158" s="7" t="s">
@@ -13904,7 +13904,7 @@
       <c r="G158" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H158" s="23" t="s">
+      <c r="H158" s="22" t="s">
         <v>166</v>
       </c>
       <c r="I158" s="7" t="s">
@@ -13929,7 +13929,7 @@
       <c r="Z158" s="7"/>
     </row>
     <row r="159" spans="1:26" ht="91.5">
-      <c r="A159" s="17" t="s">
+      <c r="A159" s="16" t="s">
         <v>509</v>
       </c>
       <c r="B159" s="7" t="s">
@@ -13947,7 +13947,7 @@
       <c r="G159" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H159" s="23" t="s">
+      <c r="H159" s="22" t="s">
         <v>166</v>
       </c>
       <c r="I159" s="7" t="s">
@@ -13972,7 +13972,7 @@
       <c r="Z159" s="7"/>
     </row>
     <row r="160" spans="1:26" ht="91.5">
-      <c r="A160" s="59" t="s">
+      <c r="A160" s="58" t="s">
         <v>839</v>
       </c>
       <c r="B160" s="7" t="s">
@@ -13993,10 +13993,10 @@
       <c r="G160" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H160" s="23" t="s">
+      <c r="H160" s="22" t="s">
         <v>842</v>
       </c>
-      <c r="I160" s="62" t="s">
+      <c r="I160" s="61" t="s">
         <v>843</v>
       </c>
       <c r="J160" s="7" t="s">
@@ -14018,7 +14018,7 @@
       <c r="Z160" s="7"/>
     </row>
     <row r="161" spans="1:26" ht="91.5">
-      <c r="A161" s="17" t="s">
+      <c r="A161" s="16" t="s">
         <v>509</v>
       </c>
       <c r="B161" s="7" t="s">
@@ -14039,10 +14039,10 @@
       <c r="G161" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H161" s="23" t="s">
+      <c r="H161" s="22" t="s">
         <v>846</v>
       </c>
-      <c r="I161" s="63" t="s">
+      <c r="I161" s="62" t="s">
         <v>847</v>
       </c>
       <c r="J161" s="7" t="s">
@@ -14061,7 +14061,7 @@
       <c r="Z161" s="7"/>
     </row>
     <row r="162" spans="1:26" ht="91.5">
-      <c r="A162" s="17" t="s">
+      <c r="A162" s="16" t="s">
         <v>509</v>
       </c>
       <c r="B162" s="7" t="s">
@@ -14082,7 +14082,7 @@
       <c r="G162" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H162" s="23" t="s">
+      <c r="H162" s="22" t="s">
         <v>842</v>
       </c>
       <c r="I162" s="7" t="s">
@@ -14104,7 +14104,7 @@
       <c r="Z162" s="7"/>
     </row>
     <row r="163" spans="1:26" ht="106.5">
-      <c r="A163" s="17" t="s">
+      <c r="A163" s="16" t="s">
         <v>851</v>
       </c>
       <c r="B163" s="7" t="s">
@@ -14125,7 +14125,7 @@
       <c r="G163" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H163" s="23" t="s">
+      <c r="H163" s="22" t="s">
         <v>855</v>
       </c>
       <c r="I163" s="7" t="s">
@@ -14155,7 +14155,7 @@
       <c r="Z163" s="7"/>
     </row>
     <row r="164" spans="1:26" ht="167.25">
-      <c r="A164" s="17" t="s">
+      <c r="A164" s="16" t="s">
         <v>860</v>
       </c>
       <c r="B164" s="7" t="s">
@@ -14176,7 +14176,7 @@
       <c r="G164" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H164" s="23" t="s">
+      <c r="H164" s="22" t="s">
         <v>864</v>
       </c>
       <c r="I164" s="7" t="s">
@@ -14201,7 +14201,7 @@
       <c r="Z164" s="7"/>
     </row>
     <row r="165" spans="1:26" ht="91.5">
-      <c r="A165" s="17" t="s">
+      <c r="A165" s="16" t="s">
         <v>869</v>
       </c>
       <c r="B165" s="7" t="s">
@@ -14241,7 +14241,7 @@
       <c r="Z165" s="7"/>
     </row>
     <row r="166" spans="1:26" ht="213">
-      <c r="A166" s="17" t="s">
+      <c r="A166" s="16" t="s">
         <v>874</v>
       </c>
       <c r="B166" s="7" t="s">
@@ -14281,7 +14281,7 @@
       <c r="Z166" s="7"/>
     </row>
     <row r="167" spans="1:26" ht="409.6">
-      <c r="A167" s="17" t="s">
+      <c r="A167" s="16" t="s">
         <v>878</v>
       </c>
       <c r="B167" s="7" t="s">
@@ -14332,7 +14332,7 @@
       <c r="Z167" s="7"/>
     </row>
     <row r="168" spans="1:26" ht="244.5">
-      <c r="A168" s="20" t="s">
+      <c r="A168" s="19" t="s">
         <v>884</v>
       </c>
       <c r="B168" s="7" t="s">
@@ -14353,7 +14353,7 @@
       <c r="G168" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H168" s="23" t="s">
+      <c r="H168" s="22" t="s">
         <v>57</v>
       </c>
       <c r="I168" s="7" t="s">
@@ -14384,7 +14384,7 @@
       <c r="Z168" s="7"/>
     </row>
     <row r="169" spans="1:26" ht="91.5">
-      <c r="A169" s="46" t="s">
+      <c r="A169" s="45" t="s">
         <v>893</v>
       </c>
       <c r="B169" s="7" t="s">
@@ -14405,7 +14405,7 @@
       <c r="G169" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H169" s="23" t="s">
+      <c r="H169" s="22" t="s">
         <v>57</v>
       </c>
       <c r="I169" s="7" t="s">
@@ -14430,7 +14430,7 @@
       <c r="Z169" s="7"/>
     </row>
     <row r="170" spans="1:26" ht="91.5">
-      <c r="A170" s="46" t="s">
+      <c r="A170" s="45" t="s">
         <v>898</v>
       </c>
       <c r="B170" s="7" t="s">
@@ -14451,10 +14451,10 @@
       <c r="G170" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H170" s="23" t="s">
+      <c r="H170" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="I170" s="45" t="s">
+      <c r="I170" s="44" t="s">
         <v>901</v>
       </c>
       <c r="J170" s="7" t="s">
@@ -14476,7 +14476,7 @@
       <c r="Z170" s="7"/>
     </row>
     <row r="171" spans="1:26" ht="91.5">
-      <c r="A171" s="46" t="s">
+      <c r="A171" s="45" t="s">
         <v>903</v>
       </c>
       <c r="B171" s="7" t="s">
@@ -14497,7 +14497,7 @@
       <c r="G171" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H171" s="23" t="s">
+      <c r="H171" s="22" t="s">
         <v>905</v>
       </c>
       <c r="I171" s="7" t="s">
@@ -14522,7 +14522,7 @@
       <c r="Z171" s="7"/>
     </row>
     <row r="172" spans="1:26" ht="91.5">
-      <c r="A172" s="46" t="s">
+      <c r="A172" s="45" t="s">
         <v>908</v>
       </c>
       <c r="B172" s="7" t="s">
@@ -14543,7 +14543,7 @@
       <c r="G172" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H172" s="23" t="s">
+      <c r="H172" s="22" t="s">
         <v>910</v>
       </c>
       <c r="I172" s="7" t="s">
@@ -14568,7 +14568,7 @@
       <c r="Z172" s="7"/>
     </row>
     <row r="173" spans="1:26" ht="91.5">
-      <c r="A173" s="46" t="s">
+      <c r="A173" s="45" t="s">
         <v>912</v>
       </c>
       <c r="B173" s="7" t="s">
@@ -14589,7 +14589,7 @@
       <c r="G173" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H173" s="23" t="s">
+      <c r="H173" s="22" t="s">
         <v>914</v>
       </c>
       <c r="I173" s="7" t="s">
@@ -14614,7 +14614,7 @@
       <c r="Z173" s="7"/>
     </row>
     <row r="174" spans="1:26" ht="91.5">
-      <c r="A174" s="20" t="s">
+      <c r="A174" s="19" t="s">
         <v>917</v>
       </c>
       <c r="B174" s="7" t="s">
@@ -14635,7 +14635,7 @@
       <c r="G174" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H174" s="23" t="s">
+      <c r="H174" s="22" t="s">
         <v>922</v>
       </c>
       <c r="I174" s="7" t="s">
@@ -14660,7 +14660,7 @@
       <c r="Z174" s="7"/>
     </row>
     <row r="175" spans="1:26" ht="91.5">
-      <c r="A175" s="20" t="s">
+      <c r="A175" s="19" t="s">
         <v>917</v>
       </c>
       <c r="B175" s="7" t="s">
@@ -14681,7 +14681,7 @@
       <c r="G175" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H175" s="23" t="s">
+      <c r="H175" s="22" t="s">
         <v>927</v>
       </c>
       <c r="I175" s="7" t="s">
@@ -14706,7 +14706,7 @@
       <c r="Z175" s="7"/>
     </row>
     <row r="176" spans="1:26" ht="91.5">
-      <c r="A176" s="20" t="s">
+      <c r="A176" s="19" t="s">
         <v>929</v>
       </c>
       <c r="B176" s="7" t="s">
@@ -14727,7 +14727,7 @@
       <c r="G176" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H176" s="23" t="s">
+      <c r="H176" s="22" t="s">
         <v>57</v>
       </c>
       <c r="I176" s="7" t="s">
@@ -14752,7 +14752,7 @@
       <c r="Z176" s="7"/>
     </row>
     <row r="177" spans="1:26" ht="91.5">
-      <c r="A177" s="20" t="s">
+      <c r="A177" s="19" t="s">
         <v>929</v>
       </c>
       <c r="B177" s="7" t="s">
@@ -14773,7 +14773,7 @@
       <c r="G177" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H177" s="23" t="s">
+      <c r="H177" s="22" t="s">
         <v>934</v>
       </c>
       <c r="I177" s="7" t="s">
@@ -14798,7 +14798,7 @@
       <c r="Z177" s="7"/>
     </row>
     <row r="178" spans="1:26" ht="91.5">
-      <c r="A178" s="20" t="s">
+      <c r="A178" s="19" t="s">
         <v>937</v>
       </c>
       <c r="B178" s="7" t="s">
@@ -14819,7 +14819,7 @@
       <c r="G178" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H178" s="23" t="s">
+      <c r="H178" s="22" t="s">
         <v>940</v>
       </c>
       <c r="I178" s="7" t="s">
@@ -14844,7 +14844,7 @@
       <c r="Z178" s="7"/>
     </row>
     <row r="179" spans="1:26" ht="91.5">
-      <c r="A179" s="20" t="s">
+      <c r="A179" s="19" t="s">
         <v>943</v>
       </c>
       <c r="B179" s="7" t="s">
@@ -14865,7 +14865,7 @@
       <c r="G179" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H179" s="23" t="s">
+      <c r="H179" s="22" t="s">
         <v>946</v>
       </c>
       <c r="I179" s="7" t="s">
@@ -14890,7 +14890,7 @@
       <c r="Z179" s="7"/>
     </row>
     <row r="180" spans="1:26" ht="259.5">
-      <c r="A180" s="17" t="s">
+      <c r="A180" s="16" t="s">
         <v>948</v>
       </c>
       <c r="B180" s="7" t="s">
@@ -14911,7 +14911,7 @@
       <c r="G180" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H180" s="23" t="s">
+      <c r="H180" s="22" t="s">
         <v>952</v>
       </c>
       <c r="I180" s="7" t="s">
@@ -14933,7 +14933,7 @@
       <c r="Z180" s="7"/>
     </row>
     <row r="181" spans="1:26" ht="244.5">
-      <c r="A181" s="17" t="s">
+      <c r="A181" s="16" t="s">
         <v>955</v>
       </c>
       <c r="B181" s="7" t="s">
@@ -14954,7 +14954,7 @@
       <c r="G181" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H181" s="23" t="s">
+      <c r="H181" s="22" t="s">
         <v>959</v>
       </c>
       <c r="I181" s="7" t="s">
@@ -14972,14 +14972,14 @@
       <c r="M181" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="N181" s="61" t="s">
+      <c r="N181" s="60" t="s">
         <v>962</v>
       </c>
       <c r="R181" s="5"/>
       <c r="Z181" s="7"/>
     </row>
     <row r="182" spans="1:26" ht="60.75">
-      <c r="A182" s="17" t="s">
+      <c r="A182" s="16" t="s">
         <v>509</v>
       </c>
       <c r="B182" s="7" t="s">
@@ -15000,7 +15000,7 @@
       <c r="G182" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H182" s="23" t="s">
+      <c r="H182" s="22" t="s">
         <v>965</v>
       </c>
       <c r="I182" s="7" t="s">
@@ -15018,14 +15018,14 @@
       <c r="M182" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="N182" s="61" t="s">
+      <c r="N182" s="60" t="s">
         <v>967</v>
       </c>
       <c r="R182" s="5"/>
       <c r="Z182" s="7"/>
     </row>
     <row r="183" spans="1:26" ht="60.75">
-      <c r="A183" s="17" t="s">
+      <c r="A183" s="16" t="s">
         <v>509</v>
       </c>
       <c r="B183" s="7" t="s">
@@ -15046,7 +15046,7 @@
       <c r="G183" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H183" s="23" t="s">
+      <c r="H183" s="22" t="s">
         <v>965</v>
       </c>
       <c r="I183" s="7" t="s">
@@ -15064,14 +15064,14 @@
       <c r="M183" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="N183" s="61" t="s">
+      <c r="N183" s="60" t="s">
         <v>967</v>
       </c>
       <c r="R183" s="5"/>
       <c r="Z183" s="7"/>
     </row>
     <row r="184" spans="1:26" ht="30.75">
-      <c r="A184" s="17" t="s">
+      <c r="A184" s="16" t="s">
         <v>509</v>
       </c>
       <c r="B184" s="7" t="s">
@@ -15092,7 +15092,7 @@
       <c r="G184" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H184" s="23" t="s">
+      <c r="H184" s="22" t="s">
         <v>965</v>
       </c>
       <c r="I184" s="7" t="s">
@@ -15110,14 +15110,14 @@
       <c r="M184" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="N184" s="61" t="s">
+      <c r="N184" s="60" t="s">
         <v>967</v>
       </c>
       <c r="R184" s="5"/>
       <c r="Z184" s="7"/>
     </row>
     <row r="185" spans="1:26" ht="121.5">
-      <c r="A185" s="17" t="s">
+      <c r="A185" s="16" t="s">
         <v>509</v>
       </c>
       <c r="B185" s="7" t="s">
@@ -15138,7 +15138,7 @@
       <c r="G185" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H185" s="23" t="s">
+      <c r="H185" s="22" t="s">
         <v>965</v>
       </c>
       <c r="I185" s="7" t="s">
@@ -15156,14 +15156,14 @@
       <c r="M185" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="N185" s="61" t="s">
+      <c r="N185" s="60" t="s">
         <v>967</v>
       </c>
       <c r="R185" s="5"/>
       <c r="Z185" s="7"/>
     </row>
     <row r="186" spans="1:26" ht="121.5">
-      <c r="A186" s="17" t="s">
+      <c r="A186" s="16" t="s">
         <v>509</v>
       </c>
       <c r="B186" s="7" t="s">
@@ -15184,7 +15184,7 @@
       <c r="G186" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H186" s="23" t="s">
+      <c r="H186" s="22" t="s">
         <v>965</v>
       </c>
       <c r="I186" s="7" t="s">
@@ -15202,14 +15202,14 @@
       <c r="M186" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="N186" s="61" t="s">
+      <c r="N186" s="60" t="s">
         <v>967</v>
       </c>
       <c r="R186" s="5"/>
       <c r="Z186" s="7"/>
     </row>
     <row r="187" spans="1:26" ht="244.5">
-      <c r="A187" s="17" t="s">
+      <c r="A187" s="16" t="s">
         <v>509</v>
       </c>
       <c r="B187" s="7" t="s">
@@ -15230,7 +15230,7 @@
       <c r="G187" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H187" s="23" t="s">
+      <c r="H187" s="22" t="s">
         <v>980</v>
       </c>
       <c r="I187" s="7" t="s">
@@ -15255,7 +15255,7 @@
       <c r="Z187" s="7"/>
     </row>
     <row r="188" spans="1:26" ht="152.25">
-      <c r="A188" s="17" t="s">
+      <c r="A188" s="16" t="s">
         <v>509</v>
       </c>
       <c r="B188" s="7" t="s">
@@ -15270,13 +15270,13 @@
       <c r="E188" s="7" t="s">
         <v>978</v>
       </c>
-      <c r="F188" s="47" t="s">
+      <c r="F188" s="46" t="s">
         <v>147</v>
       </c>
       <c r="G188" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H188" s="23" t="s">
+      <c r="H188" s="22" t="s">
         <v>985</v>
       </c>
       <c r="I188" s="7" t="s">
@@ -15288,14 +15288,14 @@
       <c r="N188" s="7" t="s">
         <v>983</v>
       </c>
-      <c r="O188" s="61" t="s">
+      <c r="O188" s="60" t="s">
         <v>151</v>
       </c>
       <c r="R188" s="5"/>
       <c r="Z188" s="7"/>
     </row>
     <row r="189" spans="1:26" ht="91.5">
-      <c r="A189" s="17" t="s">
+      <c r="A189" s="16" t="s">
         <v>509</v>
       </c>
       <c r="B189" s="7" t="s">
@@ -15316,7 +15316,7 @@
       <c r="G189" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H189" s="48" t="s">
+      <c r="H189" s="47" t="s">
         <v>992</v>
       </c>
       <c r="I189" s="7" t="s">
@@ -15328,7 +15328,7 @@
       <c r="K189" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="L189" s="44" t="s">
+      <c r="L189" s="43" t="s">
         <v>988</v>
       </c>
       <c r="M189" s="7" t="s">
@@ -15337,21 +15337,21 @@
       <c r="N189" s="7" t="s">
         <v>994</v>
       </c>
-      <c r="O189" s="17"/>
-      <c r="P189" s="17"/>
-      <c r="Q189" s="17"/>
-      <c r="R189" s="17"/>
-      <c r="S189" s="17"/>
-      <c r="T189" s="17"/>
-      <c r="U189" s="17"/>
-      <c r="V189" s="17"/>
-      <c r="W189" s="17"/>
-      <c r="X189" s="17"/>
-      <c r="Y189" s="17"/>
+      <c r="O189" s="16"/>
+      <c r="P189" s="16"/>
+      <c r="Q189" s="16"/>
+      <c r="R189" s="16"/>
+      <c r="S189" s="16"/>
+      <c r="T189" s="16"/>
+      <c r="U189" s="16"/>
+      <c r="V189" s="16"/>
+      <c r="W189" s="16"/>
+      <c r="X189" s="16"/>
+      <c r="Y189" s="16"/>
       <c r="Z189" s="7"/>
     </row>
     <row r="190" spans="1:26" ht="91.5">
-      <c r="A190" s="17" t="s">
+      <c r="A190" s="16" t="s">
         <v>509</v>
       </c>
       <c r="B190" s="7" t="s">
@@ -15372,7 +15372,7 @@
       <c r="G190" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H190" s="43" t="s">
+      <c r="H190" s="42" t="s">
         <v>995</v>
       </c>
       <c r="I190" s="7" t="s">
@@ -15384,7 +15384,7 @@
       <c r="K190" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="L190" s="44" t="s">
+      <c r="L190" s="43" t="s">
         <v>988</v>
       </c>
       <c r="M190" s="7" t="s">
@@ -15393,21 +15393,21 @@
       <c r="N190" s="7" t="s">
         <v>994</v>
       </c>
-      <c r="O190" s="17"/>
-      <c r="P190" s="17"/>
-      <c r="Q190" s="17"/>
-      <c r="R190" s="17"/>
-      <c r="S190" s="17"/>
-      <c r="T190" s="17"/>
-      <c r="U190" s="17"/>
-      <c r="V190" s="17"/>
-      <c r="W190" s="17"/>
-      <c r="X190" s="17"/>
-      <c r="Y190" s="17"/>
+      <c r="O190" s="16"/>
+      <c r="P190" s="16"/>
+      <c r="Q190" s="16"/>
+      <c r="R190" s="16"/>
+      <c r="S190" s="16"/>
+      <c r="T190" s="16"/>
+      <c r="U190" s="16"/>
+      <c r="V190" s="16"/>
+      <c r="W190" s="16"/>
+      <c r="X190" s="16"/>
+      <c r="Y190" s="16"/>
       <c r="Z190" s="7"/>
     </row>
     <row r="191" spans="1:26" ht="91.5">
-      <c r="A191" s="17" t="s">
+      <c r="A191" s="16" t="s">
         <v>509</v>
       </c>
       <c r="B191" s="7" t="s">
@@ -15428,7 +15428,7 @@
       <c r="G191" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H191" s="43" t="s">
+      <c r="H191" s="42" t="s">
         <v>998</v>
       </c>
       <c r="I191" s="7" t="s">
@@ -15449,21 +15449,21 @@
       <c r="N191" s="7" t="s">
         <v>994</v>
       </c>
-      <c r="O191" s="17"/>
-      <c r="P191" s="17"/>
-      <c r="Q191" s="17"/>
-      <c r="R191" s="17"/>
-      <c r="S191" s="17"/>
-      <c r="T191" s="17"/>
-      <c r="U191" s="17"/>
-      <c r="V191" s="17"/>
-      <c r="W191" s="17"/>
-      <c r="X191" s="17"/>
-      <c r="Y191" s="17"/>
+      <c r="O191" s="16"/>
+      <c r="P191" s="16"/>
+      <c r="Q191" s="16"/>
+      <c r="R191" s="16"/>
+      <c r="S191" s="16"/>
+      <c r="T191" s="16"/>
+      <c r="U191" s="16"/>
+      <c r="V191" s="16"/>
+      <c r="W191" s="16"/>
+      <c r="X191" s="16"/>
+      <c r="Y191" s="16"/>
       <c r="Z191" s="7"/>
     </row>
     <row r="192" spans="1:26" ht="91.5">
-      <c r="A192" s="17" t="s">
+      <c r="A192" s="16" t="s">
         <v>509</v>
       </c>
       <c r="B192" s="7" t="s">
@@ -15484,7 +15484,7 @@
       <c r="G192" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H192" s="43" t="s">
+      <c r="H192" s="42" t="s">
         <v>1001</v>
       </c>
       <c r="I192" s="7" t="s">
@@ -15505,21 +15505,21 @@
       <c r="N192" s="7" t="s">
         <v>994</v>
       </c>
-      <c r="O192" s="17"/>
-      <c r="P192" s="17"/>
-      <c r="Q192" s="17"/>
-      <c r="R192" s="17"/>
-      <c r="S192" s="17"/>
-      <c r="T192" s="17"/>
-      <c r="U192" s="17"/>
-      <c r="V192" s="17"/>
-      <c r="W192" s="17"/>
-      <c r="X192" s="17"/>
-      <c r="Y192" s="17"/>
+      <c r="O192" s="16"/>
+      <c r="P192" s="16"/>
+      <c r="Q192" s="16"/>
+      <c r="R192" s="16"/>
+      <c r="S192" s="16"/>
+      <c r="T192" s="16"/>
+      <c r="U192" s="16"/>
+      <c r="V192" s="16"/>
+      <c r="W192" s="16"/>
+      <c r="X192" s="16"/>
+      <c r="Y192" s="16"/>
       <c r="Z192" s="7"/>
     </row>
     <row r="193" spans="1:26" ht="91.5">
-      <c r="A193" s="17" t="s">
+      <c r="A193" s="16" t="s">
         <v>509</v>
       </c>
       <c r="B193" s="7" t="s">
@@ -15540,7 +15540,7 @@
       <c r="G193" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H193" s="43" t="s">
+      <c r="H193" s="42" t="s">
         <v>1004</v>
       </c>
       <c r="I193" s="7" t="s">
@@ -15552,7 +15552,7 @@
       <c r="K193" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="L193" s="44" t="s">
+      <c r="L193" s="43" t="s">
         <v>988</v>
       </c>
       <c r="M193" s="7" t="s">
@@ -15561,21 +15561,21 @@
       <c r="N193" s="7" t="s">
         <v>994</v>
       </c>
-      <c r="O193" s="17"/>
-      <c r="P193" s="17"/>
-      <c r="Q193" s="17"/>
-      <c r="R193" s="17"/>
-      <c r="S193" s="17"/>
-      <c r="T193" s="17"/>
-      <c r="U193" s="17"/>
-      <c r="V193" s="17"/>
-      <c r="W193" s="17"/>
-      <c r="X193" s="17"/>
-      <c r="Y193" s="17"/>
+      <c r="O193" s="16"/>
+      <c r="P193" s="16"/>
+      <c r="Q193" s="16"/>
+      <c r="R193" s="16"/>
+      <c r="S193" s="16"/>
+      <c r="T193" s="16"/>
+      <c r="U193" s="16"/>
+      <c r="V193" s="16"/>
+      <c r="W193" s="16"/>
+      <c r="X193" s="16"/>
+      <c r="Y193" s="16"/>
       <c r="Z193" s="7"/>
     </row>
     <row r="194" spans="1:26" ht="91.5">
-      <c r="A194" s="17" t="s">
+      <c r="A194" s="16" t="s">
         <v>509</v>
       </c>
       <c r="B194" s="7" t="s">
@@ -15608,7 +15608,7 @@
       <c r="K194" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="L194" s="44" t="s">
+      <c r="L194" s="43" t="s">
         <v>1010</v>
       </c>
       <c r="M194" s="7" t="s">
@@ -15617,21 +15617,21 @@
       <c r="N194" s="7" t="s">
         <v>994</v>
       </c>
-      <c r="O194" s="17"/>
-      <c r="P194" s="17"/>
-      <c r="Q194" s="17"/>
-      <c r="R194" s="17"/>
-      <c r="S194" s="17"/>
-      <c r="T194" s="17"/>
-      <c r="U194" s="17"/>
-      <c r="V194" s="17"/>
-      <c r="W194" s="17"/>
-      <c r="X194" s="17"/>
-      <c r="Y194" s="17"/>
+      <c r="O194" s="16"/>
+      <c r="P194" s="16"/>
+      <c r="Q194" s="16"/>
+      <c r="R194" s="16"/>
+      <c r="S194" s="16"/>
+      <c r="T194" s="16"/>
+      <c r="U194" s="16"/>
+      <c r="V194" s="16"/>
+      <c r="W194" s="16"/>
+      <c r="X194" s="16"/>
+      <c r="Y194" s="16"/>
       <c r="Z194" s="7"/>
     </row>
     <row r="195" spans="1:26" ht="91.5">
-      <c r="A195" s="17" t="s">
+      <c r="A195" s="16" t="s">
         <v>509</v>
       </c>
       <c r="B195" s="7" t="s">
@@ -15652,7 +15652,7 @@
       <c r="G195" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H195" s="49" t="s">
+      <c r="H195" s="48" t="s">
         <v>1011</v>
       </c>
       <c r="I195" s="7" t="s">
@@ -15664,7 +15664,7 @@
       <c r="K195" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="L195" s="44" t="s">
+      <c r="L195" s="43" t="s">
         <v>988</v>
       </c>
       <c r="M195" s="7" t="s">
@@ -15673,21 +15673,21 @@
       <c r="N195" s="7" t="s">
         <v>994</v>
       </c>
-      <c r="O195" s="17"/>
-      <c r="P195" s="17"/>
-      <c r="Q195" s="17"/>
-      <c r="R195" s="17"/>
-      <c r="S195" s="17"/>
-      <c r="T195" s="17"/>
-      <c r="U195" s="17"/>
-      <c r="V195" s="17"/>
-      <c r="W195" s="17"/>
-      <c r="X195" s="17"/>
-      <c r="Y195" s="17"/>
+      <c r="O195" s="16"/>
+      <c r="P195" s="16"/>
+      <c r="Q195" s="16"/>
+      <c r="R195" s="16"/>
+      <c r="S195" s="16"/>
+      <c r="T195" s="16"/>
+      <c r="U195" s="16"/>
+      <c r="V195" s="16"/>
+      <c r="W195" s="16"/>
+      <c r="X195" s="16"/>
+      <c r="Y195" s="16"/>
       <c r="Z195" s="7"/>
     </row>
     <row r="196" spans="1:26" ht="91.5">
-      <c r="A196" s="17" t="s">
+      <c r="A196" s="16" t="s">
         <v>509</v>
       </c>
       <c r="B196" s="7" t="s">
@@ -15696,7 +15696,7 @@
       <c r="C196" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D196" s="44" t="s">
+      <c r="D196" s="43" t="s">
         <v>1014</v>
       </c>
       <c r="E196" s="7" t="s">
@@ -15708,7 +15708,7 @@
       <c r="G196" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H196" s="48" t="s">
+      <c r="H196" s="47" t="s">
         <v>1017</v>
       </c>
       <c r="I196" s="7" t="s">
@@ -15720,7 +15720,7 @@
       <c r="K196" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="L196" s="44" t="s">
+      <c r="L196" s="43" t="s">
         <v>1019</v>
       </c>
       <c r="M196" s="7" t="s">
@@ -15729,21 +15729,21 @@
       <c r="N196" s="7" t="s">
         <v>994</v>
       </c>
-      <c r="O196" s="17"/>
-      <c r="P196" s="17"/>
-      <c r="Q196" s="17"/>
-      <c r="R196" s="17"/>
-      <c r="S196" s="17"/>
-      <c r="T196" s="17"/>
-      <c r="U196" s="17"/>
-      <c r="V196" s="17"/>
-      <c r="W196" s="17"/>
-      <c r="X196" s="17"/>
-      <c r="Y196" s="17"/>
+      <c r="O196" s="16"/>
+      <c r="P196" s="16"/>
+      <c r="Q196" s="16"/>
+      <c r="R196" s="16"/>
+      <c r="S196" s="16"/>
+      <c r="T196" s="16"/>
+      <c r="U196" s="16"/>
+      <c r="V196" s="16"/>
+      <c r="W196" s="16"/>
+      <c r="X196" s="16"/>
+      <c r="Y196" s="16"/>
       <c r="Z196" s="7"/>
     </row>
     <row r="197" spans="1:26" ht="91.5">
-      <c r="A197" s="17" t="s">
+      <c r="A197" s="16" t="s">
         <v>1020</v>
       </c>
       <c r="B197" s="7" t="s">
@@ -15752,7 +15752,7 @@
       <c r="C197" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D197" s="44" t="s">
+      <c r="D197" s="43" t="s">
         <v>1014</v>
       </c>
       <c r="E197" s="7" t="s">
@@ -15764,7 +15764,7 @@
       <c r="G197" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H197" s="48" t="s">
+      <c r="H197" s="47" t="s">
         <v>1023</v>
       </c>
       <c r="I197" s="7" t="s">
@@ -15776,7 +15776,7 @@
       <c r="K197" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="L197" s="44" t="s">
+      <c r="L197" s="43" t="s">
         <v>1025</v>
       </c>
       <c r="M197" s="7" t="s">
@@ -15785,21 +15785,21 @@
       <c r="N197" s="7" t="s">
         <v>994</v>
       </c>
-      <c r="O197" s="17"/>
-      <c r="P197" s="17"/>
-      <c r="Q197" s="17"/>
-      <c r="R197" s="17"/>
-      <c r="S197" s="17"/>
-      <c r="T197" s="17"/>
-      <c r="U197" s="17"/>
-      <c r="V197" s="17"/>
-      <c r="W197" s="17"/>
-      <c r="X197" s="17"/>
-      <c r="Y197" s="17"/>
+      <c r="O197" s="16"/>
+      <c r="P197" s="16"/>
+      <c r="Q197" s="16"/>
+      <c r="R197" s="16"/>
+      <c r="S197" s="16"/>
+      <c r="T197" s="16"/>
+      <c r="U197" s="16"/>
+      <c r="V197" s="16"/>
+      <c r="W197" s="16"/>
+      <c r="X197" s="16"/>
+      <c r="Y197" s="16"/>
       <c r="Z197" s="7"/>
     </row>
     <row r="198" spans="1:26" ht="290.25">
-      <c r="A198" s="17" t="s">
+      <c r="A198" s="16" t="s">
         <v>509</v>
       </c>
       <c r="B198" s="7" t="s">
@@ -15820,7 +15820,7 @@
       <c r="G198" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H198" s="48" t="s">
+      <c r="H198" s="47" t="s">
         <v>1029</v>
       </c>
       <c r="I198" s="7" t="s">
@@ -15832,7 +15832,7 @@
       <c r="K198" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="L198" s="44" t="s">
+      <c r="L198" s="43" t="s">
         <v>1031</v>
       </c>
       <c r="M198" s="7" t="s">
@@ -15841,21 +15841,21 @@
       <c r="N198" s="7" t="s">
         <v>994</v>
       </c>
-      <c r="O198" s="17"/>
-      <c r="P198" s="17"/>
-      <c r="Q198" s="17"/>
-      <c r="R198" s="17"/>
-      <c r="S198" s="17"/>
-      <c r="T198" s="17"/>
-      <c r="U198" s="17"/>
-      <c r="V198" s="17"/>
-      <c r="W198" s="17"/>
-      <c r="X198" s="17"/>
-      <c r="Y198" s="17"/>
+      <c r="O198" s="16"/>
+      <c r="P198" s="16"/>
+      <c r="Q198" s="16"/>
+      <c r="R198" s="16"/>
+      <c r="S198" s="16"/>
+      <c r="T198" s="16"/>
+      <c r="U198" s="16"/>
+      <c r="V198" s="16"/>
+      <c r="W198" s="16"/>
+      <c r="X198" s="16"/>
+      <c r="Y198" s="16"/>
       <c r="Z198" s="7"/>
     </row>
     <row r="199" spans="1:26" ht="137.25">
-      <c r="A199" s="17" t="s">
+      <c r="A199" s="16" t="s">
         <v>509</v>
       </c>
       <c r="B199" s="7" t="s">
@@ -15876,7 +15876,7 @@
       <c r="G199" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H199" s="48" t="s">
+      <c r="H199" s="47" t="s">
         <v>1034</v>
       </c>
       <c r="I199" s="7" t="s">
@@ -15897,21 +15897,21 @@
       <c r="N199" s="7" t="s">
         <v>994</v>
       </c>
-      <c r="O199" s="17"/>
-      <c r="P199" s="17"/>
-      <c r="Q199" s="17"/>
-      <c r="R199" s="17"/>
-      <c r="S199" s="17"/>
-      <c r="T199" s="17"/>
-      <c r="U199" s="17"/>
-      <c r="V199" s="17"/>
-      <c r="W199" s="17"/>
-      <c r="X199" s="17"/>
-      <c r="Y199" s="17"/>
+      <c r="O199" s="16"/>
+      <c r="P199" s="16"/>
+      <c r="Q199" s="16"/>
+      <c r="R199" s="16"/>
+      <c r="S199" s="16"/>
+      <c r="T199" s="16"/>
+      <c r="U199" s="16"/>
+      <c r="V199" s="16"/>
+      <c r="W199" s="16"/>
+      <c r="X199" s="16"/>
+      <c r="Y199" s="16"/>
       <c r="Z199" s="7"/>
     </row>
     <row r="200" spans="1:26" ht="91.5">
-      <c r="A200" s="17" t="s">
+      <c r="A200" s="16" t="s">
         <v>509</v>
       </c>
       <c r="B200" s="7" t="s">
@@ -15932,7 +15932,7 @@
       <c r="G200" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H200" s="48" t="s">
+      <c r="H200" s="47" t="s">
         <v>1034</v>
       </c>
       <c r="I200" s="7" t="s">
@@ -15953,21 +15953,21 @@
       <c r="N200" s="7" t="s">
         <v>994</v>
       </c>
-      <c r="O200" s="17"/>
-      <c r="P200" s="17"/>
-      <c r="Q200" s="17"/>
-      <c r="R200" s="17"/>
-      <c r="S200" s="17"/>
-      <c r="T200" s="17"/>
-      <c r="U200" s="17"/>
-      <c r="V200" s="17"/>
-      <c r="W200" s="17"/>
-      <c r="X200" s="17"/>
-      <c r="Y200" s="17"/>
+      <c r="O200" s="16"/>
+      <c r="P200" s="16"/>
+      <c r="Q200" s="16"/>
+      <c r="R200" s="16"/>
+      <c r="S200" s="16"/>
+      <c r="T200" s="16"/>
+      <c r="U200" s="16"/>
+      <c r="V200" s="16"/>
+      <c r="W200" s="16"/>
+      <c r="X200" s="16"/>
+      <c r="Y200" s="16"/>
       <c r="Z200" s="7"/>
     </row>
     <row r="201" spans="1:26" ht="91.5">
-      <c r="A201" s="17" t="s">
+      <c r="A201" s="16" t="s">
         <v>509</v>
       </c>
       <c r="B201" s="7" t="s">
@@ -16009,21 +16009,21 @@
       <c r="N201" s="7" t="s">
         <v>925</v>
       </c>
-      <c r="O201" s="17"/>
-      <c r="P201" s="17"/>
-      <c r="Q201" s="17"/>
-      <c r="R201" s="17"/>
-      <c r="S201" s="17"/>
-      <c r="T201" s="17"/>
-      <c r="U201" s="17"/>
-      <c r="V201" s="17"/>
-      <c r="W201" s="17"/>
-      <c r="X201" s="17"/>
-      <c r="Y201" s="17"/>
+      <c r="O201" s="16"/>
+      <c r="P201" s="16"/>
+      <c r="Q201" s="16"/>
+      <c r="R201" s="16"/>
+      <c r="S201" s="16"/>
+      <c r="T201" s="16"/>
+      <c r="U201" s="16"/>
+      <c r="V201" s="16"/>
+      <c r="W201" s="16"/>
+      <c r="X201" s="16"/>
+      <c r="Y201" s="16"/>
       <c r="Z201" s="7"/>
     </row>
     <row r="202" spans="1:26" ht="91.5">
-      <c r="A202" s="17" t="s">
+      <c r="A202" s="16" t="s">
         <v>509</v>
       </c>
       <c r="B202" s="7" t="s">
@@ -16065,21 +16065,21 @@
       <c r="N202" s="7" t="s">
         <v>925</v>
       </c>
-      <c r="O202" s="17"/>
-      <c r="P202" s="17"/>
-      <c r="Q202" s="17"/>
-      <c r="R202" s="17"/>
-      <c r="S202" s="17"/>
-      <c r="T202" s="17"/>
-      <c r="U202" s="17"/>
-      <c r="V202" s="17"/>
-      <c r="W202" s="17"/>
-      <c r="X202" s="17"/>
-      <c r="Y202" s="17"/>
+      <c r="O202" s="16"/>
+      <c r="P202" s="16"/>
+      <c r="Q202" s="16"/>
+      <c r="R202" s="16"/>
+      <c r="S202" s="16"/>
+      <c r="T202" s="16"/>
+      <c r="U202" s="16"/>
+      <c r="V202" s="16"/>
+      <c r="W202" s="16"/>
+      <c r="X202" s="16"/>
+      <c r="Y202" s="16"/>
       <c r="Z202" s="7"/>
     </row>
     <row r="203" spans="1:26" ht="91.5">
-      <c r="A203" s="17" t="s">
+      <c r="A203" s="16" t="s">
         <v>509</v>
       </c>
       <c r="B203" s="7" t="s">
@@ -16100,7 +16100,7 @@
       <c r="G203" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H203" s="23" t="s">
+      <c r="H203" s="22" t="s">
         <v>57</v>
       </c>
       <c r="I203" s="7" t="s">
@@ -16121,21 +16121,21 @@
       <c r="N203" s="7" t="s">
         <v>925</v>
       </c>
-      <c r="O203" s="17"/>
-      <c r="P203" s="17"/>
-      <c r="Q203" s="17"/>
-      <c r="R203" s="17"/>
-      <c r="S203" s="17"/>
-      <c r="T203" s="17"/>
-      <c r="U203" s="17"/>
-      <c r="V203" s="17"/>
-      <c r="W203" s="17"/>
-      <c r="X203" s="17"/>
-      <c r="Y203" s="17"/>
+      <c r="O203" s="16"/>
+      <c r="P203" s="16"/>
+      <c r="Q203" s="16"/>
+      <c r="R203" s="16"/>
+      <c r="S203" s="16"/>
+      <c r="T203" s="16"/>
+      <c r="U203" s="16"/>
+      <c r="V203" s="16"/>
+      <c r="W203" s="16"/>
+      <c r="X203" s="16"/>
+      <c r="Y203" s="16"/>
       <c r="Z203" s="7"/>
     </row>
     <row r="204" spans="1:26" ht="91.5">
-      <c r="A204" s="17" t="s">
+      <c r="A204" s="16" t="s">
         <v>509</v>
       </c>
       <c r="B204" s="7" t="s">
@@ -16156,7 +16156,7 @@
       <c r="G204" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H204" s="23" t="s">
+      <c r="H204" s="22" t="s">
         <v>57</v>
       </c>
       <c r="I204" s="7" t="s">
@@ -16177,21 +16177,21 @@
       <c r="N204" s="7" t="s">
         <v>925</v>
       </c>
-      <c r="O204" s="17"/>
-      <c r="P204" s="17"/>
-      <c r="Q204" s="17"/>
-      <c r="R204" s="17"/>
-      <c r="S204" s="17"/>
-      <c r="T204" s="17"/>
-      <c r="U204" s="17"/>
-      <c r="V204" s="17"/>
-      <c r="W204" s="17"/>
-      <c r="X204" s="17"/>
-      <c r="Y204" s="17"/>
+      <c r="O204" s="16"/>
+      <c r="P204" s="16"/>
+      <c r="Q204" s="16"/>
+      <c r="R204" s="16"/>
+      <c r="S204" s="16"/>
+      <c r="T204" s="16"/>
+      <c r="U204" s="16"/>
+      <c r="V204" s="16"/>
+      <c r="W204" s="16"/>
+      <c r="X204" s="16"/>
+      <c r="Y204" s="16"/>
       <c r="Z204" s="7"/>
     </row>
     <row r="205" spans="1:26" ht="91.5">
-      <c r="A205" s="17" t="s">
+      <c r="A205" s="16" t="s">
         <v>509</v>
       </c>
       <c r="B205" s="7" t="s">
@@ -16212,7 +16212,7 @@
       <c r="G205" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H205" s="23" t="s">
+      <c r="H205" s="22" t="s">
         <v>57</v>
       </c>
       <c r="I205" s="7" t="s">
@@ -16233,21 +16233,21 @@
       <c r="N205" s="7" t="s">
         <v>925</v>
       </c>
-      <c r="O205" s="17"/>
-      <c r="P205" s="17"/>
-      <c r="Q205" s="17"/>
-      <c r="R205" s="17"/>
-      <c r="S205" s="17"/>
-      <c r="T205" s="17"/>
-      <c r="U205" s="17"/>
-      <c r="V205" s="17"/>
-      <c r="W205" s="17"/>
-      <c r="X205" s="17"/>
-      <c r="Y205" s="17"/>
+      <c r="O205" s="16"/>
+      <c r="P205" s="16"/>
+      <c r="Q205" s="16"/>
+      <c r="R205" s="16"/>
+      <c r="S205" s="16"/>
+      <c r="T205" s="16"/>
+      <c r="U205" s="16"/>
+      <c r="V205" s="16"/>
+      <c r="W205" s="16"/>
+      <c r="X205" s="16"/>
+      <c r="Y205" s="16"/>
       <c r="Z205" s="7"/>
     </row>
     <row r="206" spans="1:26" ht="91.5">
-      <c r="A206" s="17" t="s">
+      <c r="A206" s="16" t="s">
         <v>509</v>
       </c>
       <c r="B206" s="7" t="s">
@@ -16268,7 +16268,7 @@
       <c r="G206" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H206" s="23" t="s">
+      <c r="H206" s="22" t="s">
         <v>57</v>
       </c>
       <c r="I206" s="7" t="s">
@@ -16289,24 +16289,24 @@
       <c r="N206" s="7" t="s">
         <v>925</v>
       </c>
-      <c r="O206" s="17"/>
-      <c r="P206" s="17"/>
-      <c r="Q206" s="17"/>
-      <c r="R206" s="17"/>
-      <c r="S206" s="17"/>
-      <c r="T206" s="17"/>
-      <c r="U206" s="17"/>
-      <c r="V206" s="17"/>
-      <c r="W206" s="17"/>
-      <c r="X206" s="17"/>
-      <c r="Y206" s="17"/>
+      <c r="O206" s="16"/>
+      <c r="P206" s="16"/>
+      <c r="Q206" s="16"/>
+      <c r="R206" s="16"/>
+      <c r="S206" s="16"/>
+      <c r="T206" s="16"/>
+      <c r="U206" s="16"/>
+      <c r="V206" s="16"/>
+      <c r="W206" s="16"/>
+      <c r="X206" s="16"/>
+      <c r="Y206" s="16"/>
       <c r="Z206" s="7"/>
     </row>
     <row r="207" spans="1:26" ht="91.5">
-      <c r="A207" s="17" t="s">
+      <c r="A207" s="16" t="s">
         <v>1058</v>
       </c>
-      <c r="B207" s="44" t="s">
+      <c r="B207" s="43" t="s">
         <v>988</v>
       </c>
       <c r="C207" s="7" t="s">
@@ -16350,10 +16350,10 @@
       <c r="Z207" s="7"/>
     </row>
     <row r="208" spans="1:26" ht="91.5">
-      <c r="A208" s="17" t="s">
+      <c r="A208" s="16" t="s">
         <v>1058</v>
       </c>
-      <c r="B208" s="44" t="s">
+      <c r="B208" s="43" t="s">
         <v>988</v>
       </c>
       <c r="C208" s="7" t="s">
@@ -16397,10 +16397,10 @@
       <c r="Z208" s="7"/>
     </row>
     <row r="209" spans="1:26" ht="91.5">
-      <c r="A209" s="17" t="s">
+      <c r="A209" s="16" t="s">
         <v>1058</v>
       </c>
-      <c r="B209" s="44" t="s">
+      <c r="B209" s="43" t="s">
         <v>1066</v>
       </c>
       <c r="C209" s="7" t="s">
@@ -16421,7 +16421,7 @@
       <c r="H209" s="7" t="s">
         <v>1068</v>
       </c>
-      <c r="I209" s="50" t="s">
+      <c r="I209" s="49" t="s">
         <v>1069</v>
       </c>
       <c r="J209" s="7" t="s">
@@ -16444,7 +16444,7 @@
       <c r="Z209" s="7"/>
     </row>
     <row r="210" spans="1:26" ht="91.5">
-      <c r="A210" s="17" t="s">
+      <c r="A210" s="16" t="s">
         <v>1058</v>
       </c>
       <c r="B210" s="7" t="s">
@@ -16468,7 +16468,7 @@
       <c r="H210" s="7" t="s">
         <v>1064</v>
       </c>
-      <c r="I210" s="50" t="s">
+      <c r="I210" s="49" t="s">
         <v>1073</v>
       </c>
       <c r="J210" s="7" t="s">
@@ -16491,7 +16491,7 @@
       <c r="Z210" s="7"/>
     </row>
     <row r="211" spans="1:26" ht="91.5">
-      <c r="A211" s="17" t="s">
+      <c r="A211" s="16" t="s">
         <v>1058</v>
       </c>
       <c r="B211" s="7" t="s">
@@ -16538,7 +16538,7 @@
       <c r="Z211" s="7"/>
     </row>
     <row r="212" spans="1:26" ht="91.5">
-      <c r="A212" s="17" t="s">
+      <c r="A212" s="16" t="s">
         <v>1058</v>
       </c>
       <c r="B212" s="7" t="s">
@@ -16585,7 +16585,7 @@
       <c r="Z212" s="7"/>
     </row>
     <row r="213" spans="1:26" ht="106.5">
-      <c r="A213" s="17" t="s">
+      <c r="A213" s="16" t="s">
         <v>1082</v>
       </c>
       <c r="B213" s="7" t="s">
@@ -16632,7 +16632,7 @@
       <c r="Z213" s="7"/>
     </row>
     <row r="214" spans="1:26" ht="91.5">
-      <c r="A214" s="17" t="s">
+      <c r="A214" s="16" t="s">
         <v>1090</v>
       </c>
       <c r="B214" s="7" t="s">
@@ -16679,7 +16679,7 @@
       <c r="Z214" s="7"/>
     </row>
     <row r="215" spans="1:26" ht="121.5">
-      <c r="A215" s="17" t="s">
+      <c r="A215" s="16" t="s">
         <v>1097</v>
       </c>
       <c r="B215" s="7" t="s">
@@ -16721,13 +16721,13 @@
       <c r="N215" s="7" t="s">
         <v>1065</v>
       </c>
-      <c r="Q215" s="51"/>
+      <c r="Q215" s="50"/>
       <c r="V215" s="7"/>
       <c r="Y215" s="7"/>
       <c r="Z215" s="7"/>
     </row>
     <row r="216" spans="1:26" ht="152.25">
-      <c r="A216" s="17" t="s">
+      <c r="A216" s="16" t="s">
         <v>1103</v>
       </c>
       <c r="B216" s="7" t="s">
@@ -16769,13 +16769,13 @@
       <c r="N216" s="7" t="s">
         <v>1065</v>
       </c>
-      <c r="Q216" s="51"/>
+      <c r="Q216" s="50"/>
       <c r="V216" s="7"/>
       <c r="Y216" s="7"/>
       <c r="Z216" s="7"/>
     </row>
     <row r="217" spans="1:26" ht="183">
-      <c r="A217" s="17" t="s">
+      <c r="A217" s="16" t="s">
         <v>1107</v>
       </c>
       <c r="B217" s="7" t="s">
@@ -16784,7 +16784,7 @@
       <c r="C217" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D217" s="44" t="s">
+      <c r="D217" s="43" t="s">
         <v>977</v>
       </c>
       <c r="E217" s="7" t="s">
@@ -16822,7 +16822,7 @@
       <c r="Z217" s="7"/>
     </row>
     <row r="218" spans="1:26" ht="91.5">
-      <c r="A218" s="17" t="s">
+      <c r="A218" s="16" t="s">
         <v>362</v>
       </c>
       <c r="B218" s="7" t="s">
@@ -16831,7 +16831,7 @@
       <c r="C218" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D218" s="44" t="s">
+      <c r="D218" s="43" t="s">
         <v>977</v>
       </c>
       <c r="E218" s="7" t="s">
@@ -16869,7 +16869,7 @@
       <c r="Z218" s="7"/>
     </row>
     <row r="219" spans="1:26" ht="91.5">
-      <c r="A219" s="17" t="s">
+      <c r="A219" s="16" t="s">
         <v>1118</v>
       </c>
       <c r="B219" s="7" t="s">
@@ -16878,7 +16878,7 @@
       <c r="C219" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D219" s="44" t="s">
+      <c r="D219" s="43" t="s">
         <v>977</v>
       </c>
       <c r="E219" s="7" t="s">
@@ -16916,7 +16916,7 @@
       <c r="Z219" s="7"/>
     </row>
     <row r="220" spans="1:26" ht="106.5">
-      <c r="A220" s="17" t="s">
+      <c r="A220" s="16" t="s">
         <v>1124</v>
       </c>
       <c r="B220" s="7" t="s">
@@ -16925,7 +16925,7 @@
       <c r="C220" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D220" s="44" t="s">
+      <c r="D220" s="43" t="s">
         <v>977</v>
       </c>
       <c r="E220" s="7" t="s">
@@ -16966,7 +16966,7 @@
       <c r="Z220" s="7"/>
     </row>
     <row r="221" spans="1:26" ht="45.75">
-      <c r="A221" s="17" t="s">
+      <c r="A221" s="16" t="s">
         <v>509</v>
       </c>
       <c r="B221" s="7" t="s">
@@ -16975,7 +16975,7 @@
       <c r="C221" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D221" s="44" t="s">
+      <c r="D221" s="43" t="s">
         <v>977</v>
       </c>
       <c r="E221" s="7" t="s">
@@ -17010,7 +17010,7 @@
       <c r="Z221" s="7"/>
     </row>
     <row r="222" spans="1:26" ht="106.5">
-      <c r="A222" s="17" t="s">
+      <c r="A222" s="16" t="s">
         <v>1135</v>
       </c>
       <c r="B222" s="7" t="s">
@@ -17019,7 +17019,7 @@
       <c r="C222" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D222" s="44" t="s">
+      <c r="D222" s="43" t="s">
         <v>977</v>
       </c>
       <c r="E222" s="7" t="s">
@@ -17031,7 +17031,7 @@
       <c r="G222" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H222" s="52">
+      <c r="H222" s="51">
         <v>2013</v>
       </c>
       <c r="I222" s="7" t="s">
@@ -17056,55 +17056,55 @@
       <c r="Y222" s="7"/>
       <c r="Z222" s="7"/>
     </row>
-    <row r="223" spans="1:26" s="63" customFormat="1" ht="106.5">
-      <c r="A223" s="64" t="s">
+    <row r="223" spans="1:26" s="62" customFormat="1" ht="106.5">
+      <c r="A223" s="63" t="s">
         <v>1140</v>
       </c>
-      <c r="B223" s="63" t="s">
+      <c r="B223" s="62" t="s">
         <v>1141</v>
       </c>
-      <c r="C223" s="63" t="s">
+      <c r="C223" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="D223" s="62" t="s">
+      <c r="D223" s="61" t="s">
         <v>977</v>
       </c>
-      <c r="E223" s="63" t="s">
+      <c r="E223" s="62" t="s">
         <v>1109</v>
       </c>
-      <c r="F223" s="63" t="s">
+      <c r="F223" s="62" t="s">
         <v>101</v>
       </c>
-      <c r="G223" s="63" t="s">
-        <v>31</v>
-      </c>
-      <c r="H223" s="63" t="s">
+      <c r="G223" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="H223" s="62" t="s">
         <v>1142</v>
       </c>
-      <c r="I223" s="63" t="s">
+      <c r="I223" s="62" t="s">
         <v>1143</v>
       </c>
-      <c r="J223" s="63" t="s">
-        <v>45</v>
-      </c>
-      <c r="K223" s="63" t="s">
-        <v>45</v>
-      </c>
-      <c r="L223" s="63" t="s">
+      <c r="J223" s="62" t="s">
+        <v>45</v>
+      </c>
+      <c r="K223" s="62" t="s">
+        <v>45</v>
+      </c>
+      <c r="L223" s="62" t="s">
         <v>1144</v>
       </c>
-      <c r="M223" s="63" t="s">
-        <v>45</v>
-      </c>
-      <c r="N223" s="63" t="s">
+      <c r="M223" s="62" t="s">
+        <v>45</v>
+      </c>
+      <c r="N223" s="62" t="s">
         <v>1114</v>
       </c>
-      <c r="Q223" s="63" t="s">
+      <c r="Q223" s="62" t="s">
         <v>1145</v>
       </c>
     </row>
     <row r="224" spans="1:26" ht="91.5">
-      <c r="A224" s="17" t="s">
+      <c r="A224" s="16" t="s">
         <v>1146</v>
       </c>
       <c r="B224" s="7" t="s">
@@ -17113,7 +17113,7 @@
       <c r="C224" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D224" s="44" t="s">
+      <c r="D224" s="43" t="s">
         <v>977</v>
       </c>
       <c r="E224" s="7" t="s">
@@ -17125,7 +17125,7 @@
       <c r="G224" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H224" s="53" t="s">
+      <c r="H224" s="52" t="s">
         <v>1148</v>
       </c>
       <c r="I224" s="7" t="s">
@@ -17151,7 +17151,7 @@
       <c r="Z224" s="7"/>
     </row>
     <row r="225" spans="1:26" ht="91.5">
-      <c r="A225" s="17" t="s">
+      <c r="A225" s="16" t="s">
         <v>1150</v>
       </c>
       <c r="B225" s="7" t="s">
@@ -17160,7 +17160,7 @@
       <c r="C225" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D225" s="44" t="s">
+      <c r="D225" s="43" t="s">
         <v>977</v>
       </c>
       <c r="E225" s="7" t="s">
@@ -17172,7 +17172,7 @@
       <c r="G225" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H225" s="52">
+      <c r="H225" s="51">
         <v>2016</v>
       </c>
       <c r="I225" s="7" t="s">
@@ -17198,7 +17198,7 @@
       <c r="Z225" s="7"/>
     </row>
     <row r="226" spans="1:26" ht="106.5">
-      <c r="A226" s="17" t="s">
+      <c r="A226" s="16" t="s">
         <v>1155</v>
       </c>
       <c r="B226" s="7" t="s">
@@ -17219,7 +17219,7 @@
       <c r="G226" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H226" s="23" t="s">
+      <c r="H226" s="22" t="s">
         <v>1148</v>
       </c>
       <c r="I226" s="7" t="s">
@@ -17244,16 +17244,16 @@
       <c r="Z226" s="7"/>
     </row>
     <row r="227" spans="1:26" ht="91.5">
-      <c r="A227" s="17" t="s">
+      <c r="A227" s="16" t="s">
         <v>1159</v>
       </c>
       <c r="B227" s="7" t="s">
         <v>1160</v>
       </c>
-      <c r="C227" s="44" t="s">
+      <c r="C227" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="D227" s="44" t="s">
+      <c r="D227" s="43" t="s">
         <v>977</v>
       </c>
       <c r="E227" s="7" t="s">
@@ -17265,10 +17265,10 @@
       <c r="G227" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H227" s="44" t="s">
+      <c r="H227" s="43" t="s">
         <v>1161</v>
       </c>
-      <c r="I227" s="44" t="s">
+      <c r="I227" s="43" t="s">
         <v>1162</v>
       </c>
       <c r="J227" s="7" t="s">
@@ -17286,21 +17286,21 @@
       <c r="N227" s="7" t="s">
         <v>983</v>
       </c>
-      <c r="O227" s="17"/>
-      <c r="P227" s="17"/>
-      <c r="Q227" s="17"/>
-      <c r="R227" s="17"/>
-      <c r="S227" s="17"/>
-      <c r="T227" s="17"/>
-      <c r="U227" s="17"/>
-      <c r="V227" s="17"/>
-      <c r="W227" s="17"/>
-      <c r="X227" s="17"/>
-      <c r="Y227" s="17"/>
+      <c r="O227" s="16"/>
+      <c r="P227" s="16"/>
+      <c r="Q227" s="16"/>
+      <c r="R227" s="16"/>
+      <c r="S227" s="16"/>
+      <c r="T227" s="16"/>
+      <c r="U227" s="16"/>
+      <c r="V227" s="16"/>
+      <c r="W227" s="16"/>
+      <c r="X227" s="16"/>
+      <c r="Y227" s="16"/>
       <c r="Z227" s="7"/>
     </row>
     <row r="228" spans="1:26" ht="91.5">
-      <c r="A228" s="17" t="s">
+      <c r="A228" s="16" t="s">
         <v>1163</v>
       </c>
       <c r="B228" s="7" t="s">
@@ -17309,7 +17309,7 @@
       <c r="C228" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D228" s="44" t="s">
+      <c r="D228" s="43" t="s">
         <v>977</v>
       </c>
       <c r="E228" s="7" t="s">
@@ -17336,25 +17336,25 @@
       <c r="L228" s="7" t="s">
         <v>1167</v>
       </c>
-      <c r="M228" s="17"/>
+      <c r="M228" s="16"/>
       <c r="N228" s="7" t="s">
         <v>983</v>
       </c>
-      <c r="O228" s="17"/>
-      <c r="P228" s="17"/>
-      <c r="Q228" s="17"/>
-      <c r="R228" s="17"/>
-      <c r="S228" s="17"/>
-      <c r="T228" s="17"/>
-      <c r="U228" s="17"/>
-      <c r="V228" s="17"/>
-      <c r="W228" s="17"/>
-      <c r="X228" s="17"/>
-      <c r="Y228" s="17"/>
+      <c r="O228" s="16"/>
+      <c r="P228" s="16"/>
+      <c r="Q228" s="16"/>
+      <c r="R228" s="16"/>
+      <c r="S228" s="16"/>
+      <c r="T228" s="16"/>
+      <c r="U228" s="16"/>
+      <c r="V228" s="16"/>
+      <c r="W228" s="16"/>
+      <c r="X228" s="16"/>
+      <c r="Y228" s="16"/>
       <c r="Z228" s="7"/>
     </row>
     <row r="229" spans="1:26" ht="91.5">
-      <c r="A229" s="17" t="s">
+      <c r="A229" s="16" t="s">
         <v>1168</v>
       </c>
       <c r="B229" s="7" t="s">
@@ -17363,7 +17363,7 @@
       <c r="C229" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D229" s="44" t="s">
+      <c r="D229" s="43" t="s">
         <v>977</v>
       </c>
       <c r="E229" s="7" t="s">
@@ -17396,30 +17396,30 @@
       <c r="N229" s="7" t="s">
         <v>983</v>
       </c>
-      <c r="O229" s="17"/>
-      <c r="P229" s="17"/>
-      <c r="Q229" s="17"/>
-      <c r="R229" s="17"/>
-      <c r="S229" s="17"/>
-      <c r="T229" s="17"/>
-      <c r="U229" s="17"/>
-      <c r="V229" s="17"/>
-      <c r="W229" s="17"/>
-      <c r="X229" s="17"/>
-      <c r="Y229" s="17"/>
+      <c r="O229" s="16"/>
+      <c r="P229" s="16"/>
+      <c r="Q229" s="16"/>
+      <c r="R229" s="16"/>
+      <c r="S229" s="16"/>
+      <c r="T229" s="16"/>
+      <c r="U229" s="16"/>
+      <c r="V229" s="16"/>
+      <c r="W229" s="16"/>
+      <c r="X229" s="16"/>
+      <c r="Y229" s="16"/>
       <c r="Z229" s="7"/>
     </row>
     <row r="230" spans="1:26" ht="91.5">
-      <c r="A230" s="17" t="s">
+      <c r="A230" s="16" t="s">
         <v>509</v>
       </c>
       <c r="B230" s="7" t="s">
         <v>1173</v>
       </c>
-      <c r="C230" s="44" t="s">
+      <c r="C230" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="D230" s="44" t="s">
+      <c r="D230" s="43" t="s">
         <v>977</v>
       </c>
       <c r="E230" s="7" t="s">
@@ -17437,28 +17437,28 @@
       <c r="I230" s="7" t="s">
         <v>1173</v>
       </c>
-      <c r="J230" s="17"/>
-      <c r="K230" s="17"/>
-      <c r="L230" s="17"/>
-      <c r="M230" s="17"/>
+      <c r="J230" s="16"/>
+      <c r="K230" s="16"/>
+      <c r="L230" s="16"/>
+      <c r="M230" s="16"/>
       <c r="N230" s="7" t="s">
         <v>983</v>
       </c>
-      <c r="O230" s="17"/>
-      <c r="P230" s="17"/>
-      <c r="Q230" s="17"/>
-      <c r="R230" s="17"/>
-      <c r="S230" s="17"/>
-      <c r="T230" s="17"/>
-      <c r="U230" s="17"/>
-      <c r="V230" s="17"/>
-      <c r="W230" s="17"/>
-      <c r="X230" s="17"/>
-      <c r="Y230" s="17"/>
+      <c r="O230" s="16"/>
+      <c r="P230" s="16"/>
+      <c r="Q230" s="16"/>
+      <c r="R230" s="16"/>
+      <c r="S230" s="16"/>
+      <c r="T230" s="16"/>
+      <c r="U230" s="16"/>
+      <c r="V230" s="16"/>
+      <c r="W230" s="16"/>
+      <c r="X230" s="16"/>
+      <c r="Y230" s="16"/>
       <c r="Z230" s="7"/>
     </row>
     <row r="231" spans="1:26" ht="91.5">
-      <c r="A231" s="17" t="s">
+      <c r="A231" s="16" t="s">
         <v>509</v>
       </c>
       <c r="B231" s="7" t="s">
@@ -17479,7 +17479,7 @@
       <c r="G231" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H231" s="23" t="s">
+      <c r="H231" s="22" t="s">
         <v>166</v>
       </c>
       <c r="I231" s="7" t="s">
@@ -17500,19 +17500,19 @@
       <c r="N231" s="7" t="s">
         <v>983</v>
       </c>
-      <c r="O231" s="17"/>
-      <c r="P231" s="17"/>
-      <c r="Q231" s="17"/>
+      <c r="O231" s="16"/>
+      <c r="P231" s="16"/>
+      <c r="Q231" s="16"/>
       <c r="R231" s="5"/>
-      <c r="S231" s="17"/>
-      <c r="T231" s="17"/>
-      <c r="U231" s="17"/>
-      <c r="W231" s="17"/>
-      <c r="X231" s="17"/>
+      <c r="S231" s="16"/>
+      <c r="T231" s="16"/>
+      <c r="U231" s="16"/>
+      <c r="W231" s="16"/>
+      <c r="X231" s="16"/>
       <c r="Z231" s="7"/>
     </row>
     <row r="232" spans="1:26" ht="91.5">
-      <c r="A232" s="17" t="s">
+      <c r="A232" s="16" t="s">
         <v>509</v>
       </c>
       <c r="B232" s="7" t="s">
@@ -17554,21 +17554,21 @@
       <c r="N232" s="7" t="s">
         <v>1183</v>
       </c>
-      <c r="O232" s="17"/>
-      <c r="P232" s="17"/>
-      <c r="Q232" s="17"/>
-      <c r="R232" s="17"/>
-      <c r="S232" s="17"/>
-      <c r="T232" s="17"/>
-      <c r="U232" s="17"/>
-      <c r="V232" s="17"/>
-      <c r="W232" s="17"/>
-      <c r="X232" s="17"/>
-      <c r="Y232" s="17"/>
+      <c r="O232" s="16"/>
+      <c r="P232" s="16"/>
+      <c r="Q232" s="16"/>
+      <c r="R232" s="16"/>
+      <c r="S232" s="16"/>
+      <c r="T232" s="16"/>
+      <c r="U232" s="16"/>
+      <c r="V232" s="16"/>
+      <c r="W232" s="16"/>
+      <c r="X232" s="16"/>
+      <c r="Y232" s="16"/>
       <c r="Z232" s="7"/>
     </row>
     <row r="233" spans="1:26" ht="91.5">
-      <c r="A233" s="17" t="s">
+      <c r="A233" s="16" t="s">
         <v>509</v>
       </c>
       <c r="B233" s="7" t="s">
@@ -17610,21 +17610,21 @@
       <c r="N233" s="7" t="s">
         <v>1183</v>
       </c>
-      <c r="O233" s="17"/>
-      <c r="P233" s="17"/>
-      <c r="Q233" s="17"/>
-      <c r="R233" s="17"/>
-      <c r="S233" s="17"/>
-      <c r="T233" s="17"/>
-      <c r="U233" s="17"/>
-      <c r="V233" s="17"/>
-      <c r="W233" s="17"/>
-      <c r="X233" s="17"/>
-      <c r="Y233" s="17"/>
+      <c r="O233" s="16"/>
+      <c r="P233" s="16"/>
+      <c r="Q233" s="16"/>
+      <c r="R233" s="16"/>
+      <c r="S233" s="16"/>
+      <c r="T233" s="16"/>
+      <c r="U233" s="16"/>
+      <c r="V233" s="16"/>
+      <c r="W233" s="16"/>
+      <c r="X233" s="16"/>
+      <c r="Y233" s="16"/>
       <c r="Z233" s="7"/>
     </row>
     <row r="234" spans="1:26" ht="91.5">
-      <c r="A234" s="17" t="s">
+      <c r="A234" s="16" t="s">
         <v>1189</v>
       </c>
       <c r="B234" s="7" t="s">
@@ -17645,7 +17645,7 @@
       <c r="G234" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H234" s="23" t="s">
+      <c r="H234" s="22" t="s">
         <v>1193</v>
       </c>
       <c r="I234" s="7" t="s">
@@ -17666,19 +17666,19 @@
       <c r="N234" s="7" t="s">
         <v>1183</v>
       </c>
-      <c r="O234" s="17"/>
-      <c r="P234" s="17"/>
-      <c r="Q234" s="17"/>
+      <c r="O234" s="16"/>
+      <c r="P234" s="16"/>
+      <c r="Q234" s="16"/>
       <c r="R234" s="5"/>
-      <c r="S234" s="17"/>
-      <c r="T234" s="17"/>
-      <c r="U234" s="17"/>
-      <c r="W234" s="17"/>
-      <c r="X234" s="17"/>
+      <c r="S234" s="16"/>
+      <c r="T234" s="16"/>
+      <c r="U234" s="16"/>
+      <c r="W234" s="16"/>
+      <c r="X234" s="16"/>
       <c r="Z234" s="7"/>
     </row>
     <row r="235" spans="1:26" ht="91.5">
-      <c r="A235" s="17" t="s">
+      <c r="A235" s="16" t="s">
         <v>1196</v>
       </c>
       <c r="B235" s="7" t="s">
@@ -17699,7 +17699,7 @@
       <c r="G235" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H235" s="23" t="s">
+      <c r="H235" s="22" t="s">
         <v>1199</v>
       </c>
       <c r="I235" s="7" t="s">
@@ -17720,19 +17720,19 @@
       <c r="N235" s="7" t="s">
         <v>1183</v>
       </c>
-      <c r="O235" s="17"/>
-      <c r="P235" s="17"/>
-      <c r="Q235" s="17"/>
+      <c r="O235" s="16"/>
+      <c r="P235" s="16"/>
+      <c r="Q235" s="16"/>
       <c r="R235" s="5"/>
-      <c r="S235" s="17"/>
-      <c r="T235" s="17"/>
-      <c r="U235" s="17"/>
-      <c r="W235" s="17"/>
-      <c r="X235" s="17"/>
+      <c r="S235" s="16"/>
+      <c r="T235" s="16"/>
+      <c r="U235" s="16"/>
+      <c r="W235" s="16"/>
+      <c r="X235" s="16"/>
       <c r="Z235" s="7"/>
     </row>
     <row r="236" spans="1:26" ht="91.5">
-      <c r="A236" s="17" t="s">
+      <c r="A236" s="16" t="s">
         <v>1201</v>
       </c>
       <c r="B236" s="7" t="s">
@@ -17753,7 +17753,7 @@
       <c r="G236" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H236" s="23" t="s">
+      <c r="H236" s="22" t="s">
         <v>166</v>
       </c>
       <c r="I236" s="7" t="s">
@@ -17774,19 +17774,19 @@
       <c r="N236" s="7" t="s">
         <v>1183</v>
       </c>
-      <c r="O236" s="17"/>
-      <c r="P236" s="17"/>
-      <c r="Q236" s="17"/>
+      <c r="O236" s="16"/>
+      <c r="P236" s="16"/>
+      <c r="Q236" s="16"/>
       <c r="R236" s="5"/>
-      <c r="S236" s="17"/>
-      <c r="T236" s="17"/>
-      <c r="U236" s="17"/>
-      <c r="W236" s="17"/>
-      <c r="X236" s="17"/>
+      <c r="S236" s="16"/>
+      <c r="T236" s="16"/>
+      <c r="U236" s="16"/>
+      <c r="W236" s="16"/>
+      <c r="X236" s="16"/>
       <c r="Z236" s="7"/>
     </row>
     <row r="237" spans="1:26" ht="91.5">
-      <c r="A237" s="17" t="s">
+      <c r="A237" s="16" t="s">
         <v>1201</v>
       </c>
       <c r="B237" s="7" t="s">
@@ -17807,7 +17807,7 @@
       <c r="G237" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H237" s="23" t="s">
+      <c r="H237" s="22" t="s">
         <v>166</v>
       </c>
       <c r="I237" s="7" t="s">
@@ -17828,19 +17828,19 @@
       <c r="N237" s="7" t="s">
         <v>1183</v>
       </c>
-      <c r="O237" s="17"/>
-      <c r="P237" s="17"/>
-      <c r="Q237" s="17"/>
+      <c r="O237" s="16"/>
+      <c r="P237" s="16"/>
+      <c r="Q237" s="16"/>
       <c r="R237" s="5"/>
-      <c r="S237" s="17"/>
-      <c r="T237" s="17"/>
-      <c r="U237" s="17"/>
-      <c r="W237" s="17"/>
-      <c r="X237" s="17"/>
+      <c r="S237" s="16"/>
+      <c r="T237" s="16"/>
+      <c r="U237" s="16"/>
+      <c r="W237" s="16"/>
+      <c r="X237" s="16"/>
       <c r="Z237" s="7"/>
     </row>
     <row r="238" spans="1:26" ht="91.5">
-      <c r="A238" s="17" t="s">
+      <c r="A238" s="16" t="s">
         <v>1208</v>
       </c>
       <c r="B238" s="7" t="s">
@@ -17861,7 +17861,7 @@
       <c r="G238" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H238" s="23" t="s">
+      <c r="H238" s="22" t="s">
         <v>1211</v>
       </c>
       <c r="I238" s="7" t="s">
@@ -17882,19 +17882,19 @@
       <c r="N238" s="7" t="s">
         <v>1183</v>
       </c>
-      <c r="O238" s="17"/>
-      <c r="P238" s="17"/>
-      <c r="Q238" s="17"/>
+      <c r="O238" s="16"/>
+      <c r="P238" s="16"/>
+      <c r="Q238" s="16"/>
       <c r="R238" s="5"/>
-      <c r="S238" s="17"/>
-      <c r="T238" s="17"/>
-      <c r="U238" s="17"/>
-      <c r="W238" s="17"/>
-      <c r="X238" s="17"/>
+      <c r="S238" s="16"/>
+      <c r="T238" s="16"/>
+      <c r="U238" s="16"/>
+      <c r="W238" s="16"/>
+      <c r="X238" s="16"/>
       <c r="Z238" s="7"/>
     </row>
     <row r="239" spans="1:26" ht="91.5">
-      <c r="A239" s="17" t="s">
+      <c r="A239" s="16" t="s">
         <v>509</v>
       </c>
       <c r="B239" s="7" t="s">
@@ -17915,7 +17915,7 @@
       <c r="G239" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H239" s="23" t="s">
+      <c r="H239" s="22" t="s">
         <v>637</v>
       </c>
       <c r="I239" s="7" t="s">
@@ -17936,19 +17936,19 @@
       <c r="N239" s="7" t="s">
         <v>1183</v>
       </c>
-      <c r="O239" s="17"/>
-      <c r="P239" s="17"/>
-      <c r="Q239" s="17"/>
+      <c r="O239" s="16"/>
+      <c r="P239" s="16"/>
+      <c r="Q239" s="16"/>
       <c r="R239" s="5"/>
-      <c r="S239" s="17"/>
-      <c r="T239" s="17"/>
-      <c r="U239" s="17"/>
-      <c r="W239" s="17"/>
-      <c r="X239" s="17"/>
+      <c r="S239" s="16"/>
+      <c r="T239" s="16"/>
+      <c r="U239" s="16"/>
+      <c r="W239" s="16"/>
+      <c r="X239" s="16"/>
       <c r="Z239" s="7"/>
     </row>
     <row r="240" spans="1:26" ht="91.5">
-      <c r="A240" s="17" t="s">
+      <c r="A240" s="16" t="s">
         <v>1217</v>
       </c>
       <c r="B240" s="7" t="s">
@@ -17969,7 +17969,7 @@
       <c r="G240" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H240" s="23" t="s">
+      <c r="H240" s="22" t="s">
         <v>1222</v>
       </c>
       <c r="I240" s="7" t="s">
@@ -17990,19 +17990,19 @@
       <c r="N240" s="7" t="s">
         <v>1183</v>
       </c>
-      <c r="O240" s="17"/>
-      <c r="P240" s="17"/>
-      <c r="Q240" s="17"/>
+      <c r="O240" s="16"/>
+      <c r="P240" s="16"/>
+      <c r="Q240" s="16"/>
       <c r="R240" s="5"/>
-      <c r="S240" s="17"/>
-      <c r="T240" s="17"/>
-      <c r="U240" s="17"/>
-      <c r="W240" s="17"/>
-      <c r="X240" s="17"/>
+      <c r="S240" s="16"/>
+      <c r="T240" s="16"/>
+      <c r="U240" s="16"/>
+      <c r="W240" s="16"/>
+      <c r="X240" s="16"/>
       <c r="Z240" s="7"/>
     </row>
     <row r="241" spans="1:26" ht="91.5">
-      <c r="A241" s="17" t="s">
+      <c r="A241" s="16" t="s">
         <v>1225</v>
       </c>
       <c r="B241" s="7" t="s">
@@ -18023,7 +18023,7 @@
       <c r="G241" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H241" s="23" t="s">
+      <c r="H241" s="22" t="s">
         <v>1222</v>
       </c>
       <c r="I241" s="7" t="s">
@@ -18044,19 +18044,19 @@
       <c r="N241" s="7" t="s">
         <v>1183</v>
       </c>
-      <c r="O241" s="17"/>
-      <c r="P241" s="17"/>
-      <c r="Q241" s="17"/>
+      <c r="O241" s="16"/>
+      <c r="P241" s="16"/>
+      <c r="Q241" s="16"/>
       <c r="R241" s="5"/>
-      <c r="S241" s="17"/>
-      <c r="T241" s="17"/>
-      <c r="U241" s="17"/>
-      <c r="W241" s="17"/>
-      <c r="X241" s="17"/>
+      <c r="S241" s="16"/>
+      <c r="T241" s="16"/>
+      <c r="U241" s="16"/>
+      <c r="W241" s="16"/>
+      <c r="X241" s="16"/>
       <c r="Z241" s="7"/>
     </row>
     <row r="242" spans="1:26" ht="91.5">
-      <c r="A242" s="17" t="s">
+      <c r="A242" s="16" t="s">
         <v>1058</v>
       </c>
       <c r="B242" s="7" t="s">
@@ -18077,7 +18077,7 @@
       <c r="G242" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H242" s="23" t="s">
+      <c r="H242" s="22" t="s">
         <v>1222</v>
       </c>
       <c r="I242" s="7" t="s">
@@ -18098,19 +18098,19 @@
       <c r="N242" s="7" t="s">
         <v>1183</v>
       </c>
-      <c r="O242" s="17"/>
-      <c r="P242" s="17"/>
-      <c r="Q242" s="17"/>
+      <c r="O242" s="16"/>
+      <c r="P242" s="16"/>
+      <c r="Q242" s="16"/>
       <c r="R242" s="5"/>
-      <c r="S242" s="17"/>
-      <c r="T242" s="17"/>
-      <c r="U242" s="17"/>
-      <c r="W242" s="17"/>
-      <c r="X242" s="17"/>
+      <c r="S242" s="16"/>
+      <c r="T242" s="16"/>
+      <c r="U242" s="16"/>
+      <c r="W242" s="16"/>
+      <c r="X242" s="16"/>
       <c r="Z242" s="7"/>
     </row>
     <row r="243" spans="1:26" ht="91.5">
-      <c r="A243" s="17" t="s">
+      <c r="A243" s="16" t="s">
         <v>1058</v>
       </c>
       <c r="B243" s="7" t="s">
@@ -18131,7 +18131,7 @@
       <c r="G243" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H243" s="23" t="s">
+      <c r="H243" s="22" t="s">
         <v>1236</v>
       </c>
       <c r="I243" s="7" t="s">
@@ -18152,19 +18152,19 @@
       <c r="N243" s="7" t="s">
         <v>1183</v>
       </c>
-      <c r="O243" s="17"/>
-      <c r="P243" s="17"/>
-      <c r="Q243" s="17"/>
+      <c r="O243" s="16"/>
+      <c r="P243" s="16"/>
+      <c r="Q243" s="16"/>
       <c r="R243" s="5"/>
-      <c r="S243" s="17"/>
-      <c r="T243" s="17"/>
-      <c r="U243" s="17"/>
-      <c r="W243" s="17"/>
-      <c r="X243" s="17"/>
+      <c r="S243" s="16"/>
+      <c r="T243" s="16"/>
+      <c r="U243" s="16"/>
+      <c r="W243" s="16"/>
+      <c r="X243" s="16"/>
       <c r="Z243" s="7"/>
     </row>
     <row r="244" spans="1:26" ht="198">
-      <c r="A244" s="17" t="s">
+      <c r="A244" s="16" t="s">
         <v>509</v>
       </c>
       <c r="B244" s="7" t="s">
@@ -18173,7 +18173,7 @@
       <c r="C244" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D244" s="44" t="s">
+      <c r="D244" s="43" t="s">
         <v>1239</v>
       </c>
       <c r="E244" s="7" t="s">
@@ -18197,7 +18197,7 @@
       <c r="K244" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="L244" s="44" t="s">
+      <c r="L244" s="43" t="s">
         <v>1244</v>
       </c>
       <c r="M244" s="7" t="s">
@@ -18206,21 +18206,21 @@
       <c r="N244" s="7" t="s">
         <v>1114</v>
       </c>
-      <c r="O244" s="17"/>
-      <c r="P244" s="17"/>
-      <c r="Q244" s="17"/>
-      <c r="R244" s="17"/>
-      <c r="S244" s="17"/>
-      <c r="T244" s="17"/>
-      <c r="U244" s="17"/>
-      <c r="V244" s="17"/>
-      <c r="W244" s="17"/>
-      <c r="X244" s="17"/>
-      <c r="Y244" s="17"/>
+      <c r="O244" s="16"/>
+      <c r="P244" s="16"/>
+      <c r="Q244" s="16"/>
+      <c r="R244" s="16"/>
+      <c r="S244" s="16"/>
+      <c r="T244" s="16"/>
+      <c r="U244" s="16"/>
+      <c r="V244" s="16"/>
+      <c r="W244" s="16"/>
+      <c r="X244" s="16"/>
+      <c r="Y244" s="16"/>
       <c r="Z244" s="7"/>
     </row>
     <row r="245" spans="1:26" ht="91.5">
-      <c r="A245" s="17" t="s">
+      <c r="A245" s="16" t="s">
         <v>1245</v>
       </c>
       <c r="B245" s="7" t="s">
@@ -18262,21 +18262,21 @@
       <c r="N245" s="7" t="s">
         <v>1114</v>
       </c>
-      <c r="O245" s="17"/>
-      <c r="P245" s="17"/>
-      <c r="Q245" s="17"/>
-      <c r="R245" s="17"/>
-      <c r="S245" s="17"/>
-      <c r="T245" s="17"/>
-      <c r="U245" s="17"/>
-      <c r="V245" s="17"/>
-      <c r="W245" s="17"/>
-      <c r="X245" s="17"/>
-      <c r="Y245" s="17"/>
+      <c r="O245" s="16"/>
+      <c r="P245" s="16"/>
+      <c r="Q245" s="16"/>
+      <c r="R245" s="16"/>
+      <c r="S245" s="16"/>
+      <c r="T245" s="16"/>
+      <c r="U245" s="16"/>
+      <c r="V245" s="16"/>
+      <c r="W245" s="16"/>
+      <c r="X245" s="16"/>
+      <c r="Y245" s="16"/>
       <c r="Z245" s="7"/>
     </row>
     <row r="246" spans="1:26" ht="91.5">
-      <c r="A246" s="17" t="s">
+      <c r="A246" s="16" t="s">
         <v>509</v>
       </c>
       <c r="B246" s="7" t="s">
@@ -18297,7 +18297,7 @@
       <c r="G246" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H246" s="17"/>
+      <c r="H246" s="16"/>
       <c r="I246" s="7" t="s">
         <v>1252</v>
       </c>
@@ -18316,21 +18316,21 @@
       <c r="N246" s="7" t="s">
         <v>1114</v>
       </c>
-      <c r="O246" s="17"/>
-      <c r="P246" s="17"/>
-      <c r="Q246" s="17"/>
-      <c r="R246" s="17"/>
-      <c r="S246" s="17"/>
-      <c r="T246" s="17"/>
-      <c r="U246" s="17"/>
-      <c r="V246" s="17"/>
-      <c r="W246" s="17"/>
-      <c r="X246" s="17"/>
-      <c r="Y246" s="17"/>
+      <c r="O246" s="16"/>
+      <c r="P246" s="16"/>
+      <c r="Q246" s="16"/>
+      <c r="R246" s="16"/>
+      <c r="S246" s="16"/>
+      <c r="T246" s="16"/>
+      <c r="U246" s="16"/>
+      <c r="V246" s="16"/>
+      <c r="W246" s="16"/>
+      <c r="X246" s="16"/>
+      <c r="Y246" s="16"/>
       <c r="Z246" s="7"/>
     </row>
     <row r="247" spans="1:26" ht="91.5">
-      <c r="A247" s="17" t="s">
+      <c r="A247" s="16" t="s">
         <v>1254</v>
       </c>
       <c r="B247" s="7" t="s">
@@ -18342,7 +18342,7 @@
       <c r="D247" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="E247" s="58" t="s">
+      <c r="E247" s="57" t="s">
         <v>1256</v>
       </c>
       <c r="F247" s="7" t="s">
@@ -18377,7 +18377,7 @@
       <c r="Z247" s="7"/>
     </row>
     <row r="248" spans="1:26" ht="91.5">
-      <c r="A248" s="17" t="s">
+      <c r="A248" s="16" t="s">
         <v>1261</v>
       </c>
       <c r="B248" s="7" t="s">
@@ -18389,7 +18389,7 @@
       <c r="D248" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="E248" s="58" t="s">
+      <c r="E248" s="57" t="s">
         <v>1256</v>
       </c>
       <c r="F248" s="7" t="s">
@@ -18424,7 +18424,7 @@
       <c r="Z248" s="7"/>
     </row>
     <row r="249" spans="1:26" ht="91.5">
-      <c r="A249" s="17" t="s">
+      <c r="A249" s="16" t="s">
         <v>1267</v>
       </c>
       <c r="B249" s="7" t="s">
@@ -18436,7 +18436,7 @@
       <c r="D249" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="E249" s="58" t="s">
+      <c r="E249" s="57" t="s">
         <v>1256</v>
       </c>
       <c r="F249" s="7" t="s">
@@ -18471,7 +18471,7 @@
       <c r="Z249" s="7"/>
     </row>
     <row r="250" spans="1:26" ht="91.5">
-      <c r="A250" s="17" t="s">
+      <c r="A250" s="16" t="s">
         <v>1270</v>
       </c>
       <c r="B250" s="7" t="s">
@@ -18483,7 +18483,7 @@
       <c r="D250" s="7" t="s">
         <v>1272</v>
       </c>
-      <c r="E250" s="58" t="s">
+      <c r="E250" s="57" t="s">
         <v>1256</v>
       </c>
       <c r="F250" s="7" t="s">
@@ -18518,7 +18518,7 @@
       <c r="Z250" s="7"/>
     </row>
     <row r="251" spans="1:26" ht="91.5">
-      <c r="A251" s="17" t="s">
+      <c r="A251" s="16" t="s">
         <v>1277</v>
       </c>
       <c r="B251" s="7" t="s">
@@ -18530,7 +18530,7 @@
       <c r="D251" s="7" t="s">
         <v>1279</v>
       </c>
-      <c r="E251" s="58" t="s">
+      <c r="E251" s="57" t="s">
         <v>1256</v>
       </c>
       <c r="F251" s="7" t="s">
@@ -18565,7 +18565,7 @@
       <c r="Z251" s="7"/>
     </row>
     <row r="252" spans="1:26" ht="91.5">
-      <c r="A252" s="17" t="s">
+      <c r="A252" s="16" t="s">
         <v>1282</v>
       </c>
       <c r="B252" s="7" t="s">
@@ -18577,7 +18577,7 @@
       <c r="D252" s="7" t="s">
         <v>1284</v>
       </c>
-      <c r="E252" s="58" t="s">
+      <c r="E252" s="57" t="s">
         <v>1256</v>
       </c>
       <c r="F252" s="7" t="s">
@@ -18612,7 +18612,7 @@
       <c r="Z252" s="7"/>
     </row>
     <row r="253" spans="1:26" ht="91.5">
-      <c r="A253" s="17" t="s">
+      <c r="A253" s="16" t="s">
         <v>1288</v>
       </c>
       <c r="B253" s="7" t="s">
@@ -18624,7 +18624,7 @@
       <c r="D253" s="7" t="s">
         <v>1290</v>
       </c>
-      <c r="E253" s="58" t="s">
+      <c r="E253" s="57" t="s">
         <v>1256</v>
       </c>
       <c r="F253" s="7" t="s">
@@ -18659,7 +18659,7 @@
       <c r="Z253" s="7"/>
     </row>
     <row r="254" spans="1:26" ht="91.5">
-      <c r="A254" s="17" t="s">
+      <c r="A254" s="16" t="s">
         <v>1294</v>
       </c>
       <c r="B254" s="7" t="s">
@@ -18671,7 +18671,7 @@
       <c r="D254" s="7" t="s">
         <v>1296</v>
       </c>
-      <c r="E254" s="58" t="s">
+      <c r="E254" s="57" t="s">
         <v>1256</v>
       </c>
       <c r="F254" s="7" t="s">
@@ -18706,7 +18706,7 @@
       <c r="Z254" s="7"/>
     </row>
     <row r="255" spans="1:26" ht="91.5">
-      <c r="A255" s="17" t="s">
+      <c r="A255" s="16" t="s">
         <v>1299</v>
       </c>
       <c r="B255" s="7" t="s">
@@ -18718,7 +18718,7 @@
       <c r="D255" s="7" t="s">
         <v>1284</v>
       </c>
-      <c r="E255" s="58" t="s">
+      <c r="E255" s="57" t="s">
         <v>1256</v>
       </c>
       <c r="F255" s="7" t="s">
@@ -18750,7 +18750,7 @@
       <c r="Z255" s="7"/>
     </row>
     <row r="256" spans="1:26" ht="91.5">
-      <c r="A256" s="17" t="s">
+      <c r="A256" s="16" t="s">
         <v>1305</v>
       </c>
       <c r="B256" s="7" t="s">
@@ -18762,7 +18762,7 @@
       <c r="D256" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="E256" s="58" t="s">
+      <c r="E256" s="57" t="s">
         <v>1256</v>
       </c>
       <c r="F256" s="7" t="s">
@@ -18797,7 +18797,7 @@
       <c r="Z256" s="7"/>
     </row>
     <row r="257" spans="1:26" ht="91.5">
-      <c r="A257" s="17" t="s">
+      <c r="A257" s="16" t="s">
         <v>1305</v>
       </c>
       <c r="B257" s="7" t="s">
@@ -18809,7 +18809,7 @@
       <c r="D257" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="E257" s="58" t="s">
+      <c r="E257" s="57" t="s">
         <v>1256</v>
       </c>
       <c r="F257" s="7" t="s">
@@ -18844,7 +18844,7 @@
       <c r="Z257" s="7"/>
     </row>
     <row r="258" spans="1:26" ht="91.5">
-      <c r="A258" s="17" t="s">
+      <c r="A258" s="16" t="s">
         <v>1305</v>
       </c>
       <c r="B258" s="7" t="s">
@@ -18856,7 +18856,7 @@
       <c r="D258" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="E258" s="58" t="s">
+      <c r="E258" s="57" t="s">
         <v>1256</v>
       </c>
       <c r="F258" s="7" t="s">
@@ -18891,7 +18891,7 @@
       <c r="Z258" s="7"/>
     </row>
     <row r="259" spans="1:26" ht="91.5">
-      <c r="A259" s="17" t="s">
+      <c r="A259" s="16" t="s">
         <v>1305</v>
       </c>
       <c r="B259" s="7" t="s">
@@ -18903,7 +18903,7 @@
       <c r="D259" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="E259" s="58" t="s">
+      <c r="E259" s="57" t="s">
         <v>1256</v>
       </c>
       <c r="F259" s="7" t="s">
@@ -18938,7 +18938,7 @@
       <c r="Z259" s="7"/>
     </row>
     <row r="260" spans="1:26" ht="91.5">
-      <c r="A260" s="17" t="s">
+      <c r="A260" s="16" t="s">
         <v>1305</v>
       </c>
       <c r="B260" s="7" t="s">
@@ -18950,7 +18950,7 @@
       <c r="D260" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="E260" s="58" t="s">
+      <c r="E260" s="57" t="s">
         <v>1256</v>
       </c>
       <c r="F260" s="7" t="s">
@@ -18985,7 +18985,7 @@
       <c r="Z260" s="7"/>
     </row>
     <row r="261" spans="1:26" ht="91.5">
-      <c r="A261" s="17" t="s">
+      <c r="A261" s="16" t="s">
         <v>1316</v>
       </c>
       <c r="B261" s="7" t="s">
@@ -19000,7 +19000,7 @@
       <c r="E261" s="7" t="s">
         <v>1319</v>
       </c>
-      <c r="F261" s="44" t="s">
+      <c r="F261" s="43" t="s">
         <v>1320</v>
       </c>
       <c r="G261" s="7" t="s">
@@ -19027,21 +19027,21 @@
       <c r="N261" s="7" t="s">
         <v>1260</v>
       </c>
-      <c r="O261" s="17"/>
-      <c r="P261" s="17"/>
-      <c r="Q261" s="17"/>
-      <c r="R261" s="17"/>
-      <c r="S261" s="17"/>
-      <c r="T261" s="17"/>
-      <c r="U261" s="17"/>
-      <c r="V261" s="17"/>
-      <c r="W261" s="17"/>
-      <c r="X261" s="17"/>
-      <c r="Y261" s="17"/>
+      <c r="O261" s="16"/>
+      <c r="P261" s="16"/>
+      <c r="Q261" s="16"/>
+      <c r="R261" s="16"/>
+      <c r="S261" s="16"/>
+      <c r="T261" s="16"/>
+      <c r="U261" s="16"/>
+      <c r="V261" s="16"/>
+      <c r="W261" s="16"/>
+      <c r="X261" s="16"/>
+      <c r="Y261" s="16"/>
       <c r="Z261" s="7"/>
     </row>
     <row r="262" spans="1:26" ht="91.5">
-      <c r="A262" s="17" t="s">
+      <c r="A262" s="16" t="s">
         <v>1323</v>
       </c>
       <c r="B262" s="7" t="s">
@@ -19088,7 +19088,7 @@
       <c r="Z262" s="7"/>
     </row>
     <row r="263" spans="1:26" ht="91.5">
-      <c r="A263" s="17" t="s">
+      <c r="A263" s="16" t="s">
         <v>1329</v>
       </c>
       <c r="B263" s="7" t="s">
@@ -19135,7 +19135,7 @@
       <c r="Z263" s="7"/>
     </row>
     <row r="264" spans="1:26" ht="91.5">
-      <c r="A264" s="17" t="s">
+      <c r="A264" s="16" t="s">
         <v>1316</v>
       </c>
       <c r="B264" s="7" t="s">
@@ -19150,7 +19150,7 @@
       <c r="E264" s="7" t="s">
         <v>1325</v>
       </c>
-      <c r="F264" s="44" t="s">
+      <c r="F264" s="43" t="s">
         <v>1320</v>
       </c>
       <c r="G264" s="7" t="s">
@@ -19182,7 +19182,7 @@
       <c r="Z264" s="7"/>
     </row>
     <row r="265" spans="1:26" ht="91.5">
-      <c r="A265" s="17" t="s">
+      <c r="A265" s="16" t="s">
         <v>509</v>
       </c>
       <c r="B265" s="7" t="s">
@@ -19229,7 +19229,7 @@
       <c r="Z265" s="7"/>
     </row>
     <row r="266" spans="1:26" ht="91.5">
-      <c r="A266" s="17" t="s">
+      <c r="A266" s="16" t="s">
         <v>509</v>
       </c>
       <c r="B266" s="7" t="s">
@@ -19276,7 +19276,7 @@
       <c r="Z266" s="7"/>
     </row>
     <row r="267" spans="1:26" ht="91.5">
-      <c r="A267" s="17" t="s">
+      <c r="A267" s="16" t="s">
         <v>509</v>
       </c>
       <c r="B267" s="7" t="s">
@@ -19323,7 +19323,7 @@
       <c r="Z267" s="7"/>
     </row>
     <row r="268" spans="1:26" ht="167.25">
-      <c r="A268" s="17" t="s">
+      <c r="A268" s="16" t="s">
         <v>509</v>
       </c>
       <c r="B268" s="7" t="s">
@@ -19370,7 +19370,7 @@
       <c r="Z268" s="7"/>
     </row>
     <row r="269" spans="1:26" ht="91.5">
-      <c r="A269" s="17" t="s">
+      <c r="A269" s="16" t="s">
         <v>509</v>
       </c>
       <c r="B269" s="7" t="s">
@@ -19417,7 +19417,7 @@
       <c r="Z269" s="7"/>
     </row>
     <row r="270" spans="1:26" ht="137.25">
-      <c r="A270" s="17" t="s">
+      <c r="A270" s="16" t="s">
         <v>509</v>
       </c>
       <c r="B270" s="7" t="s">
@@ -19464,7 +19464,7 @@
       <c r="Z270" s="7"/>
     </row>
     <row r="271" spans="1:26" ht="409.6">
-      <c r="A271" s="17" t="s">
+      <c r="A271" s="16" t="s">
         <v>509</v>
       </c>
       <c r="B271" s="7" t="s">
@@ -19511,7 +19511,7 @@
       <c r="Z271" s="7"/>
     </row>
     <row r="272" spans="1:26" ht="321">
-      <c r="A272" s="17" t="s">
+      <c r="A272" s="16" t="s">
         <v>509</v>
       </c>
       <c r="B272" s="7" t="s">
@@ -19532,7 +19532,7 @@
       <c r="G272" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H272" s="23" t="s">
+      <c r="H272" s="22" t="s">
         <v>166</v>
       </c>
       <c r="I272" s="7" t="s">
@@ -19557,7 +19557,7 @@
       <c r="Z272" s="7"/>
     </row>
     <row r="273" spans="1:26" ht="106.5">
-      <c r="A273" s="17" t="s">
+      <c r="A273" s="16" t="s">
         <v>509</v>
       </c>
       <c r="B273" s="7" t="s">
@@ -19578,7 +19578,7 @@
       <c r="G273" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H273" s="23" t="s">
+      <c r="H273" s="22" t="s">
         <v>1353</v>
       </c>
       <c r="I273" s="7" t="s">
@@ -19603,7 +19603,7 @@
       <c r="Z273" s="7"/>
     </row>
     <row r="274" spans="1:26" ht="91.5">
-      <c r="A274" s="17" t="s">
+      <c r="A274" s="16" t="s">
         <v>509</v>
       </c>
       <c r="B274" s="7" t="s">
@@ -19618,13 +19618,13 @@
       <c r="E274" s="7" t="s">
         <v>1341</v>
       </c>
-      <c r="F274" s="23" t="s">
+      <c r="F274" s="22" t="s">
         <v>166</v>
       </c>
       <c r="G274" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H274" s="23" t="s">
+      <c r="H274" s="22" t="s">
         <v>166</v>
       </c>
       <c r="I274" s="7" t="s">
@@ -19649,7 +19649,7 @@
       <c r="Z274" s="7"/>
     </row>
     <row r="275" spans="1:26" ht="91.5">
-      <c r="A275" s="17" t="s">
+      <c r="A275" s="16" t="s">
         <v>509</v>
       </c>
       <c r="B275" s="7" t="s">
@@ -19664,13 +19664,13 @@
       <c r="E275" s="7" t="s">
         <v>1341</v>
       </c>
-      <c r="F275" s="23" t="s">
+      <c r="F275" s="22" t="s">
         <v>166</v>
       </c>
       <c r="G275" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H275" s="23" t="s">
+      <c r="H275" s="22" t="s">
         <v>166</v>
       </c>
       <c r="I275" s="7" t="s">
@@ -19692,7 +19692,7 @@
       <c r="Z275" s="7"/>
     </row>
     <row r="276" spans="1:26" ht="91.5">
-      <c r="A276" s="17" t="s">
+      <c r="A276" s="16" t="s">
         <v>509</v>
       </c>
       <c r="B276" s="7" t="s">
@@ -19707,13 +19707,13 @@
       <c r="E276" s="7" t="s">
         <v>1341</v>
       </c>
-      <c r="F276" s="23" t="s">
+      <c r="F276" s="22" t="s">
         <v>166</v>
       </c>
       <c r="G276" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H276" s="23" t="s">
+      <c r="H276" s="22" t="s">
         <v>166</v>
       </c>
       <c r="I276" s="7" t="s">
@@ -19738,7 +19738,7 @@
       <c r="Z276" s="7"/>
     </row>
     <row r="277" spans="1:26" ht="91.5">
-      <c r="A277" s="17" t="s">
+      <c r="A277" s="16" t="s">
         <v>509</v>
       </c>
       <c r="B277" s="7" t="s">
@@ -19759,7 +19759,7 @@
       <c r="G277" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H277" s="23" t="s">
+      <c r="H277" s="22" t="s">
         <v>1353</v>
       </c>
       <c r="I277" s="7" t="s">
@@ -19784,7 +19784,7 @@
       <c r="Z277" s="7"/>
     </row>
     <row r="278" spans="1:26" ht="91.5">
-      <c r="A278" s="17" t="s">
+      <c r="A278" s="16" t="s">
         <v>509</v>
       </c>
       <c r="B278" s="7" t="s">
@@ -19805,7 +19805,7 @@
       <c r="G278" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H278" s="23" t="s">
+      <c r="H278" s="22" t="s">
         <v>1365</v>
       </c>
       <c r="I278" s="7" t="s">
@@ -19830,7 +19830,7 @@
       <c r="Z278" s="7"/>
     </row>
     <row r="279" spans="1:26" ht="183">
-      <c r="A279" s="17" t="s">
+      <c r="A279" s="16" t="s">
         <v>509</v>
       </c>
       <c r="B279" s="7" t="s">
@@ -19851,7 +19851,7 @@
       <c r="G279" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H279" s="23" t="s">
+      <c r="H279" s="22" t="s">
         <v>166</v>
       </c>
       <c r="I279" s="7" t="s">
@@ -19873,7 +19873,7 @@
       <c r="Z279" s="7"/>
     </row>
     <row r="280" spans="1:26" ht="91.5">
-      <c r="A280" s="17" t="s">
+      <c r="A280" s="16" t="s">
         <v>509</v>
       </c>
       <c r="B280" s="7" t="s">
@@ -19894,7 +19894,7 @@
       <c r="G280" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H280" s="23" t="s">
+      <c r="H280" s="22" t="s">
         <v>1372</v>
       </c>
       <c r="I280" s="7" t="s">
@@ -19919,7 +19919,7 @@
       <c r="Z280" s="7"/>
     </row>
     <row r="281" spans="1:26" ht="91.5">
-      <c r="A281" s="17" t="s">
+      <c r="A281" s="16" t="s">
         <v>509</v>
       </c>
       <c r="B281" s="7" t="s">
@@ -19940,7 +19940,7 @@
       <c r="G281" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H281" s="23" t="s">
+      <c r="H281" s="22" t="s">
         <v>1376</v>
       </c>
       <c r="I281" s="7" t="s">
@@ -19962,7 +19962,7 @@
       <c r="Z281" s="7"/>
     </row>
     <row r="282" spans="1:26" ht="167.25">
-      <c r="A282" s="17" t="s">
+      <c r="A282" s="16" t="s">
         <v>509</v>
       </c>
       <c r="B282" s="7" t="s">
@@ -19983,7 +19983,7 @@
       <c r="G282" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H282" s="23" t="s">
+      <c r="H282" s="22" t="s">
         <v>1100</v>
       </c>
       <c r="I282" s="7" t="s">
@@ -20008,7 +20008,7 @@
       <c r="Z282" s="7"/>
     </row>
     <row r="283" spans="1:26" ht="91.5">
-      <c r="A283" s="17" t="s">
+      <c r="A283" s="16" t="s">
         <v>509</v>
       </c>
       <c r="B283" s="7" t="s">
@@ -20029,7 +20029,7 @@
       <c r="G283" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H283" s="23" t="s">
+      <c r="H283" s="22" t="s">
         <v>1383</v>
       </c>
       <c r="I283" s="7" t="s">
@@ -20051,7 +20051,7 @@
       <c r="Z283" s="7"/>
     </row>
     <row r="284" spans="1:26" ht="91.5">
-      <c r="A284" s="17" t="s">
+      <c r="A284" s="16" t="s">
         <v>509</v>
       </c>
       <c r="B284" s="7" t="s">
@@ -20072,7 +20072,7 @@
       <c r="G284" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H284" s="23" t="s">
+      <c r="H284" s="22" t="s">
         <v>1353</v>
       </c>
       <c r="I284" s="7" t="s">
@@ -20097,7 +20097,7 @@
       <c r="Z284" s="7"/>
     </row>
     <row r="285" spans="1:26" ht="91.5">
-      <c r="A285" s="17" t="s">
+      <c r="A285" s="16" t="s">
         <v>509</v>
       </c>
       <c r="B285" s="7" t="s">
@@ -20118,7 +20118,7 @@
       <c r="G285" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H285" s="23" t="s">
+      <c r="H285" s="22" t="s">
         <v>1393</v>
       </c>
       <c r="I285" s="7" t="s">
@@ -20143,7 +20143,7 @@
       <c r="Z285" s="7"/>
     </row>
     <row r="286" spans="1:26" ht="229.5">
-      <c r="A286" s="17" t="s">
+      <c r="A286" s="16" t="s">
         <v>509</v>
       </c>
       <c r="B286" s="7" t="s">
@@ -20164,7 +20164,7 @@
       <c r="G286" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H286" s="23" t="s">
+      <c r="H286" s="22" t="s">
         <v>1399</v>
       </c>
       <c r="I286" s="7" t="s">
@@ -20192,7 +20192,7 @@
       <c r="Z286" s="7"/>
     </row>
     <row r="287" spans="1:26" ht="91.5">
-      <c r="A287" s="17" t="s">
+      <c r="A287" s="16" t="s">
         <v>509</v>
       </c>
       <c r="B287" s="7" t="s">
@@ -20213,7 +20213,7 @@
       <c r="G287" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H287" s="23" t="s">
+      <c r="H287" s="22" t="s">
         <v>1121</v>
       </c>
       <c r="I287" s="7" t="s">
@@ -20238,7 +20238,7 @@
       <c r="Z287" s="7"/>
     </row>
     <row r="288" spans="1:26" ht="91.5">
-      <c r="A288" s="17" t="s">
+      <c r="A288" s="16" t="s">
         <v>509</v>
       </c>
       <c r="B288" s="7" t="s">
@@ -20259,7 +20259,7 @@
       <c r="G288" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H288" s="23" t="s">
+      <c r="H288" s="22" t="s">
         <v>1064</v>
       </c>
       <c r="I288" s="7" t="s">
@@ -20284,7 +20284,7 @@
       <c r="Z288" s="7"/>
     </row>
     <row r="289" spans="1:26" ht="91.5">
-      <c r="A289" s="17" t="s">
+      <c r="A289" s="16" t="s">
         <v>509</v>
       </c>
       <c r="B289" s="7" t="s">
@@ -20305,7 +20305,7 @@
       <c r="G289" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H289" s="23" t="s">
+      <c r="H289" s="22" t="s">
         <v>1100</v>
       </c>
       <c r="I289" s="7" t="s">
@@ -20330,7 +20330,7 @@
       <c r="Z289" s="7"/>
     </row>
     <row r="290" spans="1:26" ht="91.5">
-      <c r="A290" s="17" t="s">
+      <c r="A290" s="16" t="s">
         <v>509</v>
       </c>
       <c r="B290" s="7" t="s">
@@ -20351,7 +20351,7 @@
       <c r="G290" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H290" s="23" t="s">
+      <c r="H290" s="22" t="s">
         <v>1415</v>
       </c>
       <c r="I290" s="7" t="s">
@@ -20376,7 +20376,7 @@
       <c r="Z290" s="7"/>
     </row>
     <row r="291" spans="1:26" ht="106.5">
-      <c r="A291" s="17" t="s">
+      <c r="A291" s="16" t="s">
         <v>509</v>
       </c>
       <c r="B291" s="7" t="s">
@@ -20397,7 +20397,7 @@
       <c r="G291" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H291" s="23" t="s">
+      <c r="H291" s="22" t="s">
         <v>1383</v>
       </c>
       <c r="I291" s="7" t="s">
@@ -20422,7 +20422,7 @@
       <c r="Z291" s="7"/>
     </row>
     <row r="292" spans="1:26" ht="91.5">
-      <c r="A292" s="17" t="s">
+      <c r="A292" s="16" t="s">
         <v>509</v>
       </c>
       <c r="B292" s="7" t="s">
@@ -20443,7 +20443,7 @@
       <c r="G292" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H292" s="23" t="s">
+      <c r="H292" s="22" t="s">
         <v>1383</v>
       </c>
       <c r="I292" s="7" t="s">
@@ -20468,7 +20468,7 @@
       <c r="Z292" s="7"/>
     </row>
     <row r="293" spans="1:26" ht="91.5">
-      <c r="A293" s="17" t="s">
+      <c r="A293" s="16" t="s">
         <v>509</v>
       </c>
       <c r="B293" s="7" t="s">
@@ -20489,7 +20489,7 @@
       <c r="G293" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H293" s="23" t="s">
+      <c r="H293" s="22" t="s">
         <v>1365</v>
       </c>
       <c r="I293" s="7" t="s">
@@ -20514,7 +20514,7 @@
       <c r="Z293" s="7"/>
     </row>
     <row r="294" spans="1:26" ht="183">
-      <c r="A294" s="17" t="s">
+      <c r="A294" s="16" t="s">
         <v>1428</v>
       </c>
       <c r="B294" s="7" t="s">
@@ -20535,7 +20535,7 @@
       <c r="G294" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H294" s="23" t="s">
+      <c r="H294" s="22" t="s">
         <v>1432</v>
       </c>
       <c r="I294" s="7" t="s">
@@ -20560,7 +20560,7 @@
       <c r="Z294" s="7"/>
     </row>
     <row r="295" spans="1:26" ht="91.5">
-      <c r="A295" s="17" t="s">
+      <c r="A295" s="16" t="s">
         <v>509</v>
       </c>
       <c r="B295" s="7" t="s">
@@ -20581,7 +20581,7 @@
       <c r="G295" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H295" s="23" t="s">
+      <c r="H295" s="22" t="s">
         <v>1437</v>
       </c>
       <c r="I295" s="7" t="s">
@@ -20606,10 +20606,10 @@
       <c r="Z295" s="7"/>
     </row>
     <row r="296" spans="1:26" ht="30.75">
-      <c r="A296" s="17" t="s">
+      <c r="A296" s="16" t="s">
         <v>874</v>
       </c>
-      <c r="B296" s="59" t="s">
+      <c r="B296" s="58" t="s">
         <v>1441</v>
       </c>
       <c r="C296" s="7" t="s">
@@ -20627,10 +20627,10 @@
       <c r="G296" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H296" s="23" t="s">
+      <c r="H296" s="22" t="s">
         <v>1443</v>
       </c>
-      <c r="I296" s="59" t="s">
+      <c r="I296" s="58" t="s">
         <v>1444</v>
       </c>
       <c r="J296" s="7" t="s">
@@ -20642,14 +20642,14 @@
       <c r="M296" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="N296" s="65" t="s">
+      <c r="N296" s="64" t="s">
         <v>1445</v>
       </c>
       <c r="R296" s="5"/>
       <c r="Z296" s="7"/>
     </row>
     <row r="297" spans="1:26" ht="137.25">
-      <c r="A297" s="17" t="s">
+      <c r="A297" s="16" t="s">
         <v>874</v>
       </c>
       <c r="B297" s="7" t="s">
@@ -20671,7 +20671,7 @@
       <c r="Z297" s="7"/>
     </row>
     <row r="298" spans="1:26" ht="106.5">
-      <c r="A298" s="17" t="s">
+      <c r="A298" s="16" t="s">
         <v>1449</v>
       </c>
       <c r="B298" s="7" t="s">
@@ -20692,7 +20692,7 @@
       <c r="G298" s="7" t="s">
         <v>1453</v>
       </c>
-      <c r="H298" s="23" t="s">
+      <c r="H298" s="22" t="s">
         <v>1161</v>
       </c>
       <c r="I298" s="7" t="s">
@@ -20707,14 +20707,14 @@
       <c r="M298" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="N298" s="65" t="s">
+      <c r="N298" s="64" t="s">
         <v>1455</v>
       </c>
       <c r="R298" s="5"/>
       <c r="Z298" s="7"/>
     </row>
     <row r="299" spans="1:26" ht="229.5">
-      <c r="A299" s="17" t="s">
+      <c r="A299" s="16" t="s">
         <v>1456</v>
       </c>
       <c r="B299" s="7" t="s">
@@ -20732,10 +20732,10 @@
       <c r="G299" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H299" s="23" t="s">
+      <c r="H299" s="22" t="s">
         <v>1460</v>
       </c>
-      <c r="I299" s="66" t="s">
+      <c r="I299" s="65" t="s">
         <v>1461</v>
       </c>
       <c r="J299" s="7" t="s">
@@ -20754,7 +20754,7 @@
       <c r="Z299" s="7"/>
     </row>
     <row r="300" spans="1:26" ht="45.75">
-      <c r="A300" s="17" t="s">
+      <c r="A300" s="16" t="s">
         <v>1464</v>
       </c>
       <c r="B300" t="s">
@@ -20775,7 +20775,7 @@
       <c r="G300" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H300" s="23" t="s">
+      <c r="H300" s="22" t="s">
         <v>1466</v>
       </c>
       <c r="I300" t="s">
@@ -20790,14 +20790,14 @@
       <c r="M300" s="7" t="s">
         <v>1468</v>
       </c>
-      <c r="N300" s="61" t="s">
+      <c r="N300" s="60" t="s">
         <v>1469</v>
       </c>
       <c r="R300" s="5"/>
       <c r="Z300" s="7"/>
     </row>
     <row r="301" spans="1:26" ht="381.75">
-      <c r="A301" s="17" t="s">
+      <c r="A301" s="16" t="s">
         <v>1470</v>
       </c>
       <c r="B301" s="7" t="s">
@@ -20818,7 +20818,7 @@
       <c r="G301" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H301" s="23" t="s">
+      <c r="H301" s="22" t="s">
         <v>1460</v>
       </c>
       <c r="I301" t="s">
@@ -20843,7 +20843,7 @@
       <c r="Z301" s="7"/>
     </row>
     <row r="302" spans="1:26" ht="409.6">
-      <c r="A302" s="17" t="s">
+      <c r="A302" s="16" t="s">
         <v>1474</v>
       </c>
       <c r="B302" s="7" t="s">
@@ -20855,7 +20855,7 @@
       <c r="F302" s="7" t="s">
         <v>1476</v>
       </c>
-      <c r="H302" s="23" t="s">
+      <c r="H302" s="22" t="s">
         <v>369</v>
       </c>
       <c r="I302" s="7" t="s">
@@ -20880,7 +20880,7 @@
       <c r="Z302" s="7"/>
     </row>
     <row r="303" spans="1:26" ht="409.6">
-      <c r="A303" s="17" t="s">
+      <c r="A303" s="16" t="s">
         <v>1479</v>
       </c>
       <c r="B303" s="7" t="s">
@@ -20901,7 +20901,7 @@
       <c r="G303" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H303" s="23" t="s">
+      <c r="H303" s="22" t="s">
         <v>1460</v>
       </c>
       <c r="I303" s="7" t="s">
@@ -20923,7 +20923,7 @@
       <c r="Z303" s="7"/>
     </row>
     <row r="304" spans="1:26" ht="409.6">
-      <c r="A304" s="17" t="s">
+      <c r="A304" s="16" t="s">
         <v>1484</v>
       </c>
       <c r="B304" s="7" t="s">
@@ -20941,7 +20941,7 @@
       <c r="G304" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H304" s="23" t="s">
+      <c r="H304" s="22" t="s">
         <v>1486</v>
       </c>
       <c r="I304" s="7" t="s">
